--- a/data/barriers.xlsx
+++ b/data/barriers.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="685">
   <si>
     <t xml:space="preserve">group</t>
   </si>
@@ -898,7 +898,7 @@
     <t xml:space="preserve">1_8</t>
   </si>
   <si>
-    <t xml:space="preserve">1,4,3,2,8,7,30,31,29,41,36,39</t>
+    <t xml:space="preserve">1,4,3,2,8,7,   30,31,29,41,36,39</t>
   </si>
   <si>
     <t xml:space="preserve">["c7","c8","c2","n3","n4","c1"]</t>
@@ -910,16 +910,16 @@
     <t xml:space="preserve">1_9</t>
   </si>
   <si>
-    <t xml:space="preserve">2, 7, 8, 1, 5, 3, 40, 42, 41, 38, 31, 33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ "c3","c5","c1","n8","n7","c2"]</t>
+    <t xml:space="preserve">2,7,8,1,5,3,   40,42,41,38,31,33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["c3","c5","c1","n8","n7","c2"]</t>
   </si>
   <si>
     <t xml:space="preserve">2_8</t>
   </si>
   <si>
-    <t xml:space="preserve">1,6,5,4,7,8,29,31,30,36,33,25</t>
+    <t xml:space="preserve">1,6,5,4,7,8,   29,31,30,36,33,25</t>
   </si>
   <si>
     <t xml:space="preserve">["c8","c7","c4","n5","n6","c1"]</t>
@@ -928,7 +928,7 @@
     <t xml:space="preserve">2_9</t>
   </si>
   <si>
-    <t xml:space="preserve">1,6,5,4,8,7,33,34,32,43,37,40</t>
+    <t xml:space="preserve">1,6,5,4,8,7,   33,34,32,43,37,40</t>
   </si>
   <si>
     <t xml:space="preserve">["c7","c8","c4","n5","n6","c1"]</t>
@@ -937,7 +937,7 @@
     <t xml:space="preserve">3_8</t>
   </si>
   <si>
-    <t xml:space="preserve">2,3,4,1,8,7,41,42,40,49,47,39</t>
+    <t xml:space="preserve">2,3,4,1,8,7,  41,42,40,49,47,39</t>
   </si>
   <si>
     <t xml:space="preserve">["c7","c8","c1","n4","n3","c2"]</t>
@@ -946,7 +946,7 @@
     <t xml:space="preserve">3_9</t>
   </si>
   <si>
-    <t xml:space="preserve">2,9,10,1,5,3,55,57,54,48,41,46</t>
+    <t xml:space="preserve">2,9,10,1,5,3,  55,57,54,48,41,46</t>
   </si>
   <si>
     <t xml:space="preserve">["c3","c5","c1","n10","n9","c2"]</t>
@@ -955,7 +955,7 @@
     <t xml:space="preserve">4_8</t>
   </si>
   <si>
-    <t xml:space="preserve">1,2,3,4,7,8,19,21,23,34,31,27</t>
+    <t xml:space="preserve">1,2,3,4,7,8,   19,21,23,34,31,27</t>
   </si>
   <si>
     <t xml:space="preserve">["c8","c7","c4","n3","n2","c1"]</t>
@@ -964,7 +964,7 @@
     <t xml:space="preserve">4_9</t>
   </si>
   <si>
-    <t xml:space="preserve">4,5,6,1,7,8,27,28,26,35,31,29</t>
+    <t xml:space="preserve">4,5,6,1,7,8,   27,28,26,35,31,29</t>
   </si>
   <si>
     <t xml:space="preserve">["c8","c7","c1","n6","n5","c4"]</t>
@@ -973,7 +973,7 @@
     <t xml:space="preserve">5_8</t>
   </si>
   <si>
-    <t xml:space="preserve">2,3,4,1,7,8,39,41,40,51,38,47</t>
+    <t xml:space="preserve">2,3,4,1,7,8, 39,41,40,51,38,47</t>
   </si>
   <si>
     <t xml:space="preserve">["c8","c7","c1","n4","n3","c2"]</t>
@@ -982,7 +982,7 @@
     <t xml:space="preserve">5_9</t>
   </si>
   <si>
-    <t xml:space="preserve">1,10,9,2,3,5,52,53,50,44,40,39</t>
+    <t xml:space="preserve">1,10,9,2,3,5, 52,53,50,44,40,39</t>
   </si>
   <si>
     <t xml:space="preserve">["c5","c3","c2","n9","n10","c1"]</t>
@@ -991,22 +991,19 @@
     <t xml:space="preserve">6_8</t>
   </si>
   <si>
-    <t xml:space="preserve">2,3,4,1,7,8,33,35,34,45,32,41</t>
+    <t xml:space="preserve">2,3,4,1,7,8,   33,35,34,45,32,41</t>
   </si>
   <si>
     <t xml:space="preserve">6_9</t>
   </si>
   <si>
-    <t xml:space="preserve">2,7,8,1,5,3,44,46,45,42,34,35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">["c3","c5","c1","n8","n7","c2"]</t>
+    <t xml:space="preserve">2,7,8,1,5,3,   44,46,45,42,34,35</t>
   </si>
   <si>
     <t xml:space="preserve">7_8</t>
   </si>
   <si>
-    <t xml:space="preserve">1,2,3,4,8,7,26,27,28,39,25,35</t>
+    <t xml:space="preserve">1,2,3,4,8,7,   26,27,28,39,25,35</t>
   </si>
   <si>
     <t xml:space="preserve">["c7","c8","c4","n3","n2","c1"]</t>
@@ -1015,7 +1012,7 @@
     <t xml:space="preserve">7_9</t>
   </si>
   <si>
-    <t xml:space="preserve">1,2,3,4,8,7,28,29,31,41,39,46</t>
+    <t xml:space="preserve">1,2,3,4,8,7,   28,29,31,41,39,46</t>
   </si>
   <si>
     <t xml:space="preserve">1_10</t>
@@ -2087,7 +2084,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2117,15 +2114,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
@@ -2194,7 +2183,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
       <family val="0"/>
@@ -2207,7 +2196,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2218,6 +2207,30 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFFFCC00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF33CCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4CCCC"/>
+        <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -2255,7 +2268,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2265,30 +2278,94 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2296,55 +2373,27 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2357,6 +2406,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFF4CCCC"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -2367,8 +2476,8 @@
   </sheetPr>
   <dimension ref="A1:M1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A214" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D228" activeCellId="0" sqref="D228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2379,17 +2488,17 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="35.86"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -2408,17 +2517,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -2437,17 +2546,17 @@
         <v>168.3596624</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -2466,17 +2575,17 @@
         <v>144.9913997</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -2495,17 +2604,17 @@
         <v>212.2417443</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -2524,17 +2633,17 @@
         <v>108.8553304</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -2553,17 +2662,17 @@
         <v>134.7338337</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -2582,17 +2691,17 @@
         <v>251.7728476</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -2611,17 +2720,17 @@
         <v>228.4528941</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -2640,17 +2749,17 @@
         <v>101.9027439</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -2669,17 +2778,17 @@
         <v>131.0066739</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -2698,17 +2807,17 @@
         <v>266.6725601</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -2727,17 +2836,17 @@
         <v>235.7846028</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -2756,17 +2865,17 @@
         <v>177.9198955</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B14" s="4" t="n">
         <v>19</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -2785,17 +2894,17 @@
         <v>214.4647552</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="2" t="n">
+      <c r="B15" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -2814,17 +2923,17 @@
         <v>274.1339685</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="2" t="n">
+      <c r="B16" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>52</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -2843,17 +2952,17 @@
         <v>208.1646054</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="2" t="n">
+      <c r="B17" s="4" t="n">
         <v>22</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -2872,17 +2981,17 @@
         <v>150.4332735</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="2" t="n">
+      <c r="B18" s="4" t="n">
         <v>23</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>58</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -2901,17 +3010,17 @@
         <v>183.742992</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="2" t="n">
+      <c r="B19" s="4" t="n">
         <v>24</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>61</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -2930,17 +3039,17 @@
         <v>190.0003461</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="2" t="n">
+      <c r="B20" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>64</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -2959,17 +3068,17 @@
         <v>197.3163019</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="2" t="n">
+      <c r="B21" s="4" t="n">
         <v>26</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="3" t="s">
         <v>67</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -2988,7 +3097,7 @@
         <v>264.0612378</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
         <v>9</v>
       </c>
@@ -3021,7 +3130,7 @@
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
         <v>9</v>
       </c>
@@ -3054,7 +3163,7 @@
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
         <v>9</v>
       </c>
@@ -3087,7 +3196,7 @@
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
         <v>9</v>
       </c>
@@ -3120,7 +3229,7 @@
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
         <v>9</v>
       </c>
@@ -3153,7 +3262,7 @@
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
         <v>9</v>
       </c>
@@ -3186,7 +3295,7 @@
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
         <v>9</v>
       </c>
@@ -3219,7 +3328,7 @@
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
         <v>9</v>
       </c>
@@ -3252,7 +3361,7 @@
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
         <v>9</v>
       </c>
@@ -3285,7 +3394,7 @@
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
         <v>9</v>
       </c>
@@ -3318,7 +3427,7 @@
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
         <v>9</v>
       </c>
@@ -3351,7 +3460,7 @@
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
         <v>9</v>
       </c>
@@ -3384,7 +3493,7 @@
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
         <v>9</v>
       </c>
@@ -3417,7 +3526,7 @@
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
         <v>9</v>
       </c>
@@ -3450,7 +3559,7 @@
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
         <v>9</v>
       </c>
@@ -3483,7 +3592,7 @@
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
         <v>9</v>
       </c>
@@ -3516,17 +3625,17 @@
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B38" s="2" t="n">
+      <c r="B38" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="3" t="s">
         <v>119</v>
       </c>
       <c r="E38" s="1" t="s">
@@ -3549,13 +3658,13 @@
       <c r="A39" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B39" s="2" t="n">
+      <c r="B39" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="3" t="s">
         <v>122</v>
       </c>
       <c r="E39" s="1" t="s">
@@ -3574,17 +3683,17 @@
         <v>83.36566365</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B40" s="2" t="n">
+      <c r="B40" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="3" t="s">
         <v>125</v>
       </c>
       <c r="E40" s="1" t="s">
@@ -3603,17 +3712,17 @@
         <v>80.3308482</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B41" s="2" t="n">
+      <c r="B41" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="3" t="s">
         <v>128</v>
       </c>
       <c r="E41" s="1" t="s">
@@ -3632,17 +3741,17 @@
         <v>75.0861494</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B42" s="2" t="n">
+      <c r="B42" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="3" t="s">
         <v>125</v>
       </c>
       <c r="E42" s="1" t="s">
@@ -3661,17 +3770,17 @@
         <v>92.26348315</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B43" s="2" t="n">
+      <c r="B43" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="3" t="s">
         <v>133</v>
       </c>
       <c r="E43" s="1" t="s">
@@ -3690,17 +3799,17 @@
         <v>81.37028365</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B44" s="2" t="n">
+      <c r="B44" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="3" t="s">
         <v>136</v>
       </c>
       <c r="E44" s="1" t="s">
@@ -3719,17 +3828,17 @@
         <v>76.5916111</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B45" s="2" t="n">
+      <c r="B45" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="3" t="s">
         <v>139</v>
       </c>
       <c r="E45" s="1" t="s">
@@ -3748,17 +3857,17 @@
         <v>76.0423565</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B46" s="2" t="n">
+      <c r="B46" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="3" t="s">
         <v>142</v>
       </c>
       <c r="E46" s="1" t="s">
@@ -3777,17 +3886,17 @@
         <v>78.87815905</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B47" s="2" t="n">
+      <c r="B47" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="3" t="s">
         <v>145</v>
       </c>
       <c r="E47" s="1" t="s">
@@ -3806,17 +3915,17 @@
         <v>74.93465805</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B48" s="2" t="n">
+      <c r="B48" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="3" t="s">
         <v>148</v>
       </c>
       <c r="E48" s="1" t="s">
@@ -3835,17 +3944,17 @@
         <v>86.4162321</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B49" s="2" t="n">
+      <c r="B49" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="3" t="s">
         <v>148</v>
       </c>
       <c r="E49" s="1" t="s">
@@ -3864,17 +3973,17 @@
         <v>84.7495647</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B50" s="2" t="n">
+      <c r="B50" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="3" t="s">
         <v>151</v>
       </c>
       <c r="E50" s="1" t="s">
@@ -3893,17 +4002,17 @@
         <v>105.2158623</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B51" s="2" t="n">
+      <c r="B51" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="3" t="s">
         <v>154</v>
       </c>
       <c r="E51" s="1" t="s">
@@ -3922,17 +4031,17 @@
         <v>96.2203742</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B52" s="2" t="n">
+      <c r="B52" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="3" t="s">
         <v>157</v>
       </c>
       <c r="E52" s="1" t="s">
@@ -3951,17 +4060,17 @@
         <v>106.8090157</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B53" s="2" t="n">
+      <c r="B53" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="3" t="s">
         <v>159</v>
       </c>
       <c r="E53" s="1" t="s">
@@ -3980,17 +4089,17 @@
         <v>98.9209635</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="3" t="s">
         <v>163</v>
       </c>
       <c r="E54" s="1" t="s">
@@ -4009,17 +4118,17 @@
         <v>50.51908335</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="10" t="s">
         <v>167</v>
       </c>
       <c r="E55" s="1" t="s">
@@ -4038,17 +4147,17 @@
         <v>66.79403275</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="10" t="s">
         <v>171</v>
       </c>
       <c r="E56" s="1" t="s">
@@ -4067,17 +4176,17 @@
         <v>91.677209</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="10" t="s">
         <v>175</v>
       </c>
       <c r="E57" s="1" t="s">
@@ -4096,17 +4205,17 @@
         <v>95.7462089</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D58" s="10" t="s">
         <v>175</v>
       </c>
       <c r="E58" s="1" t="s">
@@ -4125,17 +4234,17 @@
         <v>105.2544571</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D59" s="10" t="s">
         <v>175</v>
       </c>
       <c r="E59" s="1" t="s">
@@ -4154,17 +4263,17 @@
         <v>113.1582624</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="D60" s="10" t="s">
         <v>175</v>
       </c>
       <c r="E60" s="1" t="s">
@@ -4183,17 +4292,17 @@
         <v>122.3249331</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D61" s="10" t="s">
         <v>175</v>
       </c>
       <c r="E61" s="1" t="s">
@@ -4212,17 +4321,17 @@
         <v>126.2343025</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="D62" s="10" t="s">
         <v>175</v>
       </c>
       <c r="E62" s="1" t="s">
@@ -4241,17 +4350,17 @@
         <v>108.2656431</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D63" s="10" t="s">
         <v>175</v>
       </c>
       <c r="E63" s="1" t="s">
@@ -4270,17 +4379,17 @@
         <v>114.3554904</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="D64" s="10" t="s">
         <v>197</v>
       </c>
       <c r="E64" s="1" t="s">
@@ -4299,17 +4408,17 @@
         <v>63.54418885</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D65" s="8" t="s">
+      <c r="D65" s="10" t="s">
         <v>201</v>
       </c>
       <c r="E65" s="1" t="s">
@@ -4328,17 +4437,17 @@
         <v>63.4042497</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D66" s="8" t="s">
+      <c r="D66" s="10" t="s">
         <v>205</v>
       </c>
       <c r="E66" s="1" t="s">
@@ -4357,17 +4466,17 @@
         <v>110.4455958</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D67" s="10" t="s">
         <v>197</v>
       </c>
       <c r="E67" s="1" t="s">
@@ -4386,17 +4495,17 @@
         <v>101.5181081</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="D68" s="8" t="s">
+      <c r="D68" s="10" t="s">
         <v>205</v>
       </c>
       <c r="E68" s="1" t="s">
@@ -4415,17 +4524,17 @@
         <v>127.5347127</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D69" s="8" t="s">
+      <c r="D69" s="10" t="s">
         <v>205</v>
       </c>
       <c r="E69" s="1" t="s">
@@ -4444,17 +4553,17 @@
         <v>132.9269646</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D70" s="8" t="s">
+      <c r="D70" s="10" t="s">
         <v>205</v>
       </c>
       <c r="E70" s="1" t="s">
@@ -4473,17 +4582,17 @@
         <v>132.5055719</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="D71" s="10" t="s">
         <v>197</v>
       </c>
       <c r="E71" s="1" t="s">
@@ -4502,17 +4611,17 @@
         <v>139.2638714</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D72" s="8" t="s">
+      <c r="D72" s="10" t="s">
         <v>197</v>
       </c>
       <c r="E72" s="1" t="s">
@@ -4531,17 +4640,17 @@
         <v>123.1099576</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D73" s="8" t="s">
+      <c r="D73" s="10" t="s">
         <v>197</v>
       </c>
       <c r="E73" s="1" t="s">
@@ -4560,17 +4669,17 @@
         <v>128.6985968</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="5" t="s">
         <v>160</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C74" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="D74" s="11" t="s">
+      <c r="D74" s="12" t="s">
         <v>230</v>
       </c>
       <c r="E74" s="5" t="s">
@@ -4593,17 +4702,17 @@
       <c r="L74" s="5"/>
       <c r="M74" s="5"/>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="5" t="s">
         <v>160</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="C75" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="D75" s="11" t="s">
+      <c r="D75" s="12" t="s">
         <v>234</v>
       </c>
       <c r="E75" s="5" t="s">
@@ -4626,17 +4735,17 @@
       <c r="L75" s="5"/>
       <c r="M75" s="5"/>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="5" t="s">
         <v>160</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C76" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="D76" s="11" t="s">
+      <c r="D76" s="12" t="s">
         <v>238</v>
       </c>
       <c r="E76" s="5" t="s">
@@ -4655,17 +4764,17 @@
         <v>100.11189</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="5" t="s">
         <v>160</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C77" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="D77" s="11" t="s">
+      <c r="D77" s="12" t="s">
         <v>238</v>
       </c>
       <c r="E77" s="5" t="s">
@@ -4684,17 +4793,17 @@
         <v>110.166505</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="5" t="s">
         <v>160</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C78" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="D78" s="11" t="s">
+      <c r="D78" s="12" t="s">
         <v>238</v>
       </c>
       <c r="E78" s="5" t="s">
@@ -4713,17 +4822,17 @@
         <v>102.643923</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="5" t="s">
         <v>160</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C79" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="D79" s="11" t="s">
+      <c r="D79" s="12" t="s">
         <v>238</v>
       </c>
       <c r="E79" s="5" t="s">
@@ -4742,17 +4851,17 @@
         <v>24.5234828</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="5" t="s">
         <v>160</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C80" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="D80" s="11" t="s">
+      <c r="D80" s="12" t="s">
         <v>251</v>
       </c>
       <c r="E80" s="5" t="s">
@@ -4771,17 +4880,17 @@
         <v>41.4001968</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="5" t="s">
         <v>160</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C81" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="D81" s="11" t="s">
+      <c r="D81" s="12" t="s">
         <v>238</v>
       </c>
       <c r="E81" s="5" t="s">
@@ -4800,17 +4909,17 @@
         <v>64.9556577</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="5" t="s">
         <v>160</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C82" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="D82" s="11" t="s">
+      <c r="D82" s="12" t="s">
         <v>238</v>
       </c>
       <c r="E82" s="5" t="s">
@@ -4829,17 +4938,17 @@
         <v>73.5596837</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="5" t="s">
         <v>160</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C83" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="D83" s="11" t="s">
+      <c r="D83" s="12" t="s">
         <v>261</v>
       </c>
       <c r="E83" s="5" t="s">
@@ -4858,341 +4967,341 @@
         <v>64.2945568</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="12" t="s">
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C84" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="D84" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="E84" s="13"/>
-      <c r="I84" s="14" t="n">
+      <c r="E84" s="15"/>
+      <c r="I84" s="16" t="n">
         <v>17.79766411</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="15" t="s">
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C85" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="D85" s="4" t="s">
+      <c r="D85" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="E85" s="16"/>
-      <c r="I85" s="14" t="n">
+      <c r="E85" s="18"/>
+      <c r="I85" s="16" t="n">
         <v>21.35993585</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="15" t="s">
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C86" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="D86" s="4" t="s">
+      <c r="D86" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="E86" s="13"/>
-      <c r="I86" s="14" t="n">
+      <c r="E86" s="15"/>
+      <c r="I86" s="16" t="n">
         <v>19.37006077</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="15" t="s">
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C87" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="D87" s="4" t="s">
+      <c r="D87" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="E87" s="13"/>
-      <c r="I87" s="14" t="n">
+      <c r="E87" s="15"/>
+      <c r="I87" s="16" t="n">
         <v>20.31849079</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="15" t="s">
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C88" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="D88" s="4" t="s">
+      <c r="D88" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="E88" s="13"/>
-      <c r="I88" s="14" t="n">
+      <c r="E88" s="15"/>
+      <c r="I88" s="16" t="n">
         <v>18.27891088</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="15" t="s">
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D89" s="4" t="s">
+      <c r="D89" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="E89" s="17"/>
-      <c r="I89" s="14" t="n">
+      <c r="E89" s="19"/>
+      <c r="I89" s="16" t="n">
         <v>21.92453015</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="15" t="s">
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C90" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="D90" s="4" t="s">
+      <c r="D90" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="E90" s="13"/>
-      <c r="I90" s="14" t="n">
+      <c r="E90" s="15"/>
+      <c r="I90" s="16" t="n">
         <v>19.62901875</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="15" t="s">
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C91" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="D91" s="4" t="s">
+      <c r="D91" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="E91" s="16"/>
-      <c r="I91" s="14" t="n">
+      <c r="E91" s="18"/>
+      <c r="I91" s="16" t="n">
         <v>20.20802193</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="15" t="s">
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="C92" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="D92" s="4" t="s">
+      <c r="D92" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="E92" s="16"/>
-      <c r="I92" s="14" t="n">
+      <c r="E92" s="18"/>
+      <c r="I92" s="16" t="n">
         <v>20.77904694</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="15" t="s">
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="C93" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="D93" s="4" t="s">
+      <c r="D93" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="E93" s="13"/>
-      <c r="I93" s="14" t="n">
+      <c r="E93" s="15"/>
+      <c r="I93" s="16" t="n">
         <v>19.54516586</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="15" t="s">
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C94" s="7" t="s">
+      <c r="C94" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="D94" s="4" t="s">
+      <c r="D94" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="E94" s="13"/>
-      <c r="I94" s="14" t="n">
+      <c r="E94" s="15"/>
+      <c r="I94" s="16" t="n">
         <v>20.56913096</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="15" t="s">
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C95" s="7" t="s">
+      <c r="C95" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="D95" s="4" t="s">
+      <c r="D95" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="E95" s="13"/>
-      <c r="I95" s="14" t="n">
+      <c r="E95" s="15"/>
+      <c r="I95" s="16" t="n">
         <v>19.52571143</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="15" t="s">
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C96" s="7" t="s">
+      <c r="C96" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="D96" s="4" t="s">
+      <c r="D96" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="E96" s="13"/>
-      <c r="I96" s="14" t="n">
+      <c r="E96" s="15"/>
+      <c r="I96" s="16" t="n">
         <v>20.76504277</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="15" t="s">
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C97" s="7" t="s">
+      <c r="C97" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="D97" s="4" t="s">
+      <c r="D97" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="E97" s="13"/>
-      <c r="I97" s="14" t="n">
+      <c r="E97" s="15"/>
+      <c r="I97" s="16" t="n">
         <v>19.4565663</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="15" t="s">
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C98" s="7" t="s">
+      <c r="C98" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="D98" s="4" t="s">
+      <c r="D98" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="E98" s="13"/>
-      <c r="I98" s="14" t="n">
+      <c r="E98" s="15"/>
+      <c r="I98" s="16" t="n">
         <v>20.63306604</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="15" t="s">
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C99" s="7" t="s">
+      <c r="C99" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="D99" s="4" t="s">
+      <c r="D99" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="E99" s="13"/>
-      <c r="I99" s="14" t="n">
+      <c r="E99" s="15"/>
+      <c r="I99" s="16" t="n">
         <v>19.69612186</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="15" t="s">
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C100" s="7" t="s">
+      <c r="C100" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="D100" s="4" t="s">
+      <c r="D100" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="E100" s="13"/>
-      <c r="I100" s="14" t="n">
+      <c r="E100" s="15"/>
+      <c r="I100" s="16" t="n">
         <v>20.03680096</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="15" t="s">
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C101" s="7" t="s">
+      <c r="C101" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="D101" s="4" t="s">
+      <c r="D101" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="E101" s="13"/>
-      <c r="I101" s="14" t="n">
+      <c r="E101" s="15"/>
+      <c r="I101" s="16" t="n">
         <v>20.40849549</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="B102" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="C102" s="10" t="s">
+      <c r="C102" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="D102" s="10" t="s">
+      <c r="D102" s="21" t="s">
         <v>293</v>
       </c>
       <c r="E102" s="5" t="s">
@@ -5211,17 +5320,17 @@
         <v>126.631016</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B103" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="C103" s="10" t="s">
+      <c r="C103" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="D103" s="10" t="s">
+      <c r="D103" s="21" t="s">
         <v>297</v>
       </c>
       <c r="E103" s="5" t="s">
@@ -5240,17 +5349,17 @@
         <v>111.888045</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B104" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C104" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="D104" s="4" t="s">
+      <c r="D104" s="22" t="s">
         <v>300</v>
       </c>
       <c r="E104" s="5" t="s">
@@ -5269,17 +5378,17 @@
         <v>128.829609</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="B105" s="20" t="s">
         <v>301</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C105" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D105" s="4" t="s">
+      <c r="D105" s="22" t="s">
         <v>303</v>
       </c>
       <c r="E105" s="5" t="s">
@@ -5298,17 +5407,17 @@
         <v>104.971166</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="B106" s="20" t="s">
         <v>304</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C106" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="D106" s="4" t="s">
+      <c r="D106" s="22" t="s">
         <v>306</v>
       </c>
       <c r="E106" s="5" t="s">
@@ -5327,17 +5436,17 @@
         <v>128.278779</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B107" s="5" t="s">
+      <c r="B107" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C107" s="23" t="s">
         <v>308</v>
       </c>
-      <c r="D107" s="4" t="s">
+      <c r="D107" s="3" t="s">
         <v>309</v>
       </c>
       <c r="E107" s="5" t="s">
@@ -5356,17 +5465,17 @@
         <v>112.829025</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="B108" s="20" t="s">
         <v>310</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="C108" s="23" t="s">
         <v>311</v>
       </c>
-      <c r="D108" s="4" t="s">
+      <c r="D108" s="3" t="s">
         <v>312</v>
       </c>
       <c r="E108" s="5" t="s">
@@ -5385,17 +5494,17 @@
         <v>96.0210988</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B109" s="5" t="s">
+      <c r="B109" s="20" t="s">
         <v>313</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="C109" s="23" t="s">
         <v>314</v>
       </c>
-      <c r="D109" s="4" t="s">
+      <c r="D109" s="3" t="s">
         <v>315</v>
       </c>
       <c r="E109" s="5" t="s">
@@ -5414,17 +5523,17 @@
         <v>80.9895862</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B110" s="5" t="s">
+      <c r="B110" s="20" t="s">
         <v>316</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="C110" s="23" t="s">
         <v>317</v>
       </c>
-      <c r="D110" s="4" t="s">
+      <c r="D110" s="3" t="s">
         <v>318</v>
       </c>
       <c r="E110" s="5" t="s">
@@ -5443,17 +5552,17 @@
         <v>120.935781</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B111" s="5" t="s">
+      <c r="B111" s="20" t="s">
         <v>319</v>
       </c>
-      <c r="C111" s="4" t="s">
+      <c r="C111" s="23" t="s">
         <v>320</v>
       </c>
-      <c r="D111" s="4" t="s">
+      <c r="D111" s="3" t="s">
         <v>321</v>
       </c>
       <c r="E111" s="5" t="s">
@@ -5472,17 +5581,17 @@
         <v>85.0795901</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B112" s="5" t="s">
+      <c r="B112" s="20" t="s">
         <v>322</v>
       </c>
-      <c r="C112" s="4" t="s">
+      <c r="C112" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="D112" s="4" t="s">
+      <c r="D112" s="3" t="s">
         <v>318</v>
       </c>
       <c r="E112" s="5" t="s">
@@ -5501,18 +5610,18 @@
         <v>103.134103</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B113" s="5" t="s">
+      <c r="B113" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="C113" s="4" t="s">
+      <c r="C113" s="23" t="s">
         <v>325</v>
       </c>
-      <c r="D113" s="4" t="s">
-        <v>326</v>
+      <c r="D113" s="3" t="s">
+        <v>297</v>
       </c>
       <c r="E113" s="5" t="s">
         <v>294</v>
@@ -5530,18 +5639,18 @@
         <v>71.9405379</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B114" s="5" t="s">
+      <c r="B114" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="C114" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="C114" s="4" t="s">
+      <c r="D114" s="3" t="s">
         <v>328</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>329</v>
       </c>
       <c r="E114" s="5" t="s">
         <v>294</v>
@@ -5559,18 +5668,18 @@
         <v>91.6782592</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B115" s="5" t="s">
+      <c r="B115" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="C115" s="23" t="s">
         <v>330</v>
       </c>
-      <c r="C115" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>329</v>
+      <c r="D115" s="3" t="s">
+        <v>328</v>
       </c>
       <c r="E115" s="5" t="s">
         <v>294</v>
@@ -5588,18 +5697,18 @@
         <v>66.204608</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B116" s="5" t="s">
+      <c r="B116" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="C116" s="23" t="s">
         <v>332</v>
       </c>
-      <c r="C116" s="4" t="s">
+      <c r="D116" s="3" t="s">
         <v>333</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>334</v>
       </c>
       <c r="E116" s="5" t="s">
         <v>294</v>
@@ -5617,18 +5726,18 @@
         <v>72.9978267</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B117" s="5" t="s">
+      <c r="B117" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="C117" s="23" t="s">
         <v>335</v>
       </c>
-      <c r="C117" s="4" t="s">
+      <c r="D117" s="3" t="s">
         <v>336</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>337</v>
       </c>
       <c r="E117" s="5" t="s">
         <v>294</v>
@@ -5646,18 +5755,18 @@
         <v>66.8596703</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B118" s="5" t="s">
+      <c r="B118" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="C118" s="23" t="s">
         <v>338</v>
       </c>
-      <c r="C118" s="4" t="s">
+      <c r="D118" s="3" t="s">
         <v>339</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>340</v>
       </c>
       <c r="E118" s="5" t="s">
         <v>294</v>
@@ -5675,18 +5784,18 @@
         <v>76.6223295</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B119" s="5" t="s">
+      <c r="B119" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="C119" s="23" t="s">
         <v>341</v>
       </c>
-      <c r="C119" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="D119" s="4" t="s">
-        <v>337</v>
+      <c r="D119" s="3" t="s">
+        <v>336</v>
       </c>
       <c r="E119" s="5" t="s">
         <v>294</v>
@@ -5704,18 +5813,18 @@
         <v>63.8198664</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="5" t="s">
         <v>290</v>
       </c>
       <c r="B120" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="C120" s="23" t="s">
         <v>343</v>
       </c>
-      <c r="C120" s="4" t="s">
+      <c r="D120" s="3" t="s">
         <v>344</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>345</v>
       </c>
       <c r="E120" s="5" t="s">
         <v>294</v>
@@ -5733,18 +5842,18 @@
         <v>74.9496234</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="5" t="s">
         <v>290</v>
       </c>
       <c r="B121" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="C121" s="24" t="s">
         <v>346</v>
       </c>
-      <c r="C121" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="D121" s="4" t="s">
-        <v>326</v>
+      <c r="D121" s="3" t="s">
+        <v>297</v>
       </c>
       <c r="E121" s="5" t="s">
         <v>294</v>
@@ -5762,18 +5871,18 @@
         <v>66.8082105</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="5" t="s">
         <v>290</v>
       </c>
       <c r="B122" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C122" s="24" t="s">
         <v>348</v>
       </c>
-      <c r="C122" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="D122" s="8" t="s">
-        <v>345</v>
+      <c r="D122" s="10" t="s">
+        <v>344</v>
       </c>
       <c r="E122" s="5" t="s">
         <v>294</v>
@@ -5791,18 +5900,18 @@
         <v>45.8333535</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="5" t="s">
         <v>290</v>
       </c>
       <c r="B123" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="C123" s="24" t="s">
         <v>350</v>
       </c>
-      <c r="C123" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="D123" s="8" t="s">
-        <v>326</v>
+      <c r="D123" s="10" t="s">
+        <v>297</v>
       </c>
       <c r="E123" s="5" t="s">
         <v>294</v>
@@ -5820,18 +5929,18 @@
         <v>38.038244</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="5" t="s">
         <v>290</v>
       </c>
       <c r="B124" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="C124" s="24" t="s">
         <v>352</v>
       </c>
-      <c r="C124" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="D124" s="8" t="s">
-        <v>345</v>
+      <c r="D124" s="10" t="s">
+        <v>344</v>
       </c>
       <c r="E124" s="5" t="s">
         <v>294</v>
@@ -5849,17 +5958,17 @@
         <v>67.3414495</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="5" t="s">
         <v>290</v>
       </c>
       <c r="B125" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="C125" s="24" t="s">
         <v>354</v>
       </c>
-      <c r="C125" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="D125" s="8" t="s">
+      <c r="D125" s="10" t="s">
         <v>321</v>
       </c>
       <c r="E125" s="5" t="s">
@@ -5878,18 +5987,18 @@
         <v>43.3118233</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="5" t="s">
         <v>290</v>
       </c>
       <c r="B126" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="C126" s="24" t="s">
         <v>356</v>
       </c>
-      <c r="C126" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="D126" s="8" t="s">
-        <v>345</v>
+      <c r="D126" s="10" t="s">
+        <v>344</v>
       </c>
       <c r="E126" s="5" t="s">
         <v>294</v>
@@ -5907,18 +6016,18 @@
         <v>46.408338</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="5" t="s">
         <v>290</v>
       </c>
       <c r="B127" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C127" s="24" t="s">
         <v>358</v>
       </c>
-      <c r="C127" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="D127" s="8" t="s">
-        <v>326</v>
+      <c r="D127" s="10" t="s">
+        <v>297</v>
       </c>
       <c r="E127" s="5" t="s">
         <v>294</v>
@@ -5936,18 +6045,18 @@
         <v>30.2069026</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="5" t="s">
         <v>290</v>
       </c>
       <c r="B128" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="C128" s="24" t="s">
         <v>360</v>
       </c>
-      <c r="C128" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="D128" s="8" t="s">
-        <v>345</v>
+      <c r="D128" s="10" t="s">
+        <v>344</v>
       </c>
       <c r="E128" s="5" t="s">
         <v>294</v>
@@ -5965,18 +6074,18 @@
         <v>44.1716746</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="5" t="s">
         <v>290</v>
       </c>
       <c r="B129" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="C129" s="24" t="s">
         <v>362</v>
       </c>
-      <c r="C129" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="D129" s="8" t="s">
-        <v>326</v>
+      <c r="D129" s="10" t="s">
+        <v>297</v>
       </c>
       <c r="E129" s="5" t="s">
         <v>294</v>
@@ -5994,21 +6103,21 @@
         <v>28.76209</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="B130" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="B130" s="5" t="s">
+      <c r="C130" s="23" t="s">
         <v>365</v>
       </c>
-      <c r="C130" s="4" t="s">
+      <c r="D130" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="D130" s="8" t="s">
+      <c r="E130" s="5" t="s">
         <v>367</v>
-      </c>
-      <c r="E130" s="5" t="s">
-        <v>368</v>
       </c>
       <c r="F130" s="6" t="n">
         <v>-425.33674</v>
@@ -6023,21 +6132,21 @@
         <v>84.9231103</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B131" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C131" s="23" t="s">
         <v>369</v>
       </c>
-      <c r="C131" s="4" t="s">
+      <c r="D131" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="D131" s="8" t="s">
+      <c r="E131" s="5" t="s">
         <v>371</v>
-      </c>
-      <c r="E131" s="5" t="s">
-        <v>372</v>
       </c>
       <c r="F131" s="6" t="n">
         <v>-425.3375</v>
@@ -6052,21 +6161,21 @@
         <v>83.8621457</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B132" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="C132" s="23" t="s">
         <v>373</v>
       </c>
-      <c r="C132" s="4" t="s">
+      <c r="D132" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="D132" s="8" t="s">
+      <c r="E132" s="5" t="s">
         <v>375</v>
-      </c>
-      <c r="E132" s="5" t="s">
-        <v>376</v>
       </c>
       <c r="F132" s="6" t="n">
         <v>-425.33787</v>
@@ -6081,21 +6190,21 @@
         <v>96.2545057</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B133" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="C133" s="23" t="s">
         <v>377</v>
       </c>
-      <c r="C133" s="4" t="s">
+      <c r="D133" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="D133" s="8" t="s">
+      <c r="E133" s="5" t="s">
         <v>379</v>
-      </c>
-      <c r="E133" s="5" t="s">
-        <v>380</v>
       </c>
       <c r="F133" s="6" t="n">
         <v>-425.34019</v>
@@ -6110,21 +6219,21 @@
         <v>100.377591</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B134" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="C134" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="C134" s="4" t="s">
+      <c r="D134" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="D134" s="8" t="s">
+      <c r="E134" s="5" t="s">
         <v>383</v>
-      </c>
-      <c r="E134" s="5" t="s">
-        <v>384</v>
       </c>
       <c r="F134" s="6" t="n">
         <v>-503.97624</v>
@@ -6139,21 +6248,21 @@
         <v>90.6422369</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B135" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="C135" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="C135" s="4" t="s">
+      <c r="D135" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="D135" s="8" t="s">
+      <c r="E135" s="5" t="s">
         <v>387</v>
-      </c>
-      <c r="E135" s="5" t="s">
-        <v>388</v>
       </c>
       <c r="F135" s="6" t="n">
         <v>-503.97752</v>
@@ -6168,21 +6277,21 @@
         <v>90.2014155</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B136" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="C136" s="23" t="s">
         <v>389</v>
       </c>
-      <c r="C136" s="4" t="s">
+      <c r="D136" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="E136" s="5" t="s">
         <v>390</v>
-      </c>
-      <c r="D136" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="E136" s="5" t="s">
-        <v>391</v>
       </c>
       <c r="F136" s="6" t="n">
         <v>-503.97452</v>
@@ -6197,21 +6306,21 @@
         <v>99.7619112</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B137" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="C137" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="C137" s="4" t="s">
+      <c r="D137" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="E137" s="5" t="s">
         <v>393</v>
-      </c>
-      <c r="D137" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="E137" s="5" t="s">
-        <v>394</v>
       </c>
       <c r="F137" s="6" t="n">
         <v>-503.97596</v>
@@ -6226,21 +6335,21 @@
         <v>107.787802</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B138" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="C138" s="23" t="s">
         <v>395</v>
       </c>
-      <c r="C138" s="4" t="s">
+      <c r="D138" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="D138" s="4" t="s">
+      <c r="E138" s="5" t="s">
         <v>397</v>
-      </c>
-      <c r="E138" s="5" t="s">
-        <v>398</v>
       </c>
       <c r="F138" s="6" t="n">
         <v>-484.48482</v>
@@ -6255,21 +6364,21 @@
         <v>53.3798282</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B139" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="C139" s="23" t="s">
         <v>399</v>
       </c>
-      <c r="C139" s="4" t="s">
+      <c r="D139" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="D139" s="4" t="s">
+      <c r="E139" s="5" t="s">
         <v>401</v>
-      </c>
-      <c r="E139" s="5" t="s">
-        <v>402</v>
       </c>
       <c r="F139" s="6" t="n">
         <v>-484.4848</v>
@@ -6284,21 +6393,21 @@
         <v>51.6819173</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B140" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="C140" s="23" t="s">
         <v>403</v>
       </c>
-      <c r="C140" s="4" t="s">
+      <c r="D140" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="D140" s="4" t="s">
+      <c r="E140" s="5" t="s">
         <v>405</v>
-      </c>
-      <c r="E140" s="5" t="s">
-        <v>406</v>
       </c>
       <c r="F140" s="6" t="n">
         <v>-563.11067</v>
@@ -6313,21 +6422,21 @@
         <v>49.963265</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B141" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="C141" s="23" t="s">
         <v>407</v>
       </c>
-      <c r="C141" s="4" t="s">
+      <c r="D141" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E141" s="5" t="s">
         <v>408</v>
-      </c>
-      <c r="D141" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="E141" s="5" t="s">
-        <v>409</v>
       </c>
       <c r="F141" s="6" t="n">
         <v>-563.11174</v>
@@ -6342,21 +6451,21 @@
         <v>55.3752082</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B142" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="C142" s="23" t="s">
         <v>410</v>
       </c>
-      <c r="C142" s="4" t="s">
+      <c r="D142" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="D142" s="4" t="s">
+      <c r="E142" s="5" t="s">
         <v>412</v>
-      </c>
-      <c r="E142" s="5" t="s">
-        <v>413</v>
       </c>
       <c r="F142" s="6" t="n">
         <v>-563.11228</v>
@@ -6371,21 +6480,21 @@
         <v>65.3040615</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B143" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="C143" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="C143" s="4" t="s">
+      <c r="D143" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="E143" s="5" t="s">
         <v>415</v>
-      </c>
-      <c r="D143" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="E143" s="5" t="s">
-        <v>416</v>
       </c>
       <c r="F143" s="6" t="n">
         <v>-563.11208</v>
@@ -6400,21 +6509,21 @@
         <v>62.8510569</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B144" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="C144" s="23" t="s">
         <v>417</v>
       </c>
-      <c r="C144" s="4" t="s">
+      <c r="D144" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E144" s="5" t="s">
         <v>418</v>
-      </c>
-      <c r="D144" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="E144" s="5" t="s">
-        <v>419</v>
       </c>
       <c r="F144" s="6" t="n">
         <v>-504.33269</v>
@@ -6429,21 +6538,21 @@
         <v>8.75000385</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B145" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="C145" s="23" t="s">
         <v>420</v>
       </c>
-      <c r="C145" s="4" t="s">
+      <c r="D145" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="E145" s="5" t="s">
         <v>421</v>
-      </c>
-      <c r="D145" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="E145" s="5" t="s">
-        <v>422</v>
       </c>
       <c r="F145" s="6" t="n">
         <v>-504.33067</v>
@@ -6458,21 +6567,21 @@
         <v>6.322204</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B146" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="C146" s="23" t="s">
         <v>423</v>
       </c>
-      <c r="C146" s="4" t="s">
+      <c r="D146" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E146" s="5" t="s">
         <v>424</v>
-      </c>
-      <c r="D146" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="E146" s="5" t="s">
-        <v>425</v>
       </c>
       <c r="F146" s="6" t="n">
         <v>-504.33104</v>
@@ -6487,21 +6596,21 @@
         <v>18.6701931</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B147" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="C147" s="24" t="s">
         <v>426</v>
       </c>
-      <c r="C147" s="4" t="s">
+      <c r="D147" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="D147" s="4" t="s">
+      <c r="E147" s="5" t="s">
         <v>428</v>
-      </c>
-      <c r="E147" s="5" t="s">
-        <v>429</v>
       </c>
       <c r="F147" s="6" t="n">
         <v>-504.3301</v>
@@ -6516,21 +6625,21 @@
         <v>19.7876059</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="B148" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="B148" s="5" t="s">
+      <c r="C148" s="23" t="s">
         <v>431</v>
       </c>
-      <c r="C148" s="4" t="s">
+      <c r="D148" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="D148" s="4" t="s">
+      <c r="E148" s="5" t="s">
         <v>433</v>
-      </c>
-      <c r="E148" s="5" t="s">
-        <v>434</v>
       </c>
       <c r="F148" s="6" t="n">
         <v>-384.74657</v>
@@ -6545,21 +6654,21 @@
         <v>72.0749635</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B149" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="C149" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="C149" s="4" t="s">
+      <c r="D149" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="D149" s="4" t="s">
+      <c r="E149" s="5" t="s">
         <v>437</v>
-      </c>
-      <c r="E149" s="5" t="s">
-        <v>438</v>
       </c>
       <c r="F149" s="6" t="n">
         <v>-424.09556</v>
@@ -6574,21 +6683,21 @@
         <v>79.5933453</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B150" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="C150" s="23" t="s">
         <v>439</v>
       </c>
-      <c r="C150" s="4" t="s">
+      <c r="D150" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="D150" s="4" t="s">
+      <c r="E150" s="5" t="s">
         <v>441</v>
-      </c>
-      <c r="E150" s="5" t="s">
-        <v>442</v>
       </c>
       <c r="F150" s="6" t="n">
         <v>-463.453</v>
@@ -6603,21 +6712,21 @@
         <v>96.5359593</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B151" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="C151" s="23" t="s">
         <v>443</v>
       </c>
-      <c r="C151" s="4" t="s">
+      <c r="D151" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="D151" s="4" t="s">
+      <c r="E151" s="5" t="s">
         <v>445</v>
-      </c>
-      <c r="E151" s="5" t="s">
-        <v>446</v>
       </c>
       <c r="F151" s="6" t="n">
         <v>-502.76999</v>
@@ -6632,21 +6741,21 @@
         <v>104.619611</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B152" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="C152" s="23" t="s">
         <v>447</v>
       </c>
-      <c r="C152" s="4" t="s">
+      <c r="D152" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="D152" s="4" t="s">
+      <c r="E152" s="5" t="s">
         <v>449</v>
-      </c>
-      <c r="E152" s="5" t="s">
-        <v>450</v>
       </c>
       <c r="F152" s="6" t="n">
         <v>-464.65994</v>
@@ -6661,21 +6770,21 @@
         <v>99.3667734</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B153" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="C153" s="23" t="s">
         <v>451</v>
       </c>
-      <c r="C153" s="4" t="s">
+      <c r="D153" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="D153" s="4" t="s">
+      <c r="E153" s="5" t="s">
         <v>453</v>
-      </c>
-      <c r="E153" s="5" t="s">
-        <v>454</v>
       </c>
       <c r="F153" s="6" t="n">
         <v>-384.74848</v>
@@ -6690,21 +6799,21 @@
         <v>65.9026755</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B154" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="C154" s="23" t="s">
         <v>455</v>
       </c>
-      <c r="C154" s="4" t="s">
+      <c r="D154" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="D154" s="4" t="s">
+      <c r="E154" s="5" t="s">
         <v>457</v>
-      </c>
-      <c r="E154" s="5" t="s">
-        <v>458</v>
       </c>
       <c r="F154" s="6" t="n">
         <v>-424.09676</v>
@@ -6719,21 +6828,21 @@
         <v>85.5324888</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B155" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="C155" s="23" t="s">
         <v>459</v>
       </c>
-      <c r="C155" s="4" t="s">
+      <c r="D155" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="D155" s="4" t="s">
+      <c r="E155" s="5" t="s">
         <v>461</v>
-      </c>
-      <c r="E155" s="5" t="s">
-        <v>462</v>
       </c>
       <c r="F155" s="6" t="n">
         <v>-463.45277</v>
@@ -6748,21 +6857,21 @@
         <v>101.161303</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B156" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C156" s="23" t="s">
         <v>463</v>
       </c>
-      <c r="C156" s="4" t="s">
+      <c r="D156" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="D156" s="4" t="s">
+      <c r="E156" s="5" t="s">
         <v>465</v>
-      </c>
-      <c r="E156" s="5" t="s">
-        <v>466</v>
       </c>
       <c r="F156" s="6" t="n">
         <v>-502.76948</v>
@@ -6777,21 +6886,21 @@
         <v>107.516588</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B157" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="C157" s="23" t="s">
         <v>467</v>
       </c>
-      <c r="C157" s="4" t="s">
+      <c r="D157" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="D157" s="4" t="s">
+      <c r="E157" s="5" t="s">
         <v>469</v>
-      </c>
-      <c r="E157" s="5" t="s">
-        <v>470</v>
       </c>
       <c r="F157" s="6" t="n">
         <v>-464.66165</v>
@@ -6806,2713 +6915,2713 @@
         <v>107.936143</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B158" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C158" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="B158" s="18" t="n">
+      <c r="D158" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="E158" s="26" t="s">
+        <v>473</v>
+      </c>
+      <c r="F158" s="25" t="n">
+        <v>-596.4089501</v>
+      </c>
+      <c r="G158" s="25" t="n">
+        <v>-596.3894152</v>
+      </c>
+      <c r="H158" s="25" t="n">
+        <v>0.0195349</v>
+      </c>
+      <c r="I158" s="25" t="n">
+        <v>51.28887995</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B159" s="25" t="n">
+        <v>2</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="E159" s="26" t="s">
+        <v>476</v>
+      </c>
+      <c r="F159" s="25" t="n">
+        <v>-712.1371869</v>
+      </c>
+      <c r="G159" s="25" t="n">
+        <v>-712.1253972</v>
+      </c>
+      <c r="H159" s="25" t="n">
+        <v>0.0117897</v>
+      </c>
+      <c r="I159" s="25" t="n">
+        <v>30.95385735</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B160" s="25" t="n">
+        <v>3</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="E160" s="26" t="s">
+        <v>479</v>
+      </c>
+      <c r="F160" s="25" t="n">
+        <v>-827.870838</v>
+      </c>
+      <c r="G160" s="25" t="n">
+        <v>-827.8635619</v>
+      </c>
+      <c r="H160" s="25" t="n">
+        <v>0.0072761</v>
+      </c>
+      <c r="I160" s="25" t="n">
+        <v>19.10340055</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B161" s="25" t="n">
+        <v>4</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="E161" s="26" t="s">
+        <v>482</v>
+      </c>
+      <c r="F161" s="25" t="n">
+        <v>-827.8651625</v>
+      </c>
+      <c r="G161" s="25" t="n">
+        <v>-827.8608862</v>
+      </c>
+      <c r="H161" s="25" t="n">
+        <v>0.0042763</v>
+      </c>
+      <c r="I161" s="25" t="n">
+        <v>11.22742565</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B162" s="25" t="n">
+        <v>5</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="E162" s="26" t="s">
+        <v>485</v>
+      </c>
+      <c r="F162" s="25" t="n">
+        <v>-905.2963585</v>
+      </c>
+      <c r="G162" s="25" t="n">
+        <v>-905.2879209</v>
+      </c>
+      <c r="H162" s="25" t="n">
+        <v>0.0084376</v>
+      </c>
+      <c r="I162" s="25" t="n">
+        <v>22.1529188</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B163" s="25" t="n">
+        <v>6</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="E163" s="26" t="s">
+        <v>488</v>
+      </c>
+      <c r="F163" s="25" t="n">
+        <v>-1001.491457</v>
+      </c>
+      <c r="G163" s="25" t="n">
+        <v>-1001.460442</v>
+      </c>
+      <c r="H163" s="25" t="n">
+        <v>0.0310157</v>
+      </c>
+      <c r="I163" s="25" t="n">
+        <v>81.43172035</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B164" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="E164" s="26" t="s">
+        <v>491</v>
+      </c>
+      <c r="F164" s="25" t="n">
+        <v>-1232.949869</v>
+      </c>
+      <c r="G164" s="25" t="n">
+        <v>-1232.941922</v>
+      </c>
+      <c r="H164" s="25" t="n">
+        <v>0.007947</v>
+      </c>
+      <c r="I164" s="25" t="n">
+        <v>20.8648485</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B165" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="E165" s="26" t="s">
+        <v>494</v>
+      </c>
+      <c r="F165" s="25" t="n">
+        <v>-1310.381329</v>
+      </c>
+      <c r="G165" s="25" t="n">
+        <v>-1310.362778</v>
+      </c>
+      <c r="H165" s="25" t="n">
+        <v>0.0185513</v>
+      </c>
+      <c r="I165" s="25" t="n">
+        <v>48.70643815</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B166" s="25" t="n">
+        <v>9</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="E166" s="26" t="s">
+        <v>497</v>
+      </c>
+      <c r="F166" s="25" t="n">
+        <v>-1117.219744</v>
+      </c>
+      <c r="G166" s="25" t="n">
+        <v>-1117.20139</v>
+      </c>
+      <c r="H166" s="25" t="n">
+        <v>0.0183538</v>
+      </c>
+      <c r="I166" s="25" t="n">
+        <v>48.1879019</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B167" s="25" t="n">
+        <v>10</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="E167" s="26" t="s">
+        <v>500</v>
+      </c>
+      <c r="F167" s="25" t="n">
+        <v>-1232.952094</v>
+      </c>
+      <c r="G167" s="25" t="n">
+        <v>-1232.937861</v>
+      </c>
+      <c r="H167" s="25" t="n">
+        <v>0.0142336</v>
+      </c>
+      <c r="I167" s="25" t="n">
+        <v>37.3703168</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B168" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="C158" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="D158" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="E158" s="19" t="s">
-        <v>474</v>
-      </c>
-      <c r="F158" s="18" t="n">
-        <v>-596.4089501</v>
-      </c>
-      <c r="G158" s="18" t="n">
-        <v>-596.3894152</v>
-      </c>
-      <c r="H158" s="18" t="n">
-        <v>0.0195349</v>
-      </c>
-      <c r="I158" s="18" t="n">
-        <v>51.28887995</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="B159" s="18" t="n">
+      <c r="C168" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="E168" s="26" t="s">
+        <v>504</v>
+      </c>
+      <c r="F168" s="25" t="n">
+        <v>-364.9355985</v>
+      </c>
+      <c r="G168" s="25" t="n">
+        <v>-364.9064263</v>
+      </c>
+      <c r="H168" s="25" t="n">
+        <v>0.0291722</v>
+      </c>
+      <c r="I168" s="25" t="n">
+        <v>76.5916111</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B169" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="C159" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="D159" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="E159" s="19" t="s">
-        <v>477</v>
-      </c>
-      <c r="F159" s="18" t="n">
-        <v>-712.1371869</v>
-      </c>
-      <c r="G159" s="18" t="n">
-        <v>-712.1253972</v>
-      </c>
-      <c r="H159" s="18" t="n">
-        <v>0.0117897</v>
-      </c>
-      <c r="I159" s="18" t="n">
-        <v>30.95385735</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="B160" s="18" t="n">
+      <c r="C169" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="E169" s="26" t="s">
+        <v>506</v>
+      </c>
+      <c r="F169" s="25" t="n">
+        <v>-457.1715</v>
+      </c>
+      <c r="G169" s="25" t="n">
+        <v>-457.144764</v>
+      </c>
+      <c r="H169" s="25" t="n">
+        <v>0.026736</v>
+      </c>
+      <c r="I169" s="25" t="n">
+        <v>70.195368</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B170" s="25" t="n">
         <v>3</v>
       </c>
-      <c r="C160" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="D160" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="E160" s="19" t="s">
-        <v>480</v>
-      </c>
-      <c r="F160" s="18" t="n">
-        <v>-827.870838</v>
-      </c>
-      <c r="G160" s="18" t="n">
-        <v>-827.8635619</v>
-      </c>
-      <c r="H160" s="18" t="n">
-        <v>0.0072761</v>
-      </c>
-      <c r="I160" s="18" t="n">
-        <v>19.10340055</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="B161" s="18" t="n">
+      <c r="C170" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="E170" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="F170" s="25" t="n">
+        <v>-457.1753715</v>
+      </c>
+      <c r="G170" s="25" t="n">
+        <v>-457.1475759</v>
+      </c>
+      <c r="H170" s="25" t="n">
+        <v>0.0277956</v>
+      </c>
+      <c r="I170" s="25" t="n">
+        <v>72.9773478</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B171" s="25" t="n">
         <v>4</v>
       </c>
-      <c r="C161" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="D161" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="E161" s="19" t="s">
-        <v>483</v>
-      </c>
-      <c r="F161" s="18" t="n">
-        <v>-827.8651625</v>
-      </c>
-      <c r="G161" s="18" t="n">
-        <v>-827.8608862</v>
-      </c>
-      <c r="H161" s="18" t="n">
-        <v>0.0042763</v>
-      </c>
-      <c r="I161" s="18" t="n">
-        <v>11.22742565</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="B162" s="18" t="n">
+      <c r="C171" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="E171" s="26" t="s">
+        <v>510</v>
+      </c>
+      <c r="F171" s="25" t="n">
+        <v>-457.1670223</v>
+      </c>
+      <c r="G171" s="25" t="n">
+        <v>-457.1489577</v>
+      </c>
+      <c r="H171" s="25" t="n">
+        <v>0.0180646</v>
+      </c>
+      <c r="I171" s="25" t="n">
+        <v>47.4286073</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B172" s="25" t="n">
         <v>5</v>
       </c>
-      <c r="C162" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="D162" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="E162" s="19" t="s">
-        <v>486</v>
-      </c>
-      <c r="F162" s="18" t="n">
-        <v>-905.2963585</v>
-      </c>
-      <c r="G162" s="18" t="n">
-        <v>-905.2879209</v>
-      </c>
-      <c r="H162" s="18" t="n">
-        <v>0.0084376</v>
-      </c>
-      <c r="I162" s="18" t="n">
-        <v>22.1529188</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="B163" s="18" t="n">
+      <c r="C172" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="E172" s="26" t="s">
+        <v>512</v>
+      </c>
+      <c r="F172" s="25" t="n">
+        <v>-549.4013727</v>
+      </c>
+      <c r="G172" s="25" t="n">
+        <v>-549.3801895</v>
+      </c>
+      <c r="H172" s="25" t="n">
+        <v>0.0211832</v>
+      </c>
+      <c r="I172" s="25" t="n">
+        <v>55.6164916</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B173" s="25" t="n">
         <v>6</v>
       </c>
-      <c r="C163" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="D163" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="E163" s="19" t="s">
-        <v>489</v>
-      </c>
-      <c r="F163" s="18" t="n">
-        <v>-1001.491457</v>
-      </c>
-      <c r="G163" s="18" t="n">
-        <v>-1001.460442</v>
-      </c>
-      <c r="H163" s="18" t="n">
-        <v>0.0310157</v>
-      </c>
-      <c r="I163" s="18" t="n">
-        <v>81.43172035</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="B164" s="18" t="n">
+      <c r="C173" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="E173" s="26" t="s">
+        <v>514</v>
+      </c>
+      <c r="F173" s="25" t="n">
+        <v>-641.6267163</v>
+      </c>
+      <c r="G173" s="25" t="n">
+        <v>-641.6026965</v>
+      </c>
+      <c r="H173" s="25" t="n">
+        <v>0.0240198</v>
+      </c>
+      <c r="I173" s="25" t="n">
+        <v>63.0639849</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B174" s="25" t="n">
         <v>7</v>
       </c>
-      <c r="C164" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="D164" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="E164" s="19" t="s">
-        <v>492</v>
-      </c>
-      <c r="F164" s="18" t="n">
-        <v>-1232.949869</v>
-      </c>
-      <c r="G164" s="18" t="n">
-        <v>-1232.941922</v>
-      </c>
-      <c r="H164" s="18" t="n">
-        <v>0.007947</v>
-      </c>
-      <c r="I164" s="18" t="n">
-        <v>20.8648485</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="B165" s="18" t="n">
+      <c r="C174" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="E174" s="26" t="s">
+        <v>517</v>
+      </c>
+      <c r="F174" s="25" t="n">
+        <v>-788.9882082</v>
+      </c>
+      <c r="G174" s="25" t="n">
+        <v>-788.9532404</v>
+      </c>
+      <c r="H174" s="25" t="n">
+        <v>0.0349678</v>
+      </c>
+      <c r="I174" s="25" t="n">
+        <v>91.8079589</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B175" s="25" t="n">
         <v>8</v>
       </c>
-      <c r="C165" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="D165" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="E165" s="19" t="s">
-        <v>495</v>
-      </c>
-      <c r="F165" s="18" t="n">
-        <v>-1310.381329</v>
-      </c>
-      <c r="G165" s="18" t="n">
-        <v>-1310.362778</v>
-      </c>
-      <c r="H165" s="18" t="n">
-        <v>0.0185513</v>
-      </c>
-      <c r="I165" s="18" t="n">
-        <v>48.70643815</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="B166" s="18" t="n">
+      <c r="C175" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="E175" s="26" t="s">
+        <v>520</v>
+      </c>
+      <c r="F175" s="25" t="n">
+        <v>-1065.683081</v>
+      </c>
+      <c r="G175" s="25" t="n">
+        <v>-1065.652115</v>
+      </c>
+      <c r="H175" s="25" t="n">
+        <v>0.0309652</v>
+      </c>
+      <c r="I175" s="25" t="n">
+        <v>81.2991326</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B176" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C176" s="27" t="s">
+        <v>522</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="E176" s="26" t="s">
+        <v>524</v>
+      </c>
+      <c r="F176" s="25" t="n">
+        <v>-673.7816607</v>
+      </c>
+      <c r="G176" s="25" t="n">
+        <v>-673.7430194</v>
+      </c>
+      <c r="H176" s="25" t="n">
+        <v>0.038641</v>
+      </c>
+      <c r="I176" s="25" t="n">
+        <v>101.4527331</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B177" s="25" t="n">
+        <v>2</v>
+      </c>
+      <c r="C177" s="27" t="s">
+        <v>525</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="E177" s="26" t="s">
+        <v>527</v>
+      </c>
+      <c r="F177" s="25" t="n">
+        <v>-673.7800059</v>
+      </c>
+      <c r="G177" s="25" t="n">
+        <v>-673.7405978</v>
+      </c>
+      <c r="H177" s="25" t="n">
+        <v>0.039408</v>
+      </c>
+      <c r="I177" s="25" t="n">
+        <v>103.4659665</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B178" s="25" t="n">
+        <v>3</v>
+      </c>
+      <c r="C178" s="27" t="s">
+        <v>528</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="E178" s="26" t="s">
+        <v>530</v>
+      </c>
+      <c r="F178" s="25" t="n">
+        <v>-673.7857393</v>
+      </c>
+      <c r="G178" s="25" t="n">
+        <v>-673.7419379</v>
+      </c>
+      <c r="H178" s="25" t="n">
+        <v>0.043801</v>
+      </c>
+      <c r="I178" s="25" t="n">
+        <v>115.0005757</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B179" s="25" t="n">
+        <v>4</v>
+      </c>
+      <c r="C179" s="27" t="s">
+        <v>531</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="E179" s="26" t="s">
+        <v>533</v>
+      </c>
+      <c r="F179" s="25" t="n">
+        <v>-673.781565</v>
+      </c>
+      <c r="G179" s="25" t="n">
+        <v>-673.7445007</v>
+      </c>
+      <c r="H179" s="25" t="n">
+        <v>0.037064</v>
+      </c>
+      <c r="I179" s="25" t="n">
+        <v>97.31231965</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B180" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="C180" s="27" t="s">
+        <v>534</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="E180" s="26" t="s">
+        <v>536</v>
+      </c>
+      <c r="F180" s="25" t="n">
+        <v>-634.4632492</v>
+      </c>
+      <c r="G180" s="25" t="n">
+        <v>-634.4256912</v>
+      </c>
+      <c r="H180" s="25" t="n">
+        <v>0.037558</v>
+      </c>
+      <c r="I180" s="25" t="n">
+        <v>98.608529</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B181" s="25" t="n">
         <v>9</v>
       </c>
-      <c r="C166" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="D166" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="E166" s="19" t="s">
-        <v>498</v>
-      </c>
-      <c r="F166" s="18" t="n">
-        <v>-1117.219744</v>
-      </c>
-      <c r="G166" s="18" t="n">
-        <v>-1117.20139</v>
-      </c>
-      <c r="H166" s="18" t="n">
-        <v>0.0183538</v>
-      </c>
-      <c r="I166" s="18" t="n">
-        <v>48.1879019</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="B167" s="18" t="n">
+      <c r="C181" s="27" t="s">
+        <v>537</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="E181" s="26" t="s">
+        <v>539</v>
+      </c>
+      <c r="F181" s="25" t="n">
+        <v>-634.4648474</v>
+      </c>
+      <c r="G181" s="25" t="n">
+        <v>-634.4269137</v>
+      </c>
+      <c r="H181" s="25" t="n">
+        <v>0.037934</v>
+      </c>
+      <c r="I181" s="25" t="n">
+        <v>99.59492935</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B182" s="25" t="n">
         <v>10</v>
       </c>
-      <c r="C167" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="D167" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="E167" s="19" t="s">
-        <v>501</v>
-      </c>
-      <c r="F167" s="18" t="n">
-        <v>-1232.952094</v>
-      </c>
-      <c r="G167" s="18" t="n">
-        <v>-1232.937861</v>
-      </c>
-      <c r="H167" s="18" t="n">
-        <v>0.0142336</v>
-      </c>
-      <c r="I167" s="18" t="n">
-        <v>37.3703168</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="B168" s="18" t="n">
+      <c r="C182" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="E182" s="26" t="s">
+        <v>541</v>
+      </c>
+      <c r="F182" s="25" t="n">
+        <v>-634.4648714</v>
+      </c>
+      <c r="G182" s="25" t="n">
+        <v>-634.4269138</v>
+      </c>
+      <c r="H182" s="25" t="n">
+        <v>0.037958</v>
+      </c>
+      <c r="I182" s="25" t="n">
+        <v>99.6576788</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B183" s="25" t="n">
+        <v>11</v>
+      </c>
+      <c r="C183" s="27" t="s">
+        <v>542</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="E183" s="26" t="s">
+        <v>543</v>
+      </c>
+      <c r="F183" s="25" t="n">
+        <v>-634.4641492</v>
+      </c>
+      <c r="G183" s="25" t="n">
+        <v>-634.426527</v>
+      </c>
+      <c r="H183" s="25" t="n">
+        <v>0.037622</v>
+      </c>
+      <c r="I183" s="25" t="n">
+        <v>98.7770861</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B184" s="25" t="n">
+        <v>18</v>
+      </c>
+      <c r="C184" s="27" t="s">
+        <v>544</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="E184" s="26" t="s">
+        <v>546</v>
+      </c>
+      <c r="F184" s="25" t="n">
+        <v>-1126.547879</v>
+      </c>
+      <c r="G184" s="25" t="n">
+        <v>-1126.512375</v>
+      </c>
+      <c r="H184" s="25" t="n">
+        <v>0.035503</v>
+      </c>
+      <c r="I184" s="25" t="n">
+        <v>93.2141767</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B185" s="25" t="n">
+        <v>19</v>
+      </c>
+      <c r="C185" s="27" t="s">
+        <v>547</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="E185" s="26" t="s">
+        <v>548</v>
+      </c>
+      <c r="F185" s="25" t="n">
+        <v>-1126.551396</v>
+      </c>
+      <c r="G185" s="25" t="n">
+        <v>-1126.52214</v>
+      </c>
+      <c r="H185" s="25" t="n">
+        <v>0.029256</v>
+      </c>
+      <c r="I185" s="25" t="n">
+        <v>76.81241565</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B186" s="25" t="n">
+        <v>20</v>
+      </c>
+      <c r="C186" s="27" t="s">
+        <v>549</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="E186" s="26" t="s">
+        <v>551</v>
+      </c>
+      <c r="F186" s="25" t="n">
+        <v>-1126.55383</v>
+      </c>
+      <c r="G186" s="25" t="n">
+        <v>-1126.517088</v>
+      </c>
+      <c r="H186" s="25" t="n">
+        <v>0.036742</v>
+      </c>
+      <c r="I186" s="25" t="n">
+        <v>96.46638355</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B187" s="25" t="n">
+        <v>22</v>
+      </c>
+      <c r="C187" s="27" t="s">
+        <v>552</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="E187" s="26" t="s">
+        <v>553</v>
+      </c>
+      <c r="F187" s="25" t="n">
+        <v>-1126.564284</v>
+      </c>
+      <c r="G187" s="25" t="n">
+        <v>-1126.529413</v>
+      </c>
+      <c r="H187" s="25" t="n">
+        <v>0.034871</v>
+      </c>
+      <c r="I187" s="25" t="n">
+        <v>91.5527603</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B188" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="C168" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="D168" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="E168" s="19" t="s">
-        <v>505</v>
-      </c>
-      <c r="F168" s="18" t="n">
-        <v>-364.9355985</v>
-      </c>
-      <c r="G168" s="18" t="n">
-        <v>-364.9064263</v>
-      </c>
-      <c r="H168" s="18" t="n">
-        <v>0.0291722</v>
-      </c>
-      <c r="I168" s="18" t="n">
-        <v>76.5916111</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="B169" s="18" t="n">
+      <c r="C188" s="27" t="s">
+        <v>555</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="E188" s="26" t="s">
+        <v>557</v>
+      </c>
+      <c r="F188" s="25" t="n">
+        <v>-1593.306107</v>
+      </c>
+      <c r="G188" s="25" t="n">
+        <v>-1593.29851</v>
+      </c>
+      <c r="H188" s="25" t="n">
+        <v>0.0076</v>
+      </c>
+      <c r="I188" s="25" t="n">
+        <v>19.9454</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B189" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="C169" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="D169" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="E169" s="19" t="s">
-        <v>507</v>
-      </c>
-      <c r="F169" s="18" t="n">
-        <v>-457.1715</v>
-      </c>
-      <c r="G169" s="18" t="n">
-        <v>-457.144764</v>
-      </c>
-      <c r="H169" s="18" t="n">
-        <v>0.026736</v>
-      </c>
-      <c r="I169" s="18" t="n">
-        <v>70.195368</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="B170" s="18" t="n">
+      <c r="C189" s="27" t="s">
+        <v>558</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="E189" s="26" t="s">
+        <v>559</v>
+      </c>
+      <c r="F189" s="25" t="n">
+        <v>-1593.307901</v>
+      </c>
+      <c r="G189" s="25" t="n">
+        <v>-1593.303202</v>
+      </c>
+      <c r="H189" s="25" t="n">
+        <v>0.0047</v>
+      </c>
+      <c r="I189" s="25" t="n">
+        <v>12.3375</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B190" s="25" t="n">
         <v>3</v>
       </c>
-      <c r="C170" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="D170" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="E170" s="19" t="s">
-        <v>509</v>
-      </c>
-      <c r="F170" s="18" t="n">
-        <v>-457.1753715</v>
-      </c>
-      <c r="G170" s="18" t="n">
-        <v>-457.1475759</v>
-      </c>
-      <c r="H170" s="18" t="n">
-        <v>0.0277956</v>
-      </c>
-      <c r="I170" s="18" t="n">
-        <v>72.9773478</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="B171" s="18" t="n">
+      <c r="C190" s="27" t="s">
+        <v>560</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="E190" s="26" t="s">
+        <v>561</v>
+      </c>
+      <c r="F190" s="25" t="n">
+        <v>-1553.98921</v>
+      </c>
+      <c r="G190" s="25" t="n">
+        <v>-1553.985871</v>
+      </c>
+      <c r="H190" s="25" t="n">
+        <v>0.00334</v>
+      </c>
+      <c r="I190" s="25" t="n">
+        <v>8.76707</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B191" s="25" t="n">
         <v>4</v>
       </c>
-      <c r="C171" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="D171" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="E171" s="19" t="s">
-        <v>511</v>
-      </c>
-      <c r="F171" s="18" t="n">
-        <v>-457.1670223</v>
-      </c>
-      <c r="G171" s="18" t="n">
-        <v>-457.1489577</v>
-      </c>
-      <c r="H171" s="18" t="n">
-        <v>0.0180646</v>
-      </c>
-      <c r="I171" s="18" t="n">
-        <v>47.4286073</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="B172" s="18" t="n">
+      <c r="C191" s="27" t="s">
+        <v>562</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="E191" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="F191" s="25" t="n">
+        <v>-1553.989631</v>
+      </c>
+      <c r="G191" s="25" t="n">
+        <v>-1553.985906</v>
+      </c>
+      <c r="H191" s="25" t="n">
+        <v>0.00372</v>
+      </c>
+      <c r="I191" s="25" t="n">
+        <v>9.77972</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B192" s="25" t="n">
         <v>5</v>
       </c>
-      <c r="C172" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="D172" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="E172" s="19" t="s">
-        <v>513</v>
-      </c>
-      <c r="F172" s="18" t="n">
-        <v>-549.4013727</v>
-      </c>
-      <c r="G172" s="18" t="n">
-        <v>-549.3801895</v>
-      </c>
-      <c r="H172" s="18" t="n">
-        <v>0.0211832</v>
-      </c>
-      <c r="I172" s="18" t="n">
-        <v>55.6164916</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="B173" s="18" t="n">
+      <c r="C192" s="27" t="s">
+        <v>564</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="E192" s="26" t="s">
+        <v>565</v>
+      </c>
+      <c r="F192" s="25" t="n">
+        <v>-1223.892741</v>
+      </c>
+      <c r="G192" s="25" t="n">
+        <v>-1223.883579</v>
+      </c>
+      <c r="H192" s="25" t="n">
+        <v>0.00916</v>
+      </c>
+      <c r="I192" s="25" t="n">
+        <v>24.0556</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B193" s="25" t="n">
         <v>6</v>
       </c>
-      <c r="C173" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="D173" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="E173" s="19" t="s">
-        <v>515</v>
-      </c>
-      <c r="F173" s="18" t="n">
-        <v>-641.6267163</v>
-      </c>
-      <c r="G173" s="18" t="n">
-        <v>-641.6026965</v>
-      </c>
-      <c r="H173" s="18" t="n">
-        <v>0.0240198</v>
-      </c>
-      <c r="I173" s="18" t="n">
-        <v>63.0639849</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="B174" s="18" t="n">
+      <c r="C193" s="27" t="s">
+        <v>566</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="E193" s="26" t="s">
+        <v>567</v>
+      </c>
+      <c r="F193" s="25" t="n">
+        <v>-1223.892765</v>
+      </c>
+      <c r="G193" s="25" t="n">
+        <v>-1223.886819</v>
+      </c>
+      <c r="H193" s="25" t="n">
+        <v>0.00595</v>
+      </c>
+      <c r="I193" s="25" t="n">
+        <v>15.6123</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B194" s="25" t="n">
         <v>7</v>
       </c>
-      <c r="C174" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="D174" s="4" t="s">
-        <v>517</v>
-      </c>
-      <c r="E174" s="19" t="s">
-        <v>518</v>
-      </c>
-      <c r="F174" s="18" t="n">
-        <v>-788.9882082</v>
-      </c>
-      <c r="G174" s="18" t="n">
-        <v>-788.9532404</v>
-      </c>
-      <c r="H174" s="18" t="n">
-        <v>0.0349678</v>
-      </c>
-      <c r="I174" s="18" t="n">
-        <v>91.8079589</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="B175" s="18" t="n">
+      <c r="C194" s="27" t="s">
+        <v>568</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="E194" s="26" t="s">
+        <v>569</v>
+      </c>
+      <c r="F194" s="25" t="n">
+        <v>-1271.163178</v>
+      </c>
+      <c r="G194" s="25" t="n">
+        <v>-1271.129182</v>
+      </c>
+      <c r="H194" s="25" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="I194" s="25" t="n">
+        <v>89.2573</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B195" s="25" t="n">
         <v>8</v>
       </c>
-      <c r="C175" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="D175" s="4" t="s">
-        <v>520</v>
-      </c>
-      <c r="E175" s="19" t="s">
-        <v>521</v>
-      </c>
-      <c r="F175" s="18" t="n">
-        <v>-1065.683081</v>
-      </c>
-      <c r="G175" s="18" t="n">
-        <v>-1065.652115</v>
-      </c>
-      <c r="H175" s="18" t="n">
-        <v>0.0309652</v>
-      </c>
-      <c r="I175" s="18" t="n">
-        <v>81.2991326</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="B176" s="18" t="n">
+      <c r="C195" s="27" t="s">
+        <v>570</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E195" s="26" t="s">
+        <v>571</v>
+      </c>
+      <c r="F195" s="25" t="n">
+        <v>-1271.162901</v>
+      </c>
+      <c r="G195" s="25" t="n">
+        <v>-1271.130382</v>
+      </c>
+      <c r="H195" s="25" t="n">
+        <v>0.03252</v>
+      </c>
+      <c r="I195" s="25" t="n">
+        <v>85.3805</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B196" s="25" t="n">
+        <v>9</v>
+      </c>
+      <c r="C196" s="27" t="s">
+        <v>572</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="E196" s="26" t="s">
+        <v>573</v>
+      </c>
+      <c r="F196" s="25" t="n">
+        <v>-1070.047129</v>
+      </c>
+      <c r="G196" s="25" t="n">
+        <v>-1070.035813</v>
+      </c>
+      <c r="H196" s="25" t="n">
+        <v>0.01132</v>
+      </c>
+      <c r="I196" s="25" t="n">
+        <v>29.7112</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B197" s="25" t="n">
+        <v>10</v>
+      </c>
+      <c r="C197" s="28" t="s">
+        <v>574</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="E197" s="26" t="s">
+        <v>575</v>
+      </c>
+      <c r="F197" s="25" t="n">
+        <v>-1070.047333</v>
+      </c>
+      <c r="G197" s="25" t="n">
+        <v>-1070.035156</v>
+      </c>
+      <c r="H197" s="25" t="n">
+        <v>0.01218</v>
+      </c>
+      <c r="I197" s="25" t="n">
+        <v>31.9723</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B198" s="25" t="n">
+        <v>11</v>
+      </c>
+      <c r="C198" s="28" t="s">
+        <v>576</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="E198" s="26" t="s">
+        <v>577</v>
+      </c>
+      <c r="F198" s="25" t="n">
+        <v>-1109.367674</v>
+      </c>
+      <c r="G198" s="25" t="n">
+        <v>-1109.349598</v>
+      </c>
+      <c r="H198" s="25" t="n">
+        <v>0.01808</v>
+      </c>
+      <c r="I198" s="25" t="n">
+        <v>47.4588</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B199" s="25" t="n">
+        <v>12</v>
+      </c>
+      <c r="C199" s="28" t="s">
+        <v>578</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="E199" s="26" t="s">
+        <v>579</v>
+      </c>
+      <c r="F199" s="25" t="n">
+        <v>-1109.367825</v>
+      </c>
+      <c r="G199" s="25" t="n">
+        <v>-1109.352128</v>
+      </c>
+      <c r="H199" s="25" t="n">
+        <v>0.0157</v>
+      </c>
+      <c r="I199" s="25" t="n">
+        <v>41.213</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B200" s="25" t="n">
+        <v>13</v>
+      </c>
+      <c r="C200" s="28" t="s">
+        <v>580</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="E200" s="26" t="s">
+        <v>581</v>
+      </c>
+      <c r="F200" s="25" t="n">
+        <v>-1557.356661</v>
+      </c>
+      <c r="G200" s="25" t="n">
+        <v>-1557.349525</v>
+      </c>
+      <c r="H200" s="25" t="n">
+        <v>0.00714</v>
+      </c>
+      <c r="I200" s="25" t="n">
+        <v>18.7348</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B201" s="25" t="n">
+        <v>14</v>
+      </c>
+      <c r="C201" s="28" t="s">
+        <v>582</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="E201" s="26" t="s">
+        <v>583</v>
+      </c>
+      <c r="F201" s="25" t="n">
+        <v>-1557.358401</v>
+      </c>
+      <c r="G201" s="25" t="n">
+        <v>-1557.352826</v>
+      </c>
+      <c r="H201" s="25" t="n">
+        <v>0.00557</v>
+      </c>
+      <c r="I201" s="25" t="n">
+        <v>14.6366</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B202" s="25" t="n">
+        <v>15</v>
+      </c>
+      <c r="C202" s="28" t="s">
+        <v>584</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="E202" s="26" t="s">
+        <v>585</v>
+      </c>
+      <c r="F202" s="25" t="n">
+        <v>-1518.040325</v>
+      </c>
+      <c r="G202" s="25" t="n">
+        <v>-1518.03821</v>
+      </c>
+      <c r="H202" s="25" t="n">
+        <v>0.00212</v>
+      </c>
+      <c r="I202" s="25" t="n">
+        <v>5.55451</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B203" s="25" t="n">
+        <v>16</v>
+      </c>
+      <c r="C203" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="E203" s="26" t="s">
+        <v>587</v>
+      </c>
+      <c r="F203" s="25" t="n">
+        <v>-1518.041441</v>
+      </c>
+      <c r="G203" s="25" t="n">
+        <v>-1518.03819</v>
+      </c>
+      <c r="H203" s="25" t="n">
+        <v>0.00325</v>
+      </c>
+      <c r="I203" s="25" t="n">
+        <v>8.53603</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B204" s="25" t="n">
+        <v>17</v>
+      </c>
+      <c r="C204" s="28" t="s">
+        <v>588</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="E204" s="26" t="s">
+        <v>589</v>
+      </c>
+      <c r="F204" s="25" t="n">
+        <v>-1148.682554</v>
+      </c>
+      <c r="G204" s="25" t="n">
+        <v>-1148.670569</v>
+      </c>
+      <c r="H204" s="25" t="n">
+        <v>0.01199</v>
+      </c>
+      <c r="I204" s="25" t="n">
+        <v>31.4682</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B205" s="25" t="n">
+        <v>18</v>
+      </c>
+      <c r="C205" s="28" t="s">
+        <v>590</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="E205" s="26" t="s">
+        <v>591</v>
+      </c>
+      <c r="F205" s="25" t="n">
+        <v>-1148.683825</v>
+      </c>
+      <c r="G205" s="25" t="n">
+        <v>-1148.672643</v>
+      </c>
+      <c r="H205" s="25" t="n">
+        <v>0.01118</v>
+      </c>
+      <c r="I205" s="25" t="n">
+        <v>29.3581</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B206" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="C176" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="D176" s="4" t="s">
-        <v>524</v>
-      </c>
-      <c r="E176" s="19" t="s">
-        <v>525</v>
-      </c>
-      <c r="F176" s="18" t="n">
-        <v>-673.7816607</v>
-      </c>
-      <c r="G176" s="18" t="n">
-        <v>-673.7430194</v>
-      </c>
-      <c r="H176" s="18" t="n">
-        <v>0.038641</v>
-      </c>
-      <c r="I176" s="18" t="n">
-        <v>101.4527331</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="B177" s="18" t="n">
+      <c r="C206" s="29" t="s">
+        <v>593</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="E206" s="26" t="s">
+        <v>595</v>
+      </c>
+      <c r="F206" s="25" t="n">
+        <v>-272.6067861</v>
+      </c>
+      <c r="G206" s="25" t="n">
+        <v>-272.586547</v>
+      </c>
+      <c r="H206" s="25" t="n">
+        <v>0.02024</v>
+      </c>
+      <c r="I206" s="25" t="n">
+        <v>53.1378</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B207" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="C177" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="D177" s="4" t="s">
-        <v>527</v>
-      </c>
-      <c r="E177" s="19" t="s">
-        <v>528</v>
-      </c>
-      <c r="F177" s="18" t="n">
-        <v>-673.7800059</v>
-      </c>
-      <c r="G177" s="18" t="n">
-        <v>-673.7405978</v>
-      </c>
-      <c r="H177" s="18" t="n">
-        <v>0.039408</v>
-      </c>
-      <c r="I177" s="18" t="n">
-        <v>103.4659665</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="B178" s="18" t="n">
+      <c r="C207" s="29" t="s">
+        <v>596</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="E207" s="26" t="s">
+        <v>598</v>
+      </c>
+      <c r="F207" s="25" t="n">
+        <v>-563.2985335</v>
+      </c>
+      <c r="G207" s="25" t="n">
+        <v>-563.2840639</v>
+      </c>
+      <c r="H207" s="25" t="n">
+        <v>0.01447</v>
+      </c>
+      <c r="I207" s="25" t="n">
+        <v>37.9899</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B208" s="25" t="n">
         <v>3</v>
       </c>
-      <c r="C178" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="D178" s="4" t="s">
-        <v>530</v>
-      </c>
-      <c r="E178" s="19" t="s">
-        <v>531</v>
-      </c>
-      <c r="F178" s="18" t="n">
-        <v>-673.7857393</v>
-      </c>
-      <c r="G178" s="18" t="n">
-        <v>-673.7419379</v>
-      </c>
-      <c r="H178" s="18" t="n">
-        <v>0.043801</v>
-      </c>
-      <c r="I178" s="18" t="n">
-        <v>115.0005757</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="B179" s="18" t="n">
+      <c r="C208" s="29" t="s">
+        <v>599</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="E208" s="26" t="s">
+        <v>600</v>
+      </c>
+      <c r="F208" s="25" t="n">
+        <v>-563.2986892</v>
+      </c>
+      <c r="G208" s="25" t="n">
+        <v>-563.2729162</v>
+      </c>
+      <c r="H208" s="25" t="n">
+        <v>0.02577</v>
+      </c>
+      <c r="I208" s="25" t="n">
+        <v>67.667</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B209" s="25" t="n">
         <v>4</v>
       </c>
-      <c r="C179" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="D179" s="4" t="s">
-        <v>533</v>
-      </c>
-      <c r="E179" s="19" t="s">
-        <v>534</v>
-      </c>
-      <c r="F179" s="18" t="n">
-        <v>-673.781565</v>
-      </c>
-      <c r="G179" s="18" t="n">
-        <v>-673.7445007</v>
-      </c>
-      <c r="H179" s="18" t="n">
-        <v>0.037064</v>
-      </c>
-      <c r="I179" s="18" t="n">
-        <v>97.31231965</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="B180" s="18" t="n">
+      <c r="C209" s="29" t="s">
+        <v>601</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="E209" s="26" t="s">
+        <v>602</v>
+      </c>
+      <c r="F209" s="25" t="n">
+        <v>-563.2986762</v>
+      </c>
+      <c r="G209" s="25" t="n">
+        <v>-563.2796886</v>
+      </c>
+      <c r="H209" s="25" t="n">
+        <v>0.01899</v>
+      </c>
+      <c r="I209" s="25" t="n">
+        <v>49.8519</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B210" s="25" t="n">
+        <v>5</v>
+      </c>
+      <c r="C210" s="29" t="s">
+        <v>603</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="E210" s="26" t="s">
+        <v>604</v>
+      </c>
+      <c r="F210" s="25" t="n">
+        <v>-563.2987059</v>
+      </c>
+      <c r="G210" s="25" t="n">
+        <v>-563.2796886</v>
+      </c>
+      <c r="H210" s="25" t="n">
+        <v>0.01902</v>
+      </c>
+      <c r="I210" s="25" t="n">
+        <v>49.9299</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B211" s="25" t="n">
+        <v>6</v>
+      </c>
+      <c r="C211" s="29" t="s">
+        <v>605</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="E211" s="26" t="s">
+        <v>606</v>
+      </c>
+      <c r="F211" s="25" t="n">
+        <v>-563.2988083</v>
+      </c>
+      <c r="G211" s="25" t="n">
+        <v>-563.2739834</v>
+      </c>
+      <c r="H211" s="25" t="n">
+        <v>0.02482</v>
+      </c>
+      <c r="I211" s="25" t="n">
+        <v>65.1778</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B212" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="C212" s="29" t="s">
+        <v>607</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="E212" s="26" t="s">
+        <v>608</v>
+      </c>
+      <c r="F212" s="25" t="n">
+        <v>-364.851425</v>
+      </c>
+      <c r="G212" s="25" t="n">
+        <v>-364.83444</v>
+      </c>
+      <c r="H212" s="25" t="n">
+        <v>0.01699</v>
+      </c>
+      <c r="I212" s="25" t="n">
+        <v>44.5941</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B213" s="25" t="n">
         <v>8</v>
       </c>
-      <c r="C180" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="D180" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="E180" s="19" t="s">
-        <v>537</v>
-      </c>
-      <c r="F180" s="18" t="n">
-        <v>-634.4632492</v>
-      </c>
-      <c r="G180" s="18" t="n">
-        <v>-634.4256912</v>
-      </c>
-      <c r="H180" s="18" t="n">
-        <v>0.037558</v>
-      </c>
-      <c r="I180" s="18" t="n">
-        <v>98.608529</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="B181" s="18" t="n">
+      <c r="C213" s="29" t="s">
+        <v>609</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="E213" s="26" t="s">
+        <v>610</v>
+      </c>
+      <c r="F213" s="25" t="n">
+        <v>-364.8523582</v>
+      </c>
+      <c r="G213" s="25" t="n">
+        <v>-364.8282963</v>
+      </c>
+      <c r="H213" s="25" t="n">
+        <v>0.02406</v>
+      </c>
+      <c r="I213" s="25" t="n">
+        <v>63.1745</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B214" s="25" t="n">
         <v>9</v>
       </c>
-      <c r="C181" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="D181" s="4" t="s">
-        <v>539</v>
-      </c>
-      <c r="E181" s="19" t="s">
-        <v>540</v>
-      </c>
-      <c r="F181" s="18" t="n">
-        <v>-634.4648474</v>
-      </c>
-      <c r="G181" s="18" t="n">
-        <v>-634.4269137</v>
-      </c>
-      <c r="H181" s="18" t="n">
-        <v>0.037934</v>
-      </c>
-      <c r="I181" s="18" t="n">
-        <v>99.59492935</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="B182" s="18" t="n">
+      <c r="C214" s="29" t="s">
+        <v>611</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="E214" s="26" t="s">
+        <v>612</v>
+      </c>
+      <c r="F214" s="25" t="n">
+        <v>-364.8514272</v>
+      </c>
+      <c r="G214" s="25" t="n">
+        <v>-364.8307605</v>
+      </c>
+      <c r="H214" s="25" t="n">
+        <v>0.02067</v>
+      </c>
+      <c r="I214" s="25" t="n">
+        <v>54.2604</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B215" s="25" t="n">
         <v>10</v>
       </c>
-      <c r="C182" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="D182" s="4" t="s">
-        <v>539</v>
-      </c>
-      <c r="E182" s="19" t="s">
-        <v>542</v>
-      </c>
-      <c r="F182" s="18" t="n">
-        <v>-634.4648714</v>
-      </c>
-      <c r="G182" s="18" t="n">
-        <v>-634.4269138</v>
-      </c>
-      <c r="H182" s="18" t="n">
-        <v>0.037958</v>
-      </c>
-      <c r="I182" s="18" t="n">
-        <v>99.6576788</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="B183" s="18" t="n">
+      <c r="C215" s="29" t="s">
+        <v>613</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="E215" s="26" t="s">
+        <v>614</v>
+      </c>
+      <c r="F215" s="25" t="n">
+        <v>-364.8520545</v>
+      </c>
+      <c r="G215" s="25" t="n">
+        <v>-364.8303998</v>
+      </c>
+      <c r="H215" s="25" t="n">
+        <v>0.02165</v>
+      </c>
+      <c r="I215" s="25" t="n">
+        <v>56.8544</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B216" s="25" t="n">
         <v>11</v>
       </c>
-      <c r="C183" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="D183" s="4" t="s">
-        <v>539</v>
-      </c>
-      <c r="E183" s="19" t="s">
-        <v>544</v>
-      </c>
-      <c r="F183" s="18" t="n">
-        <v>-634.4641492</v>
-      </c>
-      <c r="G183" s="18" t="n">
-        <v>-634.426527</v>
-      </c>
-      <c r="H183" s="18" t="n">
-        <v>0.037622</v>
-      </c>
-      <c r="I183" s="18" t="n">
-        <v>98.7770861</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="B184" s="18" t="n">
+      <c r="C216" s="29" t="s">
+        <v>615</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="E216" s="26" t="s">
+        <v>616</v>
+      </c>
+      <c r="F216" s="25" t="n">
+        <v>-311.9245293</v>
+      </c>
+      <c r="G216" s="25" t="n">
+        <v>-311.9068921</v>
+      </c>
+      <c r="H216" s="25" t="n">
+        <v>0.01764</v>
+      </c>
+      <c r="I216" s="25" t="n">
+        <v>46.3065</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B217" s="25" t="n">
+        <v>12</v>
+      </c>
+      <c r="C217" s="29" t="s">
+        <v>615</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="E217" s="26" t="s">
+        <v>617</v>
+      </c>
+      <c r="F217" s="25" t="n">
+        <v>-311.924589</v>
+      </c>
+      <c r="G217" s="25" t="n">
+        <v>-311.8950131</v>
+      </c>
+      <c r="H217" s="25" t="n">
+        <v>0.02958</v>
+      </c>
+      <c r="I217" s="25" t="n">
+        <v>77.6515</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B218" s="25" t="n">
+        <v>13</v>
+      </c>
+      <c r="C218" s="29" t="s">
+        <v>618</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="E218" s="26" t="s">
+        <v>619</v>
+      </c>
+      <c r="F218" s="25" t="n">
+        <v>-311.9243872</v>
+      </c>
+      <c r="G218" s="25" t="n">
+        <v>-311.9041089</v>
+      </c>
+      <c r="H218" s="25" t="n">
+        <v>0.02028</v>
+      </c>
+      <c r="I218" s="25" t="n">
+        <v>53.2407</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B219" s="25" t="n">
+        <v>14</v>
+      </c>
+      <c r="C219" s="29" t="s">
+        <v>620</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="E219" s="26" t="s">
+        <v>621</v>
+      </c>
+      <c r="F219" s="25" t="n">
+        <v>-311.9245521</v>
+      </c>
+      <c r="G219" s="25" t="n">
+        <v>-311.8977202</v>
+      </c>
+      <c r="H219" s="25" t="n">
+        <v>0.02683</v>
+      </c>
+      <c r="I219" s="25" t="n">
+        <v>70.4472</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B220" s="25" t="n">
+        <v>15</v>
+      </c>
+      <c r="C220" s="29" t="s">
+        <v>622</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="E220" s="26" t="s">
+        <v>623</v>
+      </c>
+      <c r="F220" s="25" t="n">
+        <v>-732.2132415</v>
+      </c>
+      <c r="G220" s="25" t="n">
+        <v>-732.1929392</v>
+      </c>
+      <c r="H220" s="25" t="n">
+        <v>0.0203</v>
+      </c>
+      <c r="I220" s="25" t="n">
+        <v>53.3037</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B221" s="25" t="n">
+        <v>16</v>
+      </c>
+      <c r="C221" s="29" t="s">
+        <v>624</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="E221" s="26" t="s">
+        <v>625</v>
+      </c>
+      <c r="F221" s="25" t="n">
+        <v>-732.2136908</v>
+      </c>
+      <c r="G221" s="25" t="n">
+        <v>-732.1840098</v>
+      </c>
+      <c r="H221" s="25" t="n">
+        <v>0.02968</v>
+      </c>
+      <c r="I221" s="25" t="n">
+        <v>77.9275</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B222" s="25" t="n">
+        <v>17</v>
+      </c>
+      <c r="C222" s="29" t="s">
+        <v>626</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="E222" s="26" t="s">
+        <v>627</v>
+      </c>
+      <c r="F222" s="25" t="n">
+        <v>-732.2136272</v>
+      </c>
+      <c r="G222" s="25" t="n">
+        <v>-732.1919124</v>
+      </c>
+      <c r="H222" s="25" t="n">
+        <v>0.02171</v>
+      </c>
+      <c r="I222" s="25" t="n">
+        <v>57.0122</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B223" s="25" t="n">
         <v>18</v>
       </c>
-      <c r="C184" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="D184" s="4" t="s">
-        <v>546</v>
-      </c>
-      <c r="E184" s="19" t="s">
-        <v>547</v>
-      </c>
-      <c r="F184" s="18" t="n">
-        <v>-1126.547879</v>
-      </c>
-      <c r="G184" s="18" t="n">
-        <v>-1126.512375</v>
-      </c>
-      <c r="H184" s="18" t="n">
-        <v>0.035503</v>
-      </c>
-      <c r="I184" s="18" t="n">
-        <v>93.2141767</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="B185" s="18" t="n">
+      <c r="C223" s="29" t="s">
+        <v>626</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="E223" s="26" t="s">
+        <v>628</v>
+      </c>
+      <c r="F223" s="25" t="n">
+        <v>-732.2136272</v>
+      </c>
+      <c r="G223" s="25" t="n">
+        <v>-732.1893553</v>
+      </c>
+      <c r="H223" s="25" t="n">
+        <v>0.02427</v>
+      </c>
+      <c r="I223" s="25" t="n">
+        <v>63.7259</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B224" s="25" t="n">
         <v>19</v>
       </c>
-      <c r="C185" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="D185" s="4" t="s">
-        <v>539</v>
-      </c>
-      <c r="E185" s="19" t="s">
-        <v>549</v>
-      </c>
-      <c r="F185" s="18" t="n">
-        <v>-1126.551396</v>
-      </c>
-      <c r="G185" s="18" t="n">
-        <v>-1126.52214</v>
-      </c>
-      <c r="H185" s="18" t="n">
-        <v>0.029256</v>
-      </c>
-      <c r="I185" s="18" t="n">
-        <v>76.81241565</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="B186" s="18" t="n">
+      <c r="C224" s="29" t="s">
+        <v>629</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="E224" s="26" t="s">
+        <v>630</v>
+      </c>
+      <c r="F224" s="25" t="n">
+        <v>-327.9546643</v>
+      </c>
+      <c r="G224" s="25" t="n">
+        <v>-327.9360501</v>
+      </c>
+      <c r="H224" s="25" t="n">
+        <v>0.01861</v>
+      </c>
+      <c r="I224" s="25" t="n">
+        <v>48.8716</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B225" s="25" t="n">
         <v>20</v>
       </c>
-      <c r="C186" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="D186" s="4" t="s">
-        <v>551</v>
-      </c>
-      <c r="E186" s="19" t="s">
-        <v>552</v>
-      </c>
-      <c r="F186" s="18" t="n">
-        <v>-1126.55383</v>
-      </c>
-      <c r="G186" s="18" t="n">
-        <v>-1126.517088</v>
-      </c>
-      <c r="H186" s="18" t="n">
-        <v>0.036742</v>
-      </c>
-      <c r="I186" s="18" t="n">
-        <v>96.46638355</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="B187" s="18" t="n">
+      <c r="C225" s="29" t="s">
+        <v>631</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="E225" s="26" t="s">
+        <v>632</v>
+      </c>
+      <c r="F225" s="25" t="n">
+        <v>-327.9562143</v>
+      </c>
+      <c r="G225" s="25" t="n">
+        <v>-327.9261283</v>
+      </c>
+      <c r="H225" s="25" t="n">
+        <v>0.03009</v>
+      </c>
+      <c r="I225" s="25" t="n">
+        <v>78.9908</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B226" s="25" t="n">
+        <v>21</v>
+      </c>
+      <c r="C226" s="29" t="s">
+        <v>633</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="E226" s="26" t="s">
+        <v>634</v>
+      </c>
+      <c r="F226" s="25" t="n">
+        <v>-327.957406</v>
+      </c>
+      <c r="G226" s="25" t="n">
+        <v>-327.9347197</v>
+      </c>
+      <c r="H226" s="25" t="n">
+        <v>0.02269</v>
+      </c>
+      <c r="I226" s="25" t="n">
+        <v>59.5629</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B227" s="25" t="n">
         <v>22</v>
       </c>
-      <c r="C187" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="D187" s="4" t="s">
-        <v>539</v>
-      </c>
-      <c r="E187" s="19" t="s">
-        <v>554</v>
-      </c>
-      <c r="F187" s="18" t="n">
-        <v>-1126.564284</v>
-      </c>
-      <c r="G187" s="18" t="n">
-        <v>-1126.529413</v>
-      </c>
-      <c r="H187" s="18" t="n">
-        <v>0.034871</v>
-      </c>
-      <c r="I187" s="18" t="n">
-        <v>91.5527603</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="B188" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="D188" s="4" t="s">
-        <v>557</v>
-      </c>
-      <c r="E188" s="19" t="s">
-        <v>558</v>
-      </c>
-      <c r="F188" s="18" t="n">
-        <v>-1593.306107</v>
-      </c>
-      <c r="G188" s="18" t="n">
-        <v>-1593.29851</v>
-      </c>
-      <c r="H188" s="18" t="n">
-        <v>0.0076</v>
-      </c>
-      <c r="I188" s="18" t="n">
-        <v>19.9454</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="B189" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="D189" s="4" t="s">
-        <v>557</v>
-      </c>
-      <c r="E189" s="19" t="s">
-        <v>560</v>
-      </c>
-      <c r="F189" s="18" t="n">
-        <v>-1593.307901</v>
-      </c>
-      <c r="G189" s="18" t="n">
-        <v>-1593.303202</v>
-      </c>
-      <c r="H189" s="18" t="n">
-        <v>0.0047</v>
-      </c>
-      <c r="I189" s="18" t="n">
-        <v>12.3375</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="B190" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="D190" s="4" t="s">
-        <v>557</v>
-      </c>
-      <c r="E190" s="19" t="s">
-        <v>562</v>
-      </c>
-      <c r="F190" s="18" t="n">
-        <v>-1553.98921</v>
-      </c>
-      <c r="G190" s="18" t="n">
-        <v>-1553.985871</v>
-      </c>
-      <c r="H190" s="18" t="n">
-        <v>0.00334</v>
-      </c>
-      <c r="I190" s="18" t="n">
-        <v>8.76707</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="B191" s="18" t="n">
-        <v>4</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="D191" s="4" t="s">
-        <v>557</v>
-      </c>
-      <c r="E191" s="19" t="s">
-        <v>564</v>
-      </c>
-      <c r="F191" s="18" t="n">
-        <v>-1553.989631</v>
-      </c>
-      <c r="G191" s="18" t="n">
-        <v>-1553.985906</v>
-      </c>
-      <c r="H191" s="18" t="n">
-        <v>0.00372</v>
-      </c>
-      <c r="I191" s="18" t="n">
-        <v>9.77972</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="B192" s="18" t="n">
-        <v>5</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="D192" s="4" t="s">
-        <v>557</v>
-      </c>
-      <c r="E192" s="19" t="s">
-        <v>566</v>
-      </c>
-      <c r="F192" s="18" t="n">
-        <v>-1223.892741</v>
-      </c>
-      <c r="G192" s="18" t="n">
-        <v>-1223.883579</v>
-      </c>
-      <c r="H192" s="18" t="n">
-        <v>0.00916</v>
-      </c>
-      <c r="I192" s="18" t="n">
-        <v>24.0556</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="B193" s="18" t="n">
-        <v>6</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="D193" s="4" t="s">
-        <v>557</v>
-      </c>
-      <c r="E193" s="19" t="s">
-        <v>568</v>
-      </c>
-      <c r="F193" s="18" t="n">
-        <v>-1223.892765</v>
-      </c>
-      <c r="G193" s="18" t="n">
-        <v>-1223.886819</v>
-      </c>
-      <c r="H193" s="18" t="n">
-        <v>0.00595</v>
-      </c>
-      <c r="I193" s="18" t="n">
-        <v>15.6123</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="B194" s="18" t="n">
-        <v>7</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="D194" s="4" t="s">
-        <v>557</v>
-      </c>
-      <c r="E194" s="19" t="s">
-        <v>570</v>
-      </c>
-      <c r="F194" s="18" t="n">
-        <v>-1271.163178</v>
-      </c>
-      <c r="G194" s="18" t="n">
-        <v>-1271.129182</v>
-      </c>
-      <c r="H194" s="18" t="n">
-        <v>0.034</v>
-      </c>
-      <c r="I194" s="18" t="n">
-        <v>89.2573</v>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="B195" s="18" t="n">
-        <v>8</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="D195" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E195" s="19" t="s">
-        <v>572</v>
-      </c>
-      <c r="F195" s="18" t="n">
-        <v>-1271.162901</v>
-      </c>
-      <c r="G195" s="18" t="n">
-        <v>-1271.130382</v>
-      </c>
-      <c r="H195" s="18" t="n">
-        <v>0.03252</v>
-      </c>
-      <c r="I195" s="18" t="n">
-        <v>85.3805</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="B196" s="18" t="n">
-        <v>9</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="D196" s="4" t="s">
-        <v>557</v>
-      </c>
-      <c r="E196" s="19" t="s">
-        <v>574</v>
-      </c>
-      <c r="F196" s="18" t="n">
-        <v>-1070.047129</v>
-      </c>
-      <c r="G196" s="18" t="n">
-        <v>-1070.035813</v>
-      </c>
-      <c r="H196" s="18" t="n">
-        <v>0.01132</v>
-      </c>
-      <c r="I196" s="18" t="n">
-        <v>29.7112</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="B197" s="18" t="n">
-        <v>10</v>
-      </c>
-      <c r="C197" s="8" t="s">
-        <v>575</v>
-      </c>
-      <c r="D197" s="4" t="s">
-        <v>557</v>
-      </c>
-      <c r="E197" s="19" t="s">
-        <v>576</v>
-      </c>
-      <c r="F197" s="18" t="n">
-        <v>-1070.047333</v>
-      </c>
-      <c r="G197" s="18" t="n">
-        <v>-1070.035156</v>
-      </c>
-      <c r="H197" s="18" t="n">
-        <v>0.01218</v>
-      </c>
-      <c r="I197" s="18" t="n">
-        <v>31.9723</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="B198" s="18" t="n">
-        <v>11</v>
-      </c>
-      <c r="C198" s="8" t="s">
-        <v>577</v>
-      </c>
-      <c r="D198" s="4" t="s">
-        <v>557</v>
-      </c>
-      <c r="E198" s="19" t="s">
-        <v>578</v>
-      </c>
-      <c r="F198" s="18" t="n">
-        <v>-1109.367674</v>
-      </c>
-      <c r="G198" s="18" t="n">
-        <v>-1109.349598</v>
-      </c>
-      <c r="H198" s="18" t="n">
-        <v>0.01808</v>
-      </c>
-      <c r="I198" s="18" t="n">
-        <v>47.4588</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="B199" s="18" t="n">
-        <v>12</v>
-      </c>
-      <c r="C199" s="8" t="s">
-        <v>579</v>
-      </c>
-      <c r="D199" s="4" t="s">
-        <v>557</v>
-      </c>
-      <c r="E199" s="19" t="s">
-        <v>580</v>
-      </c>
-      <c r="F199" s="18" t="n">
-        <v>-1109.367825</v>
-      </c>
-      <c r="G199" s="18" t="n">
-        <v>-1109.352128</v>
-      </c>
-      <c r="H199" s="18" t="n">
-        <v>0.0157</v>
-      </c>
-      <c r="I199" s="18" t="n">
-        <v>41.213</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="B200" s="18" t="n">
-        <v>13</v>
-      </c>
-      <c r="C200" s="8" t="s">
-        <v>581</v>
-      </c>
-      <c r="D200" s="4" t="s">
-        <v>557</v>
-      </c>
-      <c r="E200" s="19" t="s">
-        <v>582</v>
-      </c>
-      <c r="F200" s="18" t="n">
-        <v>-1557.356661</v>
-      </c>
-      <c r="G200" s="18" t="n">
-        <v>-1557.349525</v>
-      </c>
-      <c r="H200" s="18" t="n">
-        <v>0.00714</v>
-      </c>
-      <c r="I200" s="18" t="n">
-        <v>18.7348</v>
-      </c>
-    </row>
-    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="B201" s="18" t="n">
-        <v>14</v>
-      </c>
-      <c r="C201" s="8" t="s">
-        <v>583</v>
-      </c>
-      <c r="D201" s="4" t="s">
-        <v>557</v>
-      </c>
-      <c r="E201" s="19" t="s">
-        <v>584</v>
-      </c>
-      <c r="F201" s="18" t="n">
-        <v>-1557.358401</v>
-      </c>
-      <c r="G201" s="18" t="n">
-        <v>-1557.352826</v>
-      </c>
-      <c r="H201" s="18" t="n">
-        <v>0.00557</v>
-      </c>
-      <c r="I201" s="18" t="n">
-        <v>14.6366</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="B202" s="18" t="n">
-        <v>15</v>
-      </c>
-      <c r="C202" s="8" t="s">
-        <v>585</v>
-      </c>
-      <c r="D202" s="4" t="s">
-        <v>557</v>
-      </c>
-      <c r="E202" s="19" t="s">
-        <v>586</v>
-      </c>
-      <c r="F202" s="18" t="n">
-        <v>-1518.040325</v>
-      </c>
-      <c r="G202" s="18" t="n">
-        <v>-1518.03821</v>
-      </c>
-      <c r="H202" s="18" t="n">
-        <v>0.00212</v>
-      </c>
-      <c r="I202" s="18" t="n">
-        <v>5.55451</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="B203" s="18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C203" s="8" t="s">
-        <v>587</v>
-      </c>
-      <c r="D203" s="4" t="s">
-        <v>557</v>
-      </c>
-      <c r="E203" s="19" t="s">
-        <v>588</v>
-      </c>
-      <c r="F203" s="18" t="n">
-        <v>-1518.041441</v>
-      </c>
-      <c r="G203" s="18" t="n">
-        <v>-1518.03819</v>
-      </c>
-      <c r="H203" s="18" t="n">
-        <v>0.00325</v>
-      </c>
-      <c r="I203" s="18" t="n">
-        <v>8.53603</v>
-      </c>
-    </row>
-    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="B204" s="18" t="n">
-        <v>17</v>
-      </c>
-      <c r="C204" s="8" t="s">
-        <v>589</v>
-      </c>
-      <c r="D204" s="4" t="s">
-        <v>557</v>
-      </c>
-      <c r="E204" s="19" t="s">
-        <v>590</v>
-      </c>
-      <c r="F204" s="18" t="n">
-        <v>-1148.682554</v>
-      </c>
-      <c r="G204" s="18" t="n">
-        <v>-1148.670569</v>
-      </c>
-      <c r="H204" s="18" t="n">
-        <v>0.01199</v>
-      </c>
-      <c r="I204" s="18" t="n">
-        <v>31.4682</v>
-      </c>
-    </row>
-    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="B205" s="18" t="n">
-        <v>18</v>
-      </c>
-      <c r="C205" s="8" t="s">
-        <v>591</v>
-      </c>
-      <c r="D205" s="4" t="s">
-        <v>557</v>
-      </c>
-      <c r="E205" s="19" t="s">
+      <c r="C227" s="29" t="s">
+        <v>635</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="E227" s="26" t="s">
+        <v>636</v>
+      </c>
+      <c r="F227" s="25" t="n">
+        <v>-327.9564854</v>
+      </c>
+      <c r="G227" s="25" t="n">
+        <v>-327.9340665</v>
+      </c>
+      <c r="H227" s="25" t="n">
+        <v>0.02242</v>
+      </c>
+      <c r="I227" s="25" t="n">
+        <v>58.8608</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="F205" s="18" t="n">
-        <v>-1148.683825</v>
-      </c>
-      <c r="G205" s="18" t="n">
-        <v>-1148.672643</v>
-      </c>
-      <c r="H205" s="18" t="n">
-        <v>0.01118</v>
-      </c>
-      <c r="I205" s="18" t="n">
-        <v>29.3581</v>
-      </c>
-    </row>
-    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="B206" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C206" s="2" t="s">
+      <c r="B228" s="25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C228" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="E228" s="26" t="s">
+        <v>638</v>
+      </c>
+      <c r="F228" s="25" t="n">
+        <v>-347.8227407</v>
+      </c>
+      <c r="G228" s="25" t="n">
+        <v>-347.8016165</v>
+      </c>
+      <c r="H228" s="25" t="n">
+        <v>0.02112</v>
+      </c>
+      <c r="I228" s="25" t="n">
+        <v>55.4616</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B229" s="25" t="n">
+        <v>24</v>
+      </c>
+      <c r="C229" s="29" t="s">
+        <v>639</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="E229" s="26" t="s">
+        <v>640</v>
+      </c>
+      <c r="F229" s="25" t="n">
+        <v>-347.8256763</v>
+      </c>
+      <c r="G229" s="25" t="n">
+        <v>-347.7946826</v>
+      </c>
+      <c r="H229" s="25" t="n">
+        <v>0.03099</v>
+      </c>
+      <c r="I229" s="25" t="n">
+        <v>81.374</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B230" s="25" t="n">
+        <v>25</v>
+      </c>
+      <c r="C230" s="29" t="s">
+        <v>641</v>
+      </c>
+      <c r="D230" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="D206" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="E206" s="19" t="s">
-        <v>596</v>
-      </c>
-      <c r="F206" s="18" t="n">
-        <v>-272.6067861</v>
-      </c>
-      <c r="G206" s="18" t="n">
-        <v>-272.586547</v>
-      </c>
-      <c r="H206" s="18" t="n">
-        <v>0.02024</v>
-      </c>
-      <c r="I206" s="18" t="n">
-        <v>53.1378</v>
-      </c>
-    </row>
-    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="B207" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="C207" s="2" t="s">
+      <c r="E230" s="26" t="s">
+        <v>642</v>
+      </c>
+      <c r="F230" s="25" t="n">
+        <v>-347.8269093</v>
+      </c>
+      <c r="G230" s="25" t="n">
+        <v>-347.8011297</v>
+      </c>
+      <c r="H230" s="25" t="n">
+        <v>0.02578</v>
+      </c>
+      <c r="I230" s="25" t="n">
+        <v>67.6843</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B231" s="25" t="n">
+        <v>26</v>
+      </c>
+      <c r="C231" s="29" t="s">
+        <v>643</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="E231" s="26" t="s">
+        <v>644</v>
+      </c>
+      <c r="F231" s="25" t="n">
+        <v>-347.8246048</v>
+      </c>
+      <c r="G231" s="25" t="n">
+        <v>-347.8005087</v>
+      </c>
+      <c r="H231" s="25" t="n">
+        <v>0.0241</v>
+      </c>
+      <c r="I231" s="25" t="n">
+        <v>63.2643</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B232" s="25" t="n">
+        <v>27</v>
+      </c>
+      <c r="C232" s="29" t="s">
+        <v>645</v>
+      </c>
+      <c r="D232" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="D207" s="4" t="s">
-        <v>598</v>
-      </c>
-      <c r="E207" s="19" t="s">
-        <v>599</v>
-      </c>
-      <c r="F207" s="18" t="n">
-        <v>-563.2985335</v>
-      </c>
-      <c r="G207" s="18" t="n">
-        <v>-563.2840639</v>
-      </c>
-      <c r="H207" s="18" t="n">
-        <v>0.01447</v>
-      </c>
-      <c r="I207" s="18" t="n">
-        <v>37.9899</v>
-      </c>
-    </row>
-    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="B208" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="D208" s="4" t="s">
-        <v>598</v>
-      </c>
-      <c r="E208" s="19" t="s">
-        <v>601</v>
-      </c>
-      <c r="F208" s="18" t="n">
-        <v>-563.2986892</v>
-      </c>
-      <c r="G208" s="18" t="n">
-        <v>-563.2729162</v>
-      </c>
-      <c r="H208" s="18" t="n">
-        <v>0.02577</v>
-      </c>
-      <c r="I208" s="18" t="n">
-        <v>67.667</v>
-      </c>
-    </row>
-    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="B209" s="18" t="n">
-        <v>4</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="D209" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="E209" s="19" t="s">
-        <v>603</v>
-      </c>
-      <c r="F209" s="18" t="n">
-        <v>-563.2986762</v>
-      </c>
-      <c r="G209" s="18" t="n">
-        <v>-563.2796886</v>
-      </c>
-      <c r="H209" s="18" t="n">
-        <v>0.01899</v>
-      </c>
-      <c r="I209" s="18" t="n">
-        <v>49.8519</v>
-      </c>
-    </row>
-    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="B210" s="18" t="n">
-        <v>5</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="D210" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="E210" s="19" t="s">
-        <v>605</v>
-      </c>
-      <c r="F210" s="18" t="n">
-        <v>-563.2987059</v>
-      </c>
-      <c r="G210" s="18" t="n">
-        <v>-563.2796886</v>
-      </c>
-      <c r="H210" s="18" t="n">
-        <v>0.01902</v>
-      </c>
-      <c r="I210" s="18" t="n">
-        <v>49.9299</v>
-      </c>
-    </row>
-    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="B211" s="18" t="n">
-        <v>6</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="D211" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="E211" s="19" t="s">
-        <v>607</v>
-      </c>
-      <c r="F211" s="18" t="n">
-        <v>-563.2988083</v>
-      </c>
-      <c r="G211" s="18" t="n">
-        <v>-563.2739834</v>
-      </c>
-      <c r="H211" s="18" t="n">
-        <v>0.02482</v>
-      </c>
-      <c r="I211" s="18" t="n">
-        <v>65.1778</v>
-      </c>
-    </row>
-    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="B212" s="18" t="n">
-        <v>7</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="D212" s="4" t="s">
-        <v>598</v>
-      </c>
-      <c r="E212" s="19" t="s">
-        <v>609</v>
-      </c>
-      <c r="F212" s="18" t="n">
-        <v>-364.851425</v>
-      </c>
-      <c r="G212" s="18" t="n">
-        <v>-364.83444</v>
-      </c>
-      <c r="H212" s="18" t="n">
-        <v>0.01699</v>
-      </c>
-      <c r="I212" s="18" t="n">
-        <v>44.5941</v>
-      </c>
-    </row>
-    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="B213" s="18" t="n">
-        <v>8</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="D213" s="4" t="s">
-        <v>598</v>
-      </c>
-      <c r="E213" s="19" t="s">
-        <v>611</v>
-      </c>
-      <c r="F213" s="18" t="n">
-        <v>-364.8523582</v>
-      </c>
-      <c r="G213" s="18" t="n">
-        <v>-364.8282963</v>
-      </c>
-      <c r="H213" s="18" t="n">
-        <v>0.02406</v>
-      </c>
-      <c r="I213" s="18" t="n">
-        <v>63.1745</v>
-      </c>
-    </row>
-    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="B214" s="18" t="n">
-        <v>9</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="D214" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="E214" s="19" t="s">
-        <v>613</v>
-      </c>
-      <c r="F214" s="18" t="n">
-        <v>-364.8514272</v>
-      </c>
-      <c r="G214" s="18" t="n">
-        <v>-364.8307605</v>
-      </c>
-      <c r="H214" s="18" t="n">
-        <v>0.02067</v>
-      </c>
-      <c r="I214" s="18" t="n">
-        <v>54.2604</v>
-      </c>
-    </row>
-    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="B215" s="18" t="n">
-        <v>10</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="D215" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="E215" s="19" t="s">
-        <v>615</v>
-      </c>
-      <c r="F215" s="18" t="n">
-        <v>-364.8520545</v>
-      </c>
-      <c r="G215" s="18" t="n">
-        <v>-364.8303998</v>
-      </c>
-      <c r="H215" s="18" t="n">
-        <v>0.02165</v>
-      </c>
-      <c r="I215" s="18" t="n">
-        <v>56.8544</v>
-      </c>
-    </row>
-    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="B216" s="18" t="n">
-        <v>11</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="D216" s="4" t="s">
-        <v>598</v>
-      </c>
-      <c r="E216" s="19" t="s">
-        <v>617</v>
-      </c>
-      <c r="F216" s="18" t="n">
-        <v>-311.9245293</v>
-      </c>
-      <c r="G216" s="18" t="n">
-        <v>-311.9068921</v>
-      </c>
-      <c r="H216" s="18" t="n">
-        <v>0.01764</v>
-      </c>
-      <c r="I216" s="18" t="n">
-        <v>46.3065</v>
-      </c>
-    </row>
-    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="B217" s="18" t="n">
-        <v>12</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="D217" s="4" t="s">
-        <v>598</v>
-      </c>
-      <c r="E217" s="19" t="s">
-        <v>618</v>
-      </c>
-      <c r="F217" s="18" t="n">
-        <v>-311.924589</v>
-      </c>
-      <c r="G217" s="18" t="n">
-        <v>-311.8950131</v>
-      </c>
-      <c r="H217" s="18" t="n">
-        <v>0.02958</v>
-      </c>
-      <c r="I217" s="18" t="n">
-        <v>77.6515</v>
-      </c>
-    </row>
-    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="B218" s="18" t="n">
-        <v>13</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="D218" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="E218" s="19" t="s">
-        <v>620</v>
-      </c>
-      <c r="F218" s="18" t="n">
-        <v>-311.9243872</v>
-      </c>
-      <c r="G218" s="18" t="n">
-        <v>-311.9041089</v>
-      </c>
-      <c r="H218" s="18" t="n">
-        <v>0.02028</v>
-      </c>
-      <c r="I218" s="18" t="n">
-        <v>53.2407</v>
-      </c>
-    </row>
-    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="B219" s="18" t="n">
-        <v>14</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="D219" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="E219" s="19" t="s">
-        <v>622</v>
-      </c>
-      <c r="F219" s="18" t="n">
-        <v>-311.9245521</v>
-      </c>
-      <c r="G219" s="18" t="n">
-        <v>-311.8977202</v>
-      </c>
-      <c r="H219" s="18" t="n">
-        <v>0.02683</v>
-      </c>
-      <c r="I219" s="18" t="n">
-        <v>70.4472</v>
-      </c>
-    </row>
-    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="B220" s="18" t="n">
-        <v>15</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="D220" s="4" t="s">
-        <v>598</v>
-      </c>
-      <c r="E220" s="19" t="s">
-        <v>624</v>
-      </c>
-      <c r="F220" s="18" t="n">
-        <v>-732.2132415</v>
-      </c>
-      <c r="G220" s="18" t="n">
-        <v>-732.1929392</v>
-      </c>
-      <c r="H220" s="18" t="n">
-        <v>0.0203</v>
-      </c>
-      <c r="I220" s="18" t="n">
-        <v>53.3037</v>
-      </c>
-    </row>
-    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="B221" s="18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="D221" s="4" t="s">
-        <v>598</v>
-      </c>
-      <c r="E221" s="19" t="s">
-        <v>626</v>
-      </c>
-      <c r="F221" s="18" t="n">
-        <v>-732.2136908</v>
-      </c>
-      <c r="G221" s="18" t="n">
-        <v>-732.1840098</v>
-      </c>
-      <c r="H221" s="18" t="n">
-        <v>0.02968</v>
-      </c>
-      <c r="I221" s="18" t="n">
-        <v>77.9275</v>
-      </c>
-    </row>
-    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="B222" s="18" t="n">
-        <v>17</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="D222" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="E222" s="19" t="s">
-        <v>628</v>
-      </c>
-      <c r="F222" s="18" t="n">
-        <v>-732.2136272</v>
-      </c>
-      <c r="G222" s="18" t="n">
-        <v>-732.1919124</v>
-      </c>
-      <c r="H222" s="18" t="n">
-        <v>0.02171</v>
-      </c>
-      <c r="I222" s="18" t="n">
-        <v>57.0122</v>
-      </c>
-    </row>
-    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="B223" s="18" t="n">
-        <v>18</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="D223" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="E223" s="19" t="s">
-        <v>629</v>
-      </c>
-      <c r="F223" s="18" t="n">
-        <v>-732.2136272</v>
-      </c>
-      <c r="G223" s="18" t="n">
-        <v>-732.1893553</v>
-      </c>
-      <c r="H223" s="18" t="n">
-        <v>0.02427</v>
-      </c>
-      <c r="I223" s="18" t="n">
-        <v>63.7259</v>
-      </c>
-    </row>
-    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="B224" s="18" t="n">
-        <v>19</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="D224" s="4" t="s">
-        <v>598</v>
-      </c>
-      <c r="E224" s="19" t="s">
-        <v>631</v>
-      </c>
-      <c r="F224" s="18" t="n">
-        <v>-327.9546643</v>
-      </c>
-      <c r="G224" s="18" t="n">
-        <v>-327.9360501</v>
-      </c>
-      <c r="H224" s="18" t="n">
-        <v>0.01861</v>
-      </c>
-      <c r="I224" s="18" t="n">
-        <v>48.8716</v>
-      </c>
-    </row>
-    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="B225" s="18" t="n">
-        <v>20</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="D225" s="4" t="s">
-        <v>598</v>
-      </c>
-      <c r="E225" s="19" t="s">
-        <v>633</v>
-      </c>
-      <c r="F225" s="18" t="n">
-        <v>-327.9562143</v>
-      </c>
-      <c r="G225" s="18" t="n">
-        <v>-327.9261283</v>
-      </c>
-      <c r="H225" s="18" t="n">
-        <v>0.03009</v>
-      </c>
-      <c r="I225" s="18" t="n">
-        <v>78.9908</v>
-      </c>
-    </row>
-    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="B226" s="18" t="n">
-        <v>21</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="D226" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="E226" s="19" t="s">
-        <v>635</v>
-      </c>
-      <c r="F226" s="18" t="n">
-        <v>-327.957406</v>
-      </c>
-      <c r="G226" s="18" t="n">
-        <v>-327.9347197</v>
-      </c>
-      <c r="H226" s="18" t="n">
-        <v>0.02269</v>
-      </c>
-      <c r="I226" s="18" t="n">
-        <v>59.5629</v>
-      </c>
-    </row>
-    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="B227" s="18" t="n">
-        <v>22</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="D227" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="E227" s="19" t="s">
-        <v>637</v>
-      </c>
-      <c r="F227" s="18" t="n">
-        <v>-327.9564854</v>
-      </c>
-      <c r="G227" s="18" t="n">
-        <v>-327.9340665</v>
-      </c>
-      <c r="H227" s="18" t="n">
-        <v>0.02242</v>
-      </c>
-      <c r="I227" s="18" t="n">
-        <v>58.8608</v>
-      </c>
-    </row>
-    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="B228" s="18" t="n">
-        <v>23</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="D228" s="20" t="s">
-        <v>598</v>
-      </c>
-      <c r="E228" s="19" t="s">
-        <v>639</v>
-      </c>
-      <c r="F228" s="18" t="n">
-        <v>-347.8227407</v>
-      </c>
-      <c r="G228" s="18" t="n">
-        <v>-347.8016165</v>
-      </c>
-      <c r="H228" s="18" t="n">
-        <v>0.02112</v>
-      </c>
-      <c r="I228" s="18" t="n">
-        <v>55.4616</v>
-      </c>
-    </row>
-    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="B229" s="18" t="n">
-        <v>24</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="D229" s="4" t="s">
-        <v>598</v>
-      </c>
-      <c r="E229" s="19" t="s">
-        <v>641</v>
-      </c>
-      <c r="F229" s="18" t="n">
-        <v>-347.8256763</v>
-      </c>
-      <c r="G229" s="18" t="n">
-        <v>-347.7946826</v>
-      </c>
-      <c r="H229" s="18" t="n">
-        <v>0.03099</v>
-      </c>
-      <c r="I229" s="18" t="n">
-        <v>81.374</v>
-      </c>
-    </row>
-    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="B230" s="18" t="n">
-        <v>25</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="D230" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="E230" s="19" t="s">
-        <v>643</v>
-      </c>
-      <c r="F230" s="18" t="n">
-        <v>-347.8269093</v>
-      </c>
-      <c r="G230" s="18" t="n">
-        <v>-347.8011297</v>
-      </c>
-      <c r="H230" s="18" t="n">
-        <v>0.02578</v>
-      </c>
-      <c r="I230" s="18" t="n">
-        <v>67.6843</v>
-      </c>
-    </row>
-    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="B231" s="18" t="n">
-        <v>26</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="D231" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="E231" s="19" t="s">
-        <v>645</v>
-      </c>
-      <c r="F231" s="18" t="n">
-        <v>-347.8246048</v>
-      </c>
-      <c r="G231" s="18" t="n">
-        <v>-347.8005087</v>
-      </c>
-      <c r="H231" s="18" t="n">
-        <v>0.0241</v>
-      </c>
-      <c r="I231" s="18" t="n">
-        <v>63.2643</v>
-      </c>
-    </row>
-    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="B232" s="18" t="n">
-        <v>27</v>
-      </c>
-      <c r="C232" s="2" t="s">
+      <c r="E232" s="26" t="s">
         <v>646</v>
       </c>
-      <c r="D232" s="4" t="s">
-        <v>598</v>
-      </c>
-      <c r="E232" s="19" t="s">
+      <c r="F232" s="25" t="n">
+        <v>-371.8468272</v>
+      </c>
+      <c r="G232" s="25" t="n">
+        <v>-371.8244</v>
+      </c>
+      <c r="H232" s="25" t="n">
+        <v>0.02243</v>
+      </c>
+      <c r="I232" s="25" t="n">
+        <v>58.8826</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B233" s="25" t="n">
+        <v>28</v>
+      </c>
+      <c r="C233" s="29" t="s">
         <v>647</v>
       </c>
-      <c r="F232" s="18" t="n">
-        <v>-371.8468272</v>
-      </c>
-      <c r="G232" s="18" t="n">
-        <v>-371.8244</v>
-      </c>
-      <c r="H232" s="18" t="n">
-        <v>0.02243</v>
-      </c>
-      <c r="I232" s="18" t="n">
-        <v>58.8826</v>
-      </c>
-    </row>
-    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="B233" s="18" t="n">
-        <v>28</v>
-      </c>
-      <c r="C233" s="2" t="s">
+      <c r="D233" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="E233" s="26" t="s">
         <v>648</v>
       </c>
-      <c r="D233" s="4" t="s">
-        <v>598</v>
-      </c>
-      <c r="E233" s="19" t="s">
+      <c r="F233" s="25" t="n">
+        <v>-371.8500246</v>
+      </c>
+      <c r="G233" s="25" t="n">
+        <v>-371.8197268</v>
+      </c>
+      <c r="H233" s="25" t="n">
+        <v>0.0303</v>
+      </c>
+      <c r="I233" s="25" t="n">
+        <v>79.5469</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B234" s="25" t="n">
+        <v>29</v>
+      </c>
+      <c r="C234" s="29" t="s">
         <v>649</v>
       </c>
-      <c r="F233" s="18" t="n">
-        <v>-371.8500246</v>
-      </c>
-      <c r="G233" s="18" t="n">
-        <v>-371.8197268</v>
-      </c>
-      <c r="H233" s="18" t="n">
-        <v>0.0303</v>
-      </c>
-      <c r="I233" s="18" t="n">
-        <v>79.5469</v>
-      </c>
-    </row>
-    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="B234" s="18" t="n">
-        <v>29</v>
-      </c>
-      <c r="C234" s="2" t="s">
+      <c r="D234" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="E234" s="26" t="s">
         <v>650</v>
       </c>
-      <c r="D234" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="E234" s="19" t="s">
+      <c r="F234" s="25" t="n">
+        <v>-371.8467308</v>
+      </c>
+      <c r="G234" s="25" t="n">
+        <v>-371.8239732</v>
+      </c>
+      <c r="H234" s="25" t="n">
+        <v>0.02276</v>
+      </c>
+      <c r="I234" s="25" t="n">
+        <v>59.7501</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B235" s="25" t="n">
+        <v>30</v>
+      </c>
+      <c r="C235" s="29" t="s">
         <v>651</v>
       </c>
-      <c r="F234" s="18" t="n">
-        <v>-371.8467308</v>
-      </c>
-      <c r="G234" s="18" t="n">
-        <v>-371.8239732</v>
-      </c>
-      <c r="H234" s="18" t="n">
-        <v>0.02276</v>
-      </c>
-      <c r="I234" s="18" t="n">
-        <v>59.7501</v>
-      </c>
-    </row>
-    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="B235" s="18" t="n">
-        <v>30</v>
-      </c>
-      <c r="C235" s="2" t="s">
+      <c r="D235" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="E235" s="26" t="s">
         <v>652</v>
       </c>
-      <c r="D235" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="E235" s="19" t="s">
+      <c r="F235" s="25" t="n">
+        <v>-371.851172</v>
+      </c>
+      <c r="G235" s="25" t="n">
+        <v>-371.8269538</v>
+      </c>
+      <c r="H235" s="25" t="n">
+        <v>0.02422</v>
+      </c>
+      <c r="I235" s="25" t="n">
+        <v>63.5849</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B236" s="25" t="n">
+        <v>31</v>
+      </c>
+      <c r="C236" s="29" t="s">
         <v>653</v>
       </c>
-      <c r="F235" s="18" t="n">
-        <v>-371.851172</v>
-      </c>
-      <c r="G235" s="18" t="n">
-        <v>-371.8269538</v>
-      </c>
-      <c r="H235" s="18" t="n">
-        <v>0.02422</v>
-      </c>
-      <c r="I235" s="18" t="n">
-        <v>63.5849</v>
-      </c>
-    </row>
-    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="B236" s="18" t="n">
-        <v>31</v>
-      </c>
-      <c r="C236" s="2" t="s">
+      <c r="D236" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="E236" s="26" t="s">
         <v>654</v>
       </c>
-      <c r="D236" s="4" t="s">
-        <v>598</v>
-      </c>
-      <c r="E236" s="19" t="s">
+      <c r="F236" s="25" t="n">
+        <v>-853.9896523</v>
+      </c>
+      <c r="G236" s="25" t="n">
+        <v>-853.9648477</v>
+      </c>
+      <c r="H236" s="25" t="n">
+        <v>0.0248</v>
+      </c>
+      <c r="I236" s="25" t="n">
+        <v>65.1245</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B237" s="25" t="n">
+        <v>32</v>
+      </c>
+      <c r="C237" s="30" t="s">
         <v>655</v>
       </c>
-      <c r="F236" s="18" t="n">
-        <v>-853.9896523</v>
-      </c>
-      <c r="G236" s="18" t="n">
-        <v>-853.9648477</v>
-      </c>
-      <c r="H236" s="18" t="n">
-        <v>0.0248</v>
-      </c>
-      <c r="I236" s="18" t="n">
-        <v>65.1245</v>
-      </c>
-    </row>
-    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="B237" s="18" t="n">
-        <v>32</v>
-      </c>
-      <c r="C237" s="21" t="s">
+      <c r="D237" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="E237" s="26" t="s">
         <v>656</v>
       </c>
-      <c r="D237" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="E237" s="19" t="s">
+      <c r="F237" s="25" t="n">
+        <v>-853.9897018</v>
+      </c>
+      <c r="G237" s="25" t="n">
+        <v>-853.9658123</v>
+      </c>
+      <c r="H237" s="25" t="n">
+        <v>0.02389</v>
+      </c>
+      <c r="I237" s="25" t="n">
+        <v>62.7219</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B238" s="25" t="n">
+        <v>33</v>
+      </c>
+      <c r="C238" s="29" t="s">
         <v>657</v>
       </c>
-      <c r="F237" s="18" t="n">
-        <v>-853.9897018</v>
-      </c>
-      <c r="G237" s="18" t="n">
-        <v>-853.9658123</v>
-      </c>
-      <c r="H237" s="18" t="n">
-        <v>0.02389</v>
-      </c>
-      <c r="I237" s="18" t="n">
-        <v>62.7219</v>
-      </c>
-    </row>
-    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="B238" s="18" t="n">
-        <v>33</v>
-      </c>
-      <c r="C238" s="2" t="s">
+      <c r="D238" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="E238" s="26" t="s">
         <v>658</v>
       </c>
-      <c r="D238" s="4" t="s">
-        <v>598</v>
-      </c>
-      <c r="E238" s="19" t="s">
+      <c r="F238" s="25" t="n">
+        <v>-351.2411884</v>
+      </c>
+      <c r="G238" s="25" t="n">
+        <v>-351.2120707</v>
+      </c>
+      <c r="H238" s="25" t="n">
+        <v>0.02912</v>
+      </c>
+      <c r="I238" s="25" t="n">
+        <v>76.4485</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B239" s="25" t="n">
+        <v>35</v>
+      </c>
+      <c r="C239" s="29" t="s">
         <v>659</v>
       </c>
-      <c r="F238" s="18" t="n">
-        <v>-351.2411884</v>
-      </c>
-      <c r="G238" s="18" t="n">
-        <v>-351.2120707</v>
-      </c>
-      <c r="H238" s="18" t="n">
-        <v>0.02912</v>
-      </c>
-      <c r="I238" s="18" t="n">
-        <v>76.4485</v>
-      </c>
-    </row>
-    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="B239" s="18" t="n">
-        <v>35</v>
-      </c>
-      <c r="C239" s="2" t="s">
+      <c r="D239" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="E239" s="26" t="s">
         <v>660</v>
       </c>
-      <c r="D239" s="4" t="s">
-        <v>598</v>
-      </c>
-      <c r="E239" s="19" t="s">
+      <c r="F239" s="25" t="n">
+        <v>-1191.805877</v>
+      </c>
+      <c r="G239" s="25" t="n">
+        <v>-1191.779087</v>
+      </c>
+      <c r="H239" s="25" t="n">
+        <v>0.02679</v>
+      </c>
+      <c r="I239" s="25" t="n">
+        <v>70.3377</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B240" s="25" t="n">
+        <v>36</v>
+      </c>
+      <c r="C240" s="30" t="s">
         <v>661</v>
       </c>
-      <c r="F239" s="18" t="n">
-        <v>-1191.805877</v>
-      </c>
-      <c r="G239" s="18" t="n">
-        <v>-1191.779087</v>
-      </c>
-      <c r="H239" s="18" t="n">
-        <v>0.02679</v>
-      </c>
-      <c r="I239" s="18" t="n">
-        <v>70.3377</v>
-      </c>
-    </row>
-    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="B240" s="18" t="n">
-        <v>36</v>
-      </c>
-      <c r="C240" s="21" t="s">
+      <c r="D240" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="E240" s="26" t="s">
         <v>662</v>
       </c>
-      <c r="D240" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="E240" s="19" t="s">
+      <c r="F240" s="25" t="n">
+        <v>-1191.806024</v>
+      </c>
+      <c r="G240" s="25" t="n">
+        <v>-1191.784018</v>
+      </c>
+      <c r="H240" s="25" t="n">
+        <v>0.02201</v>
+      </c>
+      <c r="I240" s="25" t="n">
+        <v>57.7763</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B241" s="25" t="n">
+        <v>37</v>
+      </c>
+      <c r="C241" s="30" t="s">
         <v>663</v>
       </c>
-      <c r="F240" s="18" t="n">
-        <v>-1191.806024</v>
-      </c>
-      <c r="G240" s="18" t="n">
-        <v>-1191.784018</v>
-      </c>
-      <c r="H240" s="18" t="n">
-        <v>0.02201</v>
-      </c>
-      <c r="I240" s="18" t="n">
-        <v>57.7763</v>
-      </c>
-    </row>
-    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="B241" s="18" t="n">
-        <v>37</v>
-      </c>
-      <c r="C241" s="21" t="s">
+      <c r="D241" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="D241" s="4" t="s">
+      <c r="E241" s="26" t="s">
         <v>665</v>
       </c>
-      <c r="E241" s="19" t="s">
+      <c r="F241" s="25" t="n">
+        <v>-539.7745731</v>
+      </c>
+      <c r="G241" s="25" t="n">
+        <v>-539.7461483</v>
+      </c>
+      <c r="H241" s="25" t="n">
+        <v>0.02842</v>
+      </c>
+      <c r="I241" s="25" t="n">
+        <v>74.6293</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B242" s="25" t="n">
+        <v>38</v>
+      </c>
+      <c r="C242" s="30" t="s">
         <v>666</v>
       </c>
-      <c r="F241" s="18" t="n">
-        <v>-539.7745731</v>
-      </c>
-      <c r="G241" s="18" t="n">
-        <v>-539.7461483</v>
-      </c>
-      <c r="H241" s="18" t="n">
-        <v>0.02842</v>
-      </c>
-      <c r="I241" s="18" t="n">
-        <v>74.6293</v>
-      </c>
-    </row>
-    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="B242" s="18" t="n">
-        <v>38</v>
-      </c>
-      <c r="C242" s="21" t="s">
+      <c r="D242" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="D242" s="4" t="s">
+      <c r="E242" s="26" t="s">
         <v>668</v>
       </c>
-      <c r="E242" s="19" t="s">
+      <c r="F242" s="25" t="n">
+        <v>-539.7750815</v>
+      </c>
+      <c r="G242" s="25" t="n">
+        <v>-539.7522845</v>
+      </c>
+      <c r="H242" s="25" t="n">
+        <v>0.0228</v>
+      </c>
+      <c r="I242" s="25" t="n">
+        <v>59.8535</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B243" s="25" t="n">
+        <v>39</v>
+      </c>
+      <c r="C243" s="29" t="s">
         <v>669</v>
       </c>
-      <c r="F242" s="18" t="n">
-        <v>-539.7750815</v>
-      </c>
-      <c r="G242" s="18" t="n">
-        <v>-539.7522845</v>
-      </c>
-      <c r="H242" s="18" t="n">
-        <v>0.0228</v>
-      </c>
-      <c r="I242" s="18" t="n">
-        <v>59.8535</v>
-      </c>
-    </row>
-    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="B243" s="18" t="n">
-        <v>39</v>
-      </c>
-      <c r="C243" s="2" t="s">
+      <c r="D243" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="E243" s="26" t="s">
         <v>670</v>
       </c>
-      <c r="D243" s="4" t="s">
-        <v>598</v>
-      </c>
-      <c r="E243" s="19" t="s">
+      <c r="F243" s="25" t="n">
+        <v>-471.0894099</v>
+      </c>
+      <c r="G243" s="25" t="n">
+        <v>-471.062889</v>
+      </c>
+      <c r="H243" s="25" t="n">
+        <v>0.02652</v>
+      </c>
+      <c r="I243" s="25" t="n">
+        <v>69.6306</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B244" s="25" t="n">
+        <v>40</v>
+      </c>
+      <c r="C244" s="30" t="s">
         <v>671</v>
       </c>
-      <c r="F243" s="18" t="n">
-        <v>-471.0894099</v>
-      </c>
-      <c r="G243" s="18" t="n">
-        <v>-471.062889</v>
-      </c>
-      <c r="H243" s="18" t="n">
-        <v>0.02652</v>
-      </c>
-      <c r="I243" s="18" t="n">
-        <v>69.6306</v>
-      </c>
-    </row>
-    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="B244" s="18" t="n">
-        <v>40</v>
-      </c>
-      <c r="C244" s="21" t="s">
+      <c r="D244" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="E244" s="26" t="s">
         <v>672</v>
       </c>
-      <c r="D244" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="E244" s="19" t="s">
+      <c r="F244" s="25" t="n">
+        <v>-471.0898994</v>
+      </c>
+      <c r="G244" s="25" t="n">
+        <v>-471.0685658</v>
+      </c>
+      <c r="H244" s="25" t="n">
+        <v>0.02133</v>
+      </c>
+      <c r="I244" s="25" t="n">
+        <v>56.0114</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B245" s="25" t="n">
+        <v>41</v>
+      </c>
+      <c r="C245" s="30" t="s">
         <v>673</v>
       </c>
-      <c r="F244" s="18" t="n">
-        <v>-471.0898994</v>
-      </c>
-      <c r="G244" s="18" t="n">
-        <v>-471.0685658</v>
-      </c>
-      <c r="H244" s="18" t="n">
-        <v>0.02133</v>
-      </c>
-      <c r="I244" s="18" t="n">
-        <v>56.0114</v>
-      </c>
-    </row>
-    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="B245" s="18" t="n">
-        <v>41</v>
-      </c>
-      <c r="C245" s="21" t="s">
+      <c r="D245" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="E245" s="26" t="s">
         <v>674</v>
       </c>
-      <c r="D245" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="E245" s="19" t="s">
+      <c r="F245" s="25" t="n">
+        <v>-1191.797073</v>
+      </c>
+      <c r="G245" s="25" t="n">
+        <v>-1191.77392</v>
+      </c>
+      <c r="H245" s="25" t="n">
+        <v>0.02315</v>
+      </c>
+      <c r="I245" s="25" t="n">
+        <v>60.7887</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B246" s="25" t="n">
+        <v>42</v>
+      </c>
+      <c r="C246" s="30" t="s">
         <v>675</v>
       </c>
-      <c r="F245" s="18" t="n">
-        <v>-1191.797073</v>
-      </c>
-      <c r="G245" s="18" t="n">
-        <v>-1191.77392</v>
-      </c>
-      <c r="H245" s="18" t="n">
-        <v>0.02315</v>
-      </c>
-      <c r="I245" s="18" t="n">
-        <v>60.7887</v>
-      </c>
-    </row>
-    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="B246" s="18" t="n">
-        <v>42</v>
-      </c>
-      <c r="C246" s="21" t="s">
+      <c r="D246" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="E246" s="26" t="s">
         <v>676</v>
       </c>
-      <c r="D246" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="E246" s="19" t="s">
+      <c r="F246" s="25" t="n">
+        <v>-1191.797017</v>
+      </c>
+      <c r="G246" s="25" t="n">
+        <v>-1191.770623</v>
+      </c>
+      <c r="H246" s="25" t="n">
+        <v>0.02639</v>
+      </c>
+      <c r="I246" s="25" t="n">
+        <v>69.2988</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B247" s="25" t="n">
+        <v>43</v>
+      </c>
+      <c r="C247" s="30" t="s">
         <v>677</v>
       </c>
-      <c r="F246" s="18" t="n">
-        <v>-1191.797017</v>
-      </c>
-      <c r="G246" s="18" t="n">
-        <v>-1191.770623</v>
-      </c>
-      <c r="H246" s="18" t="n">
-        <v>0.02639</v>
-      </c>
-      <c r="I246" s="18" t="n">
-        <v>69.2988</v>
-      </c>
-    </row>
-    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="B247" s="18" t="n">
-        <v>43</v>
-      </c>
-      <c r="C247" s="21" t="s">
+      <c r="D247" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="E247" s="26" t="s">
         <v>678</v>
       </c>
-      <c r="D247" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="E247" s="19" t="s">
+      <c r="F247" s="25" t="n">
+        <v>-1390.274843</v>
+      </c>
+      <c r="G247" s="25" t="n">
+        <v>-1390.243917</v>
+      </c>
+      <c r="H247" s="25" t="n">
+        <v>0.03093</v>
+      </c>
+      <c r="I247" s="25" t="n">
+        <v>81.1962</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B248" s="25" t="n">
+        <v>44</v>
+      </c>
+      <c r="C248" s="30" t="s">
         <v>679</v>
       </c>
-      <c r="F247" s="18" t="n">
-        <v>-1390.274843</v>
-      </c>
-      <c r="G247" s="18" t="n">
-        <v>-1390.243917</v>
-      </c>
-      <c r="H247" s="18" t="n">
-        <v>0.03093</v>
-      </c>
-      <c r="I247" s="18" t="n">
-        <v>81.1962</v>
-      </c>
-    </row>
-    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="B248" s="18" t="n">
-        <v>44</v>
-      </c>
-      <c r="C248" s="21" t="s">
+      <c r="D248" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="E248" s="26" t="s">
         <v>680</v>
       </c>
-      <c r="D248" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="E248" s="19" t="s">
+      <c r="F248" s="25" t="n">
+        <v>-1390.275578</v>
+      </c>
+      <c r="G248" s="25" t="n">
+        <v>-1390.247681</v>
+      </c>
+      <c r="H248" s="25" t="n">
+        <v>0.0279</v>
+      </c>
+      <c r="I248" s="25" t="n">
+        <v>73.2428</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B249" s="25" t="n">
+        <v>45</v>
+      </c>
+      <c r="C249" s="30" t="s">
         <v>681</v>
       </c>
-      <c r="F248" s="18" t="n">
-        <v>-1390.275578</v>
-      </c>
-      <c r="G248" s="18" t="n">
-        <v>-1390.247681</v>
-      </c>
-      <c r="H248" s="18" t="n">
-        <v>0.0279</v>
-      </c>
-      <c r="I248" s="18" t="n">
-        <v>73.2428</v>
-      </c>
-    </row>
-    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="B249" s="18" t="n">
-        <v>45</v>
-      </c>
-      <c r="C249" s="21" t="s">
+      <c r="D249" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="E249" s="26" t="s">
         <v>682</v>
       </c>
-      <c r="D249" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="E249" s="19" t="s">
+      <c r="F249" s="25" t="n">
+        <v>-2110.988718</v>
+      </c>
+      <c r="G249" s="25" t="n">
+        <v>-2110.95676</v>
+      </c>
+      <c r="H249" s="25" t="n">
+        <v>0.03196</v>
+      </c>
+      <c r="I249" s="25" t="n">
+        <v>83.9047</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B250" s="25" t="n">
+        <v>46</v>
+      </c>
+      <c r="C250" s="30" t="s">
         <v>683</v>
       </c>
-      <c r="F249" s="18" t="n">
-        <v>-2110.988718</v>
-      </c>
-      <c r="G249" s="18" t="n">
-        <v>-2110.95676</v>
-      </c>
-      <c r="H249" s="18" t="n">
-        <v>0.03196</v>
-      </c>
-      <c r="I249" s="18" t="n">
-        <v>83.9047</v>
-      </c>
-    </row>
-    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="B250" s="18" t="n">
-        <v>46</v>
-      </c>
-      <c r="C250" s="21" t="s">
+      <c r="D250" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="E250" s="26" t="s">
         <v>684</v>
       </c>
-      <c r="D250" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="E250" s="19" t="s">
-        <v>685</v>
-      </c>
-      <c r="F250" s="18" t="n">
+      <c r="F250" s="25" t="n">
         <v>-2110.98861</v>
       </c>
-      <c r="G250" s="18" t="n">
+      <c r="G250" s="25" t="n">
         <v>-2110.960209</v>
       </c>
-      <c r="H250" s="18" t="n">
+      <c r="H250" s="25" t="n">
         <v>0.0284</v>
       </c>
-      <c r="I250" s="18" t="n">
+      <c r="I250" s="25" t="n">
         <v>74.5676</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C251" s="22"/>
+      <c r="C251" s="31"/>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C252" s="22"/>
+      <c r="C252" s="31"/>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C253" s="22"/>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="C253" s="31"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>

--- a/data/barriers.xlsx
+++ b/data/barriers.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="658">
   <si>
     <t xml:space="preserve">group</t>
   </si>
@@ -809,87 +809,6 @@
   </si>
   <si>
     <t xml:space="preserve">3,6-bis(Trifluoromethyl)tetrazine and cis-2-Butene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reactC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">endo-10MVc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7,6, 1, 2, 3, 4, 19, 21, 23, 25, 27, 26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">["c7","c6", "c1", "c2",  "c3", "c4"]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">endo10MVc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7,6, 1, 5, 4, 3, 22, 23, 24, 25, 27, 26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">["c7", "c6", "c1", "c5", "c4", "c3"]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">endoc-10MVc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">endoc10MVc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">endol-10MVc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">endol10MVc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7, 6, 1, 5, 4, 3, 22, 23, 24, 26, 20, 27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">endonf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">endop-10MVc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7,6, 2, 3, 4, 5, 21, 22, 23, 31, 20, 27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">["c7","c6", "c2", "c3",  "c4", "c5"]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">endop10MVc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7,6, 1, 5, 4, 3, 21, 22, 23, 24, 20, 27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exo-10MVc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exo10MVc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exoc-10MVc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exoc10MVc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exol-10MVc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exol10MVc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exonf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exop-10MVc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exop10MVc</t>
   </si>
   <si>
     <t xml:space="preserve">D</t>
@@ -2084,7 +2003,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2156,35 +2075,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="8"/>
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
@@ -2268,7 +2166,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2321,34 +2219,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2365,7 +2235,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2389,11 +2259,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2476,8 +2350,8 @@
   </sheetPr>
   <dimension ref="A1:M1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A214" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D228" activeCellId="0" sqref="D228"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A66" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A84" activeCellId="0" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4968,4660 +4842,4354 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="13" t="s">
+      <c r="A84" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="C84" s="14" t="s">
+      <c r="C84" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="D84" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="E84" s="15"/>
-      <c r="I84" s="16" t="n">
-        <v>17.79766411</v>
+      <c r="E84" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="F84" s="6" t="n">
+        <v>-681.37176</v>
+      </c>
+      <c r="G84" s="6" t="n">
+        <v>-681.32353</v>
+      </c>
+      <c r="H84" s="6" t="n">
+        <v>0.0482312</v>
+      </c>
+      <c r="I84" s="6" t="n">
+        <v>126.631016</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="17" t="s">
+      <c r="A85" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="D85" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="E85" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="C85" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E85" s="18"/>
-      <c r="I85" s="16" t="n">
-        <v>21.35993585</v>
+      <c r="F85" s="6" t="n">
+        <v>-682.61793</v>
+      </c>
+      <c r="G85" s="6" t="n">
+        <v>-682.57531</v>
+      </c>
+      <c r="H85" s="6" t="n">
+        <v>0.0426159</v>
+      </c>
+      <c r="I85" s="6" t="n">
+        <v>111.888045</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="17" t="s">
+      <c r="A86" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D86" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="F86" s="6" t="n">
+        <v>-530.95399</v>
+      </c>
+      <c r="G86" s="6" t="n">
+        <v>-530.90492</v>
+      </c>
+      <c r="H86" s="6" t="n">
+        <v>0.0490686</v>
+      </c>
+      <c r="I86" s="6" t="n">
+        <v>128.829609</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B87" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D87" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="F87" s="6" t="n">
+        <v>-532.1997</v>
+      </c>
+      <c r="G87" s="6" t="n">
+        <v>-532.15972</v>
+      </c>
+      <c r="H87" s="6" t="n">
+        <v>0.0399814</v>
+      </c>
+      <c r="I87" s="6" t="n">
+        <v>104.971166</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B88" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D88" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="F88" s="6" t="n">
+        <v>-914.43467</v>
+      </c>
+      <c r="G88" s="6" t="n">
+        <v>-914.38581</v>
+      </c>
+      <c r="H88" s="6" t="n">
+        <v>0.0488588</v>
+      </c>
+      <c r="I88" s="6" t="n">
+        <v>128.278779</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B89" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="C89" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="F89" s="6" t="n">
+        <v>-915.68191</v>
+      </c>
+      <c r="G89" s="6" t="n">
+        <v>-915.63894</v>
+      </c>
+      <c r="H89" s="6" t="n">
+        <v>0.0429743</v>
+      </c>
+      <c r="I89" s="6" t="n">
+        <v>112.829025</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B90" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="C90" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="F90" s="6" t="n">
+        <v>-452.30373</v>
+      </c>
+      <c r="G90" s="6" t="n">
+        <v>-452.26715</v>
+      </c>
+      <c r="H90" s="6" t="n">
+        <v>0.0365725</v>
+      </c>
+      <c r="I90" s="6" t="n">
+        <v>96.0210988</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B91" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="C91" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="F91" s="6" t="n">
+        <v>-453.55032</v>
+      </c>
+      <c r="G91" s="6" t="n">
+        <v>-453.51947</v>
+      </c>
+      <c r="H91" s="6" t="n">
+        <v>0.0308473</v>
+      </c>
+      <c r="I91" s="6" t="n">
+        <v>80.9895862</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B92" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="C92" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="F92" s="6" t="n">
+        <v>-946.49952</v>
+      </c>
+      <c r="G92" s="6" t="n">
+        <v>-946.45345</v>
+      </c>
+      <c r="H92" s="6" t="n">
+        <v>0.046062</v>
+      </c>
+      <c r="I92" s="6" t="n">
+        <v>120.935781</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B93" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="C93" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="F93" s="6" t="n">
+        <v>-947.74389</v>
+      </c>
+      <c r="G93" s="6" t="n">
+        <v>-947.71149</v>
+      </c>
+      <c r="H93" s="6" t="n">
+        <v>0.0324051</v>
+      </c>
+      <c r="I93" s="6" t="n">
+        <v>85.0795901</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B94" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C94" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="F94" s="6" t="n">
+        <v>-908.03912</v>
+      </c>
+      <c r="G94" s="6" t="n">
+        <v>-907.99984</v>
+      </c>
+      <c r="H94" s="6" t="n">
+        <v>0.0392817</v>
+      </c>
+      <c r="I94" s="6" t="n">
+        <v>103.134103</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B95" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="C95" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="D95" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="C86" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E86" s="15"/>
-      <c r="I86" s="16" t="n">
-        <v>19.37006077</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="17" t="s">
+      <c r="E95" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="F95" s="6" t="n">
+        <v>-909.2848</v>
+      </c>
+      <c r="G95" s="6" t="n">
+        <v>-909.25739</v>
+      </c>
+      <c r="H95" s="6" t="n">
+        <v>0.0274007</v>
+      </c>
+      <c r="I95" s="6" t="n">
+        <v>71.9405379</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C87" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E87" s="15"/>
-      <c r="I87" s="16" t="n">
-        <v>20.31849079</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="17" t="s">
+      <c r="B96" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="C96" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="F96" s="6" t="n">
+        <v>-1126.3568</v>
+      </c>
+      <c r="G96" s="6" t="n">
+        <v>-1126.3219</v>
+      </c>
+      <c r="H96" s="6" t="n">
+        <v>0.0349184</v>
+      </c>
+      <c r="I96" s="6" t="n">
+        <v>91.6782592</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C88" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E88" s="15"/>
-      <c r="I88" s="16" t="n">
-        <v>18.27891088</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="17" t="s">
+      <c r="B97" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="C97" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="F97" s="6" t="n">
+        <v>-1127.6051</v>
+      </c>
+      <c r="G97" s="6" t="n">
+        <v>-1127.5799</v>
+      </c>
+      <c r="H97" s="6" t="n">
+        <v>0.025216</v>
+      </c>
+      <c r="I97" s="6" t="n">
+        <v>66.204608</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E89" s="19"/>
-      <c r="I89" s="16" t="n">
-        <v>21.92453015</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="17" t="s">
+      <c r="B98" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="C98" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="F98" s="6" t="n">
+        <v>-837.39348</v>
+      </c>
+      <c r="G98" s="6" t="n">
+        <v>-837.36567</v>
+      </c>
+      <c r="H98" s="6" t="n">
+        <v>0.0278034</v>
+      </c>
+      <c r="I98" s="6" t="n">
+        <v>72.9978267</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C90" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E90" s="15"/>
-      <c r="I90" s="16" t="n">
-        <v>19.62901875</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="17" t="s">
+      <c r="B99" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="C99" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="F99" s="6" t="n">
+        <v>-838.63739</v>
+      </c>
+      <c r="G99" s="6" t="n">
+        <v>-838.61193</v>
+      </c>
+      <c r="H99" s="6" t="n">
+        <v>0.0254655</v>
+      </c>
+      <c r="I99" s="6" t="n">
+        <v>66.8596703</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C91" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="E91" s="18"/>
-      <c r="I91" s="16" t="n">
-        <v>20.20802193</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="17" t="s">
+      <c r="B100" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="C100" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="F100" s="6" t="n">
+        <v>-686.97507</v>
+      </c>
+      <c r="G100" s="6" t="n">
+        <v>-686.94588</v>
+      </c>
+      <c r="H100" s="6" t="n">
+        <v>0.0291839</v>
+      </c>
+      <c r="I100" s="6" t="n">
+        <v>76.6223295</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C92" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E92" s="18"/>
-      <c r="I92" s="16" t="n">
-        <v>20.77904694</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C93" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E93" s="15"/>
-      <c r="I93" s="16" t="n">
-        <v>19.54516586</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C94" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E94" s="15"/>
-      <c r="I94" s="16" t="n">
-        <v>20.56913096</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C95" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E95" s="15"/>
-      <c r="I95" s="16" t="n">
-        <v>19.52571143</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C96" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E96" s="15"/>
-      <c r="I96" s="16" t="n">
-        <v>20.76504277</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C97" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E97" s="15"/>
-      <c r="I97" s="16" t="n">
-        <v>19.4565663</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C98" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E98" s="15"/>
-      <c r="I98" s="16" t="n">
-        <v>20.63306604</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C99" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E99" s="15"/>
-      <c r="I99" s="16" t="n">
-        <v>19.69612186</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C100" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E100" s="15"/>
-      <c r="I100" s="16" t="n">
-        <v>20.03680096</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C101" s="14" t="s">
-        <v>265</v>
+      <c r="B101" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="C101" s="16" t="s">
+        <v>314</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E101" s="15"/>
-      <c r="I101" s="16" t="n">
-        <v>20.40849549</v>
+        <v>309</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="F101" s="6" t="n">
+        <v>-688.22041</v>
+      </c>
+      <c r="G101" s="6" t="n">
+        <v>-688.19611</v>
+      </c>
+      <c r="H101" s="6" t="n">
+        <v>0.0243077</v>
+      </c>
+      <c r="I101" s="6" t="n">
+        <v>63.8198664</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="B102" s="20" t="s">
-        <v>291</v>
-      </c>
-      <c r="C102" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="D102" s="21" t="s">
-        <v>293</v>
+        <v>263</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C102" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>317</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="F102" s="6" t="n">
-        <v>-681.37176</v>
+        <v>-1070.4553</v>
       </c>
       <c r="G102" s="6" t="n">
-        <v>-681.32353</v>
+        <v>-1070.4267</v>
       </c>
       <c r="H102" s="6" t="n">
-        <v>0.0482312</v>
+        <v>0.0285468</v>
       </c>
       <c r="I102" s="6" t="n">
-        <v>126.631016</v>
+        <v>74.9496234</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="B103" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="C103" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="D103" s="21" t="s">
-        <v>297</v>
+        <v>263</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C103" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>270</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="F103" s="6" t="n">
-        <v>-682.61793</v>
+        <v>-1071.7015</v>
       </c>
       <c r="G103" s="6" t="n">
-        <v>-682.57531</v>
+        <v>-1071.676</v>
       </c>
       <c r="H103" s="6" t="n">
-        <v>0.0426159</v>
+        <v>0.0254459</v>
       </c>
       <c r="I103" s="6" t="n">
-        <v>111.888045</v>
+        <v>66.8082105</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="B104" s="20" t="s">
-        <v>298</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D104" s="22" t="s">
-        <v>300</v>
+        <v>263</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="C104" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="D104" s="10" t="s">
+        <v>317</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="F104" s="6" t="n">
-        <v>-530.95399</v>
+        <v>-608.32444</v>
       </c>
       <c r="G104" s="6" t="n">
-        <v>-530.90492</v>
+        <v>-608.30698</v>
       </c>
       <c r="H104" s="6" t="n">
-        <v>0.0490686</v>
+        <v>0.017457</v>
       </c>
       <c r="I104" s="6" t="n">
-        <v>128.829609</v>
+        <v>45.8333535</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="B105" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D105" s="22" t="s">
-        <v>303</v>
+        <v>263</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="C105" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="D105" s="10" t="s">
+        <v>270</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="F105" s="6" t="n">
-        <v>-532.1997</v>
+        <v>-609.56988</v>
       </c>
       <c r="G105" s="6" t="n">
-        <v>-532.15972</v>
+        <v>-609.55539</v>
       </c>
       <c r="H105" s="6" t="n">
-        <v>0.0399814</v>
+        <v>0.014488</v>
       </c>
       <c r="I105" s="6" t="n">
-        <v>104.971166</v>
+        <v>38.038244</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="B106" s="20" t="s">
-        <v>304</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="D106" s="22" t="s">
-        <v>306</v>
+        <v>263</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="C106" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="D106" s="10" t="s">
+        <v>317</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="F106" s="6" t="n">
-        <v>-914.43467</v>
+        <v>-1102.5202</v>
       </c>
       <c r="G106" s="6" t="n">
-        <v>-914.38581</v>
+        <v>-1102.4946</v>
       </c>
       <c r="H106" s="6" t="n">
-        <v>0.0488588</v>
+        <v>0.025649</v>
       </c>
       <c r="I106" s="6" t="n">
-        <v>128.278779</v>
+        <v>67.3414495</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="B107" s="20" t="s">
-        <v>307</v>
-      </c>
-      <c r="C107" s="23" t="s">
-        <v>308</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>309</v>
+        <v>263</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C107" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="D107" s="10" t="s">
+        <v>294</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="F107" s="6" t="n">
-        <v>-915.68191</v>
+        <v>-1103.7638</v>
       </c>
       <c r="G107" s="6" t="n">
-        <v>-915.63894</v>
+        <v>-1103.7473</v>
       </c>
       <c r="H107" s="6" t="n">
-        <v>0.0429743</v>
+        <v>0.0164966</v>
       </c>
       <c r="I107" s="6" t="n">
-        <v>112.829025</v>
+        <v>43.3118233</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="B108" s="20" t="s">
-        <v>310</v>
-      </c>
-      <c r="C108" s="23" t="s">
-        <v>311</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>312</v>
+        <v>263</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="C108" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>317</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="F108" s="6" t="n">
-        <v>-452.30373</v>
+        <v>-1064.0592</v>
       </c>
       <c r="G108" s="6" t="n">
-        <v>-452.26715</v>
+        <v>-1064.0416</v>
       </c>
       <c r="H108" s="6" t="n">
-        <v>0.0365725</v>
+        <v>0.017676</v>
       </c>
       <c r="I108" s="6" t="n">
-        <v>96.0210988</v>
+        <v>46.408338</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="B109" s="20" t="s">
-        <v>313</v>
-      </c>
-      <c r="C109" s="23" t="s">
-        <v>314</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>315</v>
+        <v>263</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="C109" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>270</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="F109" s="6" t="n">
-        <v>-453.55032</v>
+        <v>-1065.3046</v>
       </c>
       <c r="G109" s="6" t="n">
-        <v>-453.51947</v>
+        <v>-1065.2931</v>
       </c>
       <c r="H109" s="6" t="n">
-        <v>0.0308473</v>
+        <v>0.0115052</v>
       </c>
       <c r="I109" s="6" t="n">
-        <v>80.9895862</v>
+        <v>30.2069026</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="B110" s="20" t="s">
-        <v>316</v>
-      </c>
-      <c r="C110" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="C110" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="D110" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="D110" s="3" t="s">
-        <v>318</v>
-      </c>
       <c r="E110" s="5" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="F110" s="6" t="n">
-        <v>-946.49952</v>
+        <v>-1282.3807</v>
       </c>
       <c r="G110" s="6" t="n">
-        <v>-946.45345</v>
+        <v>-1282.3639</v>
       </c>
       <c r="H110" s="6" t="n">
-        <v>0.046062</v>
+        <v>0.0168241</v>
       </c>
       <c r="I110" s="6" t="n">
-        <v>120.935781</v>
+        <v>44.1716746</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="B111" s="20" t="s">
-        <v>319</v>
-      </c>
-      <c r="C111" s="23" t="s">
-        <v>320</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>321</v>
+        <v>263</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C111" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>270</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="F111" s="6" t="n">
-        <v>-947.74389</v>
+        <v>-1283.6266</v>
       </c>
       <c r="G111" s="6" t="n">
-        <v>-947.71149</v>
+        <v>-1283.6156</v>
       </c>
       <c r="H111" s="6" t="n">
-        <v>0.0324051</v>
+        <v>0.0109549</v>
       </c>
       <c r="I111" s="6" t="n">
-        <v>85.0795901</v>
+        <v>28.76209</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="B112" s="20" t="s">
-        <v>322</v>
-      </c>
-      <c r="C112" s="23" t="s">
-        <v>323</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>318</v>
+        <v>336</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="C112" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>339</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>294</v>
+        <v>340</v>
       </c>
       <c r="F112" s="6" t="n">
-        <v>-908.03912</v>
+        <v>-425.33674</v>
       </c>
       <c r="G112" s="6" t="n">
-        <v>-907.99984</v>
+        <v>-425.30439</v>
       </c>
       <c r="H112" s="6" t="n">
-        <v>0.0392817</v>
+        <v>0.0323455</v>
       </c>
       <c r="I112" s="6" t="n">
-        <v>103.134103</v>
+        <v>84.9231103</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="B113" s="20" t="s">
-        <v>324</v>
-      </c>
-      <c r="C113" s="23" t="s">
-        <v>325</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>297</v>
+        <v>336</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="C113" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>343</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>294</v>
+        <v>344</v>
       </c>
       <c r="F113" s="6" t="n">
-        <v>-909.2848</v>
+        <v>-425.3375</v>
       </c>
       <c r="G113" s="6" t="n">
-        <v>-909.25739</v>
+        <v>-425.30556</v>
       </c>
       <c r="H113" s="6" t="n">
-        <v>0.0274007</v>
+        <v>0.0319414</v>
       </c>
       <c r="I113" s="6" t="n">
-        <v>71.9405379</v>
+        <v>83.8621457</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="B114" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C114" s="23" t="s">
-        <v>327</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>328</v>
+        <v>336</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="C114" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="D114" s="10" t="s">
+        <v>347</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>294</v>
+        <v>348</v>
       </c>
       <c r="F114" s="6" t="n">
-        <v>-1126.3568</v>
+        <v>-425.33787</v>
       </c>
       <c r="G114" s="6" t="n">
-        <v>-1126.3219</v>
+        <v>-425.30121</v>
       </c>
       <c r="H114" s="6" t="n">
-        <v>0.0349184</v>
+        <v>0.0366614</v>
       </c>
       <c r="I114" s="6" t="n">
-        <v>91.6782592</v>
+        <v>96.2545057</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="B115" s="20" t="s">
-        <v>329</v>
-      </c>
-      <c r="C115" s="23" t="s">
-        <v>330</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>328</v>
+        <v>336</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="C115" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="D115" s="10" t="s">
+        <v>351</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>294</v>
+        <v>352</v>
       </c>
       <c r="F115" s="6" t="n">
-        <v>-1127.6051</v>
+        <v>-425.34019</v>
       </c>
       <c r="G115" s="6" t="n">
-        <v>-1127.5799</v>
+        <v>-425.30195</v>
       </c>
       <c r="H115" s="6" t="n">
-        <v>0.025216</v>
+        <v>0.0382318</v>
       </c>
       <c r="I115" s="6" t="n">
-        <v>66.204608</v>
+        <v>100.377591</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="B116" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="C116" s="23" t="s">
-        <v>332</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>333</v>
+        <v>336</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="C116" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="D116" s="10" t="s">
+        <v>355</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>294</v>
+        <v>356</v>
       </c>
       <c r="F116" s="6" t="n">
-        <v>-837.39348</v>
+        <v>-503.97624</v>
       </c>
       <c r="G116" s="6" t="n">
-        <v>-837.36567</v>
+        <v>-503.94172</v>
       </c>
       <c r="H116" s="6" t="n">
-        <v>0.0278034</v>
+        <v>0.0345238</v>
       </c>
       <c r="I116" s="6" t="n">
-        <v>72.9978267</v>
+        <v>90.6422369</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="B117" s="20" t="s">
-        <v>334</v>
-      </c>
-      <c r="C117" s="23" t="s">
-        <v>335</v>
-      </c>
-      <c r="D117" s="3" t="s">
         <v>336</v>
       </c>
+      <c r="B117" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C117" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="D117" s="10" t="s">
+        <v>359</v>
+      </c>
       <c r="E117" s="5" t="s">
-        <v>294</v>
+        <v>360</v>
       </c>
       <c r="F117" s="6" t="n">
-        <v>-838.63739</v>
+        <v>-503.97752</v>
       </c>
       <c r="G117" s="6" t="n">
-        <v>-838.61193</v>
+        <v>-503.94317</v>
       </c>
       <c r="H117" s="6" t="n">
-        <v>0.0254655</v>
+        <v>0.0343559</v>
       </c>
       <c r="I117" s="6" t="n">
-        <v>66.8596703</v>
+        <v>90.2014155</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="B118" s="20" t="s">
-        <v>337</v>
-      </c>
-      <c r="C118" s="23" t="s">
-        <v>338</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>339</v>
+        <v>336</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="C118" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="D118" s="10" t="s">
+        <v>355</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>294</v>
+        <v>363</v>
       </c>
       <c r="F118" s="6" t="n">
-        <v>-686.97507</v>
+        <v>-503.97452</v>
       </c>
       <c r="G118" s="6" t="n">
-        <v>-686.94588</v>
+        <v>-503.93653</v>
       </c>
       <c r="H118" s="6" t="n">
-        <v>0.0291839</v>
+        <v>0.0379973</v>
       </c>
       <c r="I118" s="6" t="n">
-        <v>76.6223295</v>
+        <v>99.7619112</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="B119" s="20" t="s">
-        <v>340</v>
-      </c>
-      <c r="C119" s="23" t="s">
-        <v>341</v>
-      </c>
-      <c r="D119" s="3" t="s">
         <v>336</v>
       </c>
+      <c r="B119" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="C119" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="D119" s="10" t="s">
+        <v>359</v>
+      </c>
       <c r="E119" s="5" t="s">
-        <v>294</v>
+        <v>366</v>
       </c>
       <c r="F119" s="6" t="n">
-        <v>-688.22041</v>
+        <v>-503.97596</v>
       </c>
       <c r="G119" s="6" t="n">
-        <v>-688.19611</v>
+        <v>-503.9349</v>
       </c>
       <c r="H119" s="6" t="n">
-        <v>0.0243077</v>
+        <v>0.0410542</v>
       </c>
       <c r="I119" s="6" t="n">
-        <v>63.8198664</v>
+        <v>107.787802</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="5" t="s">
-        <v>290</v>
+        <v>336</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="C120" s="23" t="s">
-        <v>343</v>
+        <v>367</v>
+      </c>
+      <c r="C120" s="16" t="s">
+        <v>368</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>294</v>
+        <v>370</v>
       </c>
       <c r="F120" s="6" t="n">
-        <v>-1070.4553</v>
+        <v>-484.48482</v>
       </c>
       <c r="G120" s="6" t="n">
-        <v>-1070.4267</v>
+        <v>-484.46449</v>
       </c>
       <c r="H120" s="6" t="n">
-        <v>0.0285468</v>
+        <v>0.0203313</v>
       </c>
       <c r="I120" s="6" t="n">
-        <v>74.9496234</v>
+        <v>53.3798282</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="5" t="s">
-        <v>290</v>
+        <v>336</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="C121" s="24" t="s">
-        <v>346</v>
+        <v>371</v>
+      </c>
+      <c r="C121" s="16" t="s">
+        <v>372</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>297</v>
+        <v>373</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>294</v>
+        <v>374</v>
       </c>
       <c r="F121" s="6" t="n">
-        <v>-1071.7015</v>
+        <v>-484.4848</v>
       </c>
       <c r="G121" s="6" t="n">
-        <v>-1071.676</v>
+        <v>-484.46511</v>
       </c>
       <c r="H121" s="6" t="n">
-        <v>0.0254459</v>
+        <v>0.0196846</v>
       </c>
       <c r="I121" s="6" t="n">
-        <v>66.8082105</v>
+        <v>51.6819173</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="5" t="s">
-        <v>290</v>
+        <v>336</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C122" s="24" t="s">
-        <v>348</v>
-      </c>
-      <c r="D122" s="10" t="s">
-        <v>344</v>
+        <v>375</v>
+      </c>
+      <c r="C122" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>377</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>294</v>
+        <v>378</v>
       </c>
       <c r="F122" s="6" t="n">
-        <v>-608.32444</v>
+        <v>-563.11067</v>
       </c>
       <c r="G122" s="6" t="n">
-        <v>-608.30698</v>
+        <v>-563.09164</v>
       </c>
       <c r="H122" s="6" t="n">
-        <v>0.017457</v>
+        <v>0.01903</v>
       </c>
       <c r="I122" s="6" t="n">
-        <v>45.8333535</v>
+        <v>49.963265</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="5" t="s">
-        <v>290</v>
+        <v>336</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="C123" s="24" t="s">
-        <v>350</v>
-      </c>
-      <c r="D123" s="10" t="s">
-        <v>297</v>
+        <v>379</v>
+      </c>
+      <c r="C123" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>377</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>294</v>
+        <v>381</v>
       </c>
       <c r="F123" s="6" t="n">
-        <v>-609.56988</v>
+        <v>-563.11174</v>
       </c>
       <c r="G123" s="6" t="n">
-        <v>-609.55539</v>
+        <v>-563.09064</v>
       </c>
       <c r="H123" s="6" t="n">
-        <v>0.014488</v>
+        <v>0.0210913</v>
       </c>
       <c r="I123" s="6" t="n">
-        <v>38.038244</v>
+        <v>55.3752082</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="5" t="s">
-        <v>290</v>
+        <v>336</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="C124" s="24" t="s">
-        <v>352</v>
-      </c>
-      <c r="D124" s="10" t="s">
-        <v>344</v>
+        <v>382</v>
+      </c>
+      <c r="C124" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>384</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>294</v>
+        <v>385</v>
       </c>
       <c r="F124" s="6" t="n">
-        <v>-1102.5202</v>
+        <v>-563.11228</v>
       </c>
       <c r="G124" s="6" t="n">
-        <v>-1102.4946</v>
+        <v>-563.08741</v>
       </c>
       <c r="H124" s="6" t="n">
-        <v>0.025649</v>
+        <v>0.024873</v>
       </c>
       <c r="I124" s="6" t="n">
-        <v>67.3414495</v>
+        <v>65.3040615</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="5" t="s">
-        <v>290</v>
+        <v>336</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="C125" s="24" t="s">
-        <v>354</v>
-      </c>
-      <c r="D125" s="10" t="s">
-        <v>321</v>
+        <v>386</v>
+      </c>
+      <c r="C125" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>343</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>294</v>
+        <v>388</v>
       </c>
       <c r="F125" s="6" t="n">
-        <v>-1103.7638</v>
+        <v>-563.11208</v>
       </c>
       <c r="G125" s="6" t="n">
-        <v>-1103.7473</v>
+        <v>-563.08814</v>
       </c>
       <c r="H125" s="6" t="n">
-        <v>0.0164966</v>
+        <v>0.0239387</v>
       </c>
       <c r="I125" s="6" t="n">
-        <v>43.3118233</v>
+        <v>62.8510569</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="5" t="s">
-        <v>290</v>
+        <v>336</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="C126" s="24" t="s">
-        <v>356</v>
-      </c>
-      <c r="D126" s="10" t="s">
-        <v>344</v>
+        <v>389</v>
+      </c>
+      <c r="C126" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>339</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>294</v>
+        <v>391</v>
       </c>
       <c r="F126" s="6" t="n">
-        <v>-1064.0592</v>
+        <v>-504.33269</v>
       </c>
       <c r="G126" s="6" t="n">
-        <v>-1064.0416</v>
+        <v>-504.32936</v>
       </c>
       <c r="H126" s="6" t="n">
-        <v>0.017676</v>
+        <v>0.0033327</v>
       </c>
       <c r="I126" s="6" t="n">
-        <v>46.408338</v>
+        <v>8.75000385</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="5" t="s">
-        <v>290</v>
+        <v>336</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="C127" s="24" t="s">
-        <v>358</v>
-      </c>
-      <c r="D127" s="10" t="s">
-        <v>297</v>
+        <v>392</v>
+      </c>
+      <c r="C127" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>343</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>294</v>
+        <v>394</v>
       </c>
       <c r="F127" s="6" t="n">
-        <v>-1065.3046</v>
+        <v>-504.33067</v>
       </c>
       <c r="G127" s="6" t="n">
-        <v>-1065.2931</v>
+        <v>-504.32826</v>
       </c>
       <c r="H127" s="6" t="n">
-        <v>0.0115052</v>
+        <v>0.002408</v>
       </c>
       <c r="I127" s="6" t="n">
-        <v>30.2069026</v>
+        <v>6.322204</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="5" t="s">
-        <v>290</v>
+        <v>336</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="C128" s="24" t="s">
-        <v>360</v>
-      </c>
-      <c r="D128" s="10" t="s">
-        <v>344</v>
+        <v>395</v>
+      </c>
+      <c r="C128" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>339</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>294</v>
+        <v>397</v>
       </c>
       <c r="F128" s="6" t="n">
-        <v>-1282.3807</v>
+        <v>-504.33104</v>
       </c>
       <c r="G128" s="6" t="n">
-        <v>-1282.3639</v>
+        <v>-504.32393</v>
       </c>
       <c r="H128" s="6" t="n">
-        <v>0.0168241</v>
+        <v>0.0071111</v>
       </c>
       <c r="I128" s="6" t="n">
-        <v>44.1716746</v>
+        <v>18.6701931</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="5" t="s">
-        <v>290</v>
+        <v>336</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="C129" s="24" t="s">
-        <v>362</v>
-      </c>
-      <c r="D129" s="10" t="s">
-        <v>297</v>
+        <v>398</v>
+      </c>
+      <c r="C129" s="17" t="s">
+        <v>399</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>400</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>294</v>
+        <v>401</v>
       </c>
       <c r="F129" s="6" t="n">
-        <v>-1283.6266</v>
+        <v>-504.3301</v>
       </c>
       <c r="G129" s="6" t="n">
-        <v>-1283.6156</v>
+        <v>-504.32257</v>
       </c>
       <c r="H129" s="6" t="n">
-        <v>0.0109549</v>
+        <v>0.0075367</v>
       </c>
       <c r="I129" s="6" t="n">
-        <v>28.76209</v>
+        <v>19.7876059</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="5" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="C130" s="23" t="s">
-        <v>365</v>
-      </c>
-      <c r="D130" s="10" t="s">
-        <v>366</v>
+        <v>403</v>
+      </c>
+      <c r="C130" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>405</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>367</v>
+        <v>406</v>
       </c>
       <c r="F130" s="6" t="n">
-        <v>-425.33674</v>
+        <v>-384.74657</v>
       </c>
       <c r="G130" s="6" t="n">
-        <v>-425.30439</v>
+        <v>-384.71912</v>
       </c>
       <c r="H130" s="6" t="n">
-        <v>0.0323455</v>
+        <v>0.0274519</v>
       </c>
       <c r="I130" s="6" t="n">
-        <v>84.9231103</v>
+        <v>72.0749635</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="5" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="C131" s="23" t="s">
-        <v>369</v>
-      </c>
-      <c r="D131" s="10" t="s">
-        <v>370</v>
+        <v>407</v>
+      </c>
+      <c r="C131" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>409</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>371</v>
+        <v>410</v>
       </c>
       <c r="F131" s="6" t="n">
-        <v>-425.3375</v>
+        <v>-424.09556</v>
       </c>
       <c r="G131" s="6" t="n">
-        <v>-425.30556</v>
+        <v>-424.06524</v>
       </c>
       <c r="H131" s="6" t="n">
-        <v>0.0319414</v>
+        <v>0.0303155</v>
       </c>
       <c r="I131" s="6" t="n">
-        <v>83.8621457</v>
+        <v>79.5933453</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="5" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="C132" s="23" t="s">
-        <v>373</v>
-      </c>
-      <c r="D132" s="10" t="s">
-        <v>374</v>
+        <v>411</v>
+      </c>
+      <c r="C132" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="F132" s="6" t="n">
-        <v>-425.33787</v>
+        <v>-463.453</v>
       </c>
       <c r="G132" s="6" t="n">
-        <v>-425.30121</v>
+        <v>-463.41623</v>
       </c>
       <c r="H132" s="6" t="n">
-        <v>0.0366614</v>
+        <v>0.0367686</v>
       </c>
       <c r="I132" s="6" t="n">
-        <v>96.2545057</v>
+        <v>96.5359593</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="5" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="C133" s="23" t="s">
-        <v>377</v>
-      </c>
-      <c r="D133" s="10" t="s">
-        <v>378</v>
+        <v>415</v>
+      </c>
+      <c r="C133" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>417</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>379</v>
+        <v>418</v>
       </c>
       <c r="F133" s="6" t="n">
-        <v>-425.34019</v>
+        <v>-502.76999</v>
       </c>
       <c r="G133" s="6" t="n">
-        <v>-425.30195</v>
+        <v>-502.73014</v>
       </c>
       <c r="H133" s="6" t="n">
-        <v>0.0382318</v>
+        <v>0.0398475</v>
       </c>
       <c r="I133" s="6" t="n">
-        <v>100.377591</v>
+        <v>104.619611</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="5" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="C134" s="23" t="s">
-        <v>381</v>
-      </c>
-      <c r="D134" s="10" t="s">
-        <v>382</v>
+        <v>419</v>
+      </c>
+      <c r="C134" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>421</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>383</v>
+        <v>422</v>
       </c>
       <c r="F134" s="6" t="n">
-        <v>-503.97624</v>
+        <v>-464.65994</v>
       </c>
       <c r="G134" s="6" t="n">
-        <v>-503.94172</v>
+        <v>-464.6221</v>
       </c>
       <c r="H134" s="6" t="n">
-        <v>0.0345238</v>
+        <v>0.0378468</v>
       </c>
       <c r="I134" s="6" t="n">
-        <v>90.6422369</v>
+        <v>99.3667734</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="5" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="C135" s="23" t="s">
-        <v>385</v>
-      </c>
-      <c r="D135" s="10" t="s">
-        <v>386</v>
+        <v>423</v>
+      </c>
+      <c r="C135" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>425</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>387</v>
+        <v>426</v>
       </c>
       <c r="F135" s="6" t="n">
-        <v>-503.97752</v>
+        <v>-384.74848</v>
       </c>
       <c r="G135" s="6" t="n">
-        <v>-503.94317</v>
+        <v>-384.72338</v>
       </c>
       <c r="H135" s="6" t="n">
-        <v>0.0343559</v>
+        <v>0.025101</v>
       </c>
       <c r="I135" s="6" t="n">
-        <v>90.2014155</v>
+        <v>65.9026755</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="5" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="C136" s="23" t="s">
-        <v>389</v>
-      </c>
-      <c r="D136" s="10" t="s">
-        <v>382</v>
+        <v>427</v>
+      </c>
+      <c r="C136" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>429</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>390</v>
+        <v>430</v>
       </c>
       <c r="F136" s="6" t="n">
-        <v>-503.97452</v>
+        <v>-424.09676</v>
       </c>
       <c r="G136" s="6" t="n">
-        <v>-503.93653</v>
+        <v>-424.06419</v>
       </c>
       <c r="H136" s="6" t="n">
-        <v>0.0379973</v>
+        <v>0.0325776</v>
       </c>
       <c r="I136" s="6" t="n">
-        <v>99.7619112</v>
+        <v>85.5324888</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="5" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="C137" s="23" t="s">
-        <v>392</v>
-      </c>
-      <c r="D137" s="10" t="s">
-        <v>386</v>
+        <v>431</v>
+      </c>
+      <c r="C137" s="16" t="s">
+        <v>432</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>433</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="F137" s="6" t="n">
-        <v>-503.97596</v>
+        <v>-463.45277</v>
       </c>
       <c r="G137" s="6" t="n">
-        <v>-503.9349</v>
+        <v>-463.41424</v>
       </c>
       <c r="H137" s="6" t="n">
-        <v>0.0410542</v>
+        <v>0.0385303</v>
       </c>
       <c r="I137" s="6" t="n">
-        <v>107.787802</v>
+        <v>101.161303</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="5" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="C138" s="23" t="s">
-        <v>395</v>
+        <v>435</v>
+      </c>
+      <c r="C138" s="16" t="s">
+        <v>436</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>396</v>
+        <v>437</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>397</v>
+        <v>438</v>
       </c>
       <c r="F138" s="6" t="n">
-        <v>-484.48482</v>
+        <v>-502.76948</v>
       </c>
       <c r="G138" s="6" t="n">
-        <v>-484.46449</v>
+        <v>-502.72853</v>
       </c>
       <c r="H138" s="6" t="n">
-        <v>0.0203313</v>
+        <v>0.0409509</v>
       </c>
       <c r="I138" s="6" t="n">
-        <v>53.3798282</v>
+        <v>107.516588</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="5" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="C139" s="23" t="s">
-        <v>399</v>
+        <v>439</v>
+      </c>
+      <c r="C139" s="16" t="s">
+        <v>440</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>400</v>
+        <v>441</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>401</v>
+        <v>442</v>
       </c>
       <c r="F139" s="6" t="n">
-        <v>-484.4848</v>
+        <v>-464.66165</v>
       </c>
       <c r="G139" s="6" t="n">
-        <v>-484.46511</v>
+        <v>-464.62054</v>
       </c>
       <c r="H139" s="6" t="n">
-        <v>0.0196846</v>
+        <v>0.0411107</v>
       </c>
       <c r="I139" s="6" t="n">
-        <v>51.6819173</v>
+        <v>107.936143</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="B140" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="C140" s="23" t="s">
-        <v>403</v>
+      <c r="A140" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B140" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>444</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="E140" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="F140" s="6" t="n">
-        <v>-563.11067</v>
-      </c>
-      <c r="G140" s="6" t="n">
-        <v>-563.09164</v>
-      </c>
-      <c r="H140" s="6" t="n">
-        <v>0.01903</v>
-      </c>
-      <c r="I140" s="6" t="n">
-        <v>49.963265</v>
+        <v>445</v>
+      </c>
+      <c r="E140" s="19" t="s">
+        <v>446</v>
+      </c>
+      <c r="F140" s="18" t="n">
+        <v>-596.4089501</v>
+      </c>
+      <c r="G140" s="18" t="n">
+        <v>-596.3894152</v>
+      </c>
+      <c r="H140" s="18" t="n">
+        <v>0.0195349</v>
+      </c>
+      <c r="I140" s="18" t="n">
+        <v>51.28887995</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="B141" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="C141" s="23" t="s">
-        <v>407</v>
+      <c r="A141" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B141" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>447</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="E141" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="F141" s="6" t="n">
-        <v>-563.11174</v>
-      </c>
-      <c r="G141" s="6" t="n">
-        <v>-563.09064</v>
-      </c>
-      <c r="H141" s="6" t="n">
-        <v>0.0210913</v>
-      </c>
-      <c r="I141" s="6" t="n">
-        <v>55.3752082</v>
+        <v>448</v>
+      </c>
+      <c r="E141" s="19" t="s">
+        <v>449</v>
+      </c>
+      <c r="F141" s="18" t="n">
+        <v>-712.1371869</v>
+      </c>
+      <c r="G141" s="18" t="n">
+        <v>-712.1253972</v>
+      </c>
+      <c r="H141" s="18" t="n">
+        <v>0.0117897</v>
+      </c>
+      <c r="I141" s="18" t="n">
+        <v>30.95385735</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="B142" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="C142" s="23" t="s">
-        <v>410</v>
+      <c r="A142" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B142" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>450</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="E142" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="F142" s="6" t="n">
-        <v>-563.11228</v>
-      </c>
-      <c r="G142" s="6" t="n">
-        <v>-563.08741</v>
-      </c>
-      <c r="H142" s="6" t="n">
-        <v>0.024873</v>
-      </c>
-      <c r="I142" s="6" t="n">
-        <v>65.3040615</v>
+        <v>451</v>
+      </c>
+      <c r="E142" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="F142" s="18" t="n">
+        <v>-827.870838</v>
+      </c>
+      <c r="G142" s="18" t="n">
+        <v>-827.8635619</v>
+      </c>
+      <c r="H142" s="18" t="n">
+        <v>0.0072761</v>
+      </c>
+      <c r="I142" s="18" t="n">
+        <v>19.10340055</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="B143" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="C143" s="23" t="s">
-        <v>414</v>
+      <c r="A143" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B143" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>453</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="E143" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="F143" s="6" t="n">
-        <v>-563.11208</v>
-      </c>
-      <c r="G143" s="6" t="n">
-        <v>-563.08814</v>
-      </c>
-      <c r="H143" s="6" t="n">
-        <v>0.0239387</v>
-      </c>
-      <c r="I143" s="6" t="n">
-        <v>62.8510569</v>
+        <v>454</v>
+      </c>
+      <c r="E143" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="F143" s="18" t="n">
+        <v>-827.8651625</v>
+      </c>
+      <c r="G143" s="18" t="n">
+        <v>-827.8608862</v>
+      </c>
+      <c r="H143" s="18" t="n">
+        <v>0.0042763</v>
+      </c>
+      <c r="I143" s="18" t="n">
+        <v>11.22742565</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="B144" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="C144" s="23" t="s">
-        <v>417</v>
+      <c r="A144" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B144" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>456</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="E144" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="F144" s="6" t="n">
-        <v>-504.33269</v>
-      </c>
-      <c r="G144" s="6" t="n">
-        <v>-504.32936</v>
-      </c>
-      <c r="H144" s="6" t="n">
-        <v>0.0033327</v>
-      </c>
-      <c r="I144" s="6" t="n">
-        <v>8.75000385</v>
+        <v>457</v>
+      </c>
+      <c r="E144" s="19" t="s">
+        <v>458</v>
+      </c>
+      <c r="F144" s="18" t="n">
+        <v>-905.2963585</v>
+      </c>
+      <c r="G144" s="18" t="n">
+        <v>-905.2879209</v>
+      </c>
+      <c r="H144" s="18" t="n">
+        <v>0.0084376</v>
+      </c>
+      <c r="I144" s="18" t="n">
+        <v>22.1529188</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="B145" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="C145" s="23" t="s">
-        <v>420</v>
+      <c r="A145" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B145" s="18" t="n">
+        <v>6</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>459</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="E145" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="F145" s="6" t="n">
-        <v>-504.33067</v>
-      </c>
-      <c r="G145" s="6" t="n">
-        <v>-504.32826</v>
-      </c>
-      <c r="H145" s="6" t="n">
-        <v>0.002408</v>
-      </c>
-      <c r="I145" s="6" t="n">
-        <v>6.322204</v>
+        <v>460</v>
+      </c>
+      <c r="E145" s="19" t="s">
+        <v>461</v>
+      </c>
+      <c r="F145" s="18" t="n">
+        <v>-1001.491457</v>
+      </c>
+      <c r="G145" s="18" t="n">
+        <v>-1001.460442</v>
+      </c>
+      <c r="H145" s="18" t="n">
+        <v>0.0310157</v>
+      </c>
+      <c r="I145" s="18" t="n">
+        <v>81.43172035</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="B146" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="C146" s="23" t="s">
-        <v>423</v>
+      <c r="A146" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B146" s="18" t="n">
+        <v>7</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>462</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="E146" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="F146" s="6" t="n">
-        <v>-504.33104</v>
-      </c>
-      <c r="G146" s="6" t="n">
-        <v>-504.32393</v>
-      </c>
-      <c r="H146" s="6" t="n">
-        <v>0.0071111</v>
-      </c>
-      <c r="I146" s="6" t="n">
-        <v>18.6701931</v>
+        <v>463</v>
+      </c>
+      <c r="E146" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="F146" s="18" t="n">
+        <v>-1232.949869</v>
+      </c>
+      <c r="G146" s="18" t="n">
+        <v>-1232.941922</v>
+      </c>
+      <c r="H146" s="18" t="n">
+        <v>0.007947</v>
+      </c>
+      <c r="I146" s="18" t="n">
+        <v>20.8648485</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="B147" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="C147" s="24" t="s">
-        <v>426</v>
+      <c r="A147" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B147" s="18" t="n">
+        <v>8</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>465</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="E147" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="F147" s="6" t="n">
-        <v>-504.3301</v>
-      </c>
-      <c r="G147" s="6" t="n">
-        <v>-504.32257</v>
-      </c>
-      <c r="H147" s="6" t="n">
-        <v>0.0075367</v>
-      </c>
-      <c r="I147" s="6" t="n">
-        <v>19.7876059</v>
+        <v>466</v>
+      </c>
+      <c r="E147" s="19" t="s">
+        <v>467</v>
+      </c>
+      <c r="F147" s="18" t="n">
+        <v>-1310.381329</v>
+      </c>
+      <c r="G147" s="18" t="n">
+        <v>-1310.362778</v>
+      </c>
+      <c r="H147" s="18" t="n">
+        <v>0.0185513</v>
+      </c>
+      <c r="I147" s="18" t="n">
+        <v>48.70643815</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="B148" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="C148" s="23" t="s">
-        <v>431</v>
+      <c r="A148" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B148" s="18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>468</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="E148" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="F148" s="6" t="n">
-        <v>-384.74657</v>
-      </c>
-      <c r="G148" s="6" t="n">
-        <v>-384.71912</v>
-      </c>
-      <c r="H148" s="6" t="n">
-        <v>0.0274519</v>
-      </c>
-      <c r="I148" s="6" t="n">
-        <v>72.0749635</v>
+        <v>469</v>
+      </c>
+      <c r="E148" s="19" t="s">
+        <v>470</v>
+      </c>
+      <c r="F148" s="18" t="n">
+        <v>-1117.219744</v>
+      </c>
+      <c r="G148" s="18" t="n">
+        <v>-1117.20139</v>
+      </c>
+      <c r="H148" s="18" t="n">
+        <v>0.0183538</v>
+      </c>
+      <c r="I148" s="18" t="n">
+        <v>48.1879019</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="B149" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="C149" s="23" t="s">
-        <v>435</v>
+      <c r="A149" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B149" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>471</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="E149" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="F149" s="6" t="n">
-        <v>-424.09556</v>
-      </c>
-      <c r="G149" s="6" t="n">
-        <v>-424.06524</v>
-      </c>
-      <c r="H149" s="6" t="n">
-        <v>0.0303155</v>
-      </c>
-      <c r="I149" s="6" t="n">
-        <v>79.5933453</v>
+        <v>472</v>
+      </c>
+      <c r="E149" s="19" t="s">
+        <v>473</v>
+      </c>
+      <c r="F149" s="18" t="n">
+        <v>-1232.952094</v>
+      </c>
+      <c r="G149" s="18" t="n">
+        <v>-1232.937861</v>
+      </c>
+      <c r="H149" s="18" t="n">
+        <v>0.0142336</v>
+      </c>
+      <c r="I149" s="18" t="n">
+        <v>37.3703168</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="B150" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="C150" s="23" t="s">
-        <v>439</v>
+      <c r="A150" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B150" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>475</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="E150" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="F150" s="6" t="n">
-        <v>-463.453</v>
-      </c>
-      <c r="G150" s="6" t="n">
-        <v>-463.41623</v>
-      </c>
-      <c r="H150" s="6" t="n">
-        <v>0.0367686</v>
-      </c>
-      <c r="I150" s="6" t="n">
-        <v>96.5359593</v>
+        <v>476</v>
+      </c>
+      <c r="E150" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="F150" s="18" t="n">
+        <v>-364.9355985</v>
+      </c>
+      <c r="G150" s="18" t="n">
+        <v>-364.9064263</v>
+      </c>
+      <c r="H150" s="18" t="n">
+        <v>0.0291722</v>
+      </c>
+      <c r="I150" s="18" t="n">
+        <v>76.5916111</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="B151" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="C151" s="23" t="s">
-        <v>443</v>
+      <c r="A151" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B151" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>478</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="E151" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="F151" s="6" t="n">
-        <v>-502.76999</v>
-      </c>
-      <c r="G151" s="6" t="n">
-        <v>-502.73014</v>
-      </c>
-      <c r="H151" s="6" t="n">
-        <v>0.0398475</v>
-      </c>
-      <c r="I151" s="6" t="n">
-        <v>104.619611</v>
+        <v>476</v>
+      </c>
+      <c r="E151" s="19" t="s">
+        <v>479</v>
+      </c>
+      <c r="F151" s="18" t="n">
+        <v>-457.1715</v>
+      </c>
+      <c r="G151" s="18" t="n">
+        <v>-457.144764</v>
+      </c>
+      <c r="H151" s="18" t="n">
+        <v>0.026736</v>
+      </c>
+      <c r="I151" s="18" t="n">
+        <v>70.195368</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="B152" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="C152" s="23" t="s">
-        <v>447</v>
+      <c r="A152" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B152" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>480</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="E152" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="F152" s="6" t="n">
-        <v>-464.65994</v>
-      </c>
-      <c r="G152" s="6" t="n">
-        <v>-464.6221</v>
-      </c>
-      <c r="H152" s="6" t="n">
-        <v>0.0378468</v>
-      </c>
-      <c r="I152" s="6" t="n">
-        <v>99.3667734</v>
+        <v>476</v>
+      </c>
+      <c r="E152" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="F152" s="18" t="n">
+        <v>-457.1753715</v>
+      </c>
+      <c r="G152" s="18" t="n">
+        <v>-457.1475759</v>
+      </c>
+      <c r="H152" s="18" t="n">
+        <v>0.0277956</v>
+      </c>
+      <c r="I152" s="18" t="n">
+        <v>72.9773478</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="B153" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="C153" s="23" t="s">
-        <v>451</v>
+      <c r="A153" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B153" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>482</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="E153" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="F153" s="6" t="n">
-        <v>-384.74848</v>
-      </c>
-      <c r="G153" s="6" t="n">
-        <v>-384.72338</v>
-      </c>
-      <c r="H153" s="6" t="n">
-        <v>0.025101</v>
-      </c>
-      <c r="I153" s="6" t="n">
-        <v>65.9026755</v>
+        <v>476</v>
+      </c>
+      <c r="E153" s="19" t="s">
+        <v>483</v>
+      </c>
+      <c r="F153" s="18" t="n">
+        <v>-457.1670223</v>
+      </c>
+      <c r="G153" s="18" t="n">
+        <v>-457.1489577</v>
+      </c>
+      <c r="H153" s="18" t="n">
+        <v>0.0180646</v>
+      </c>
+      <c r="I153" s="18" t="n">
+        <v>47.4286073</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="B154" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="C154" s="23" t="s">
-        <v>455</v>
+      <c r="A154" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B154" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>484</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="E154" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="F154" s="6" t="n">
-        <v>-424.09676</v>
-      </c>
-      <c r="G154" s="6" t="n">
-        <v>-424.06419</v>
-      </c>
-      <c r="H154" s="6" t="n">
-        <v>0.0325776</v>
-      </c>
-      <c r="I154" s="6" t="n">
-        <v>85.5324888</v>
+        <v>476</v>
+      </c>
+      <c r="E154" s="19" t="s">
+        <v>485</v>
+      </c>
+      <c r="F154" s="18" t="n">
+        <v>-549.4013727</v>
+      </c>
+      <c r="G154" s="18" t="n">
+        <v>-549.3801895</v>
+      </c>
+      <c r="H154" s="18" t="n">
+        <v>0.0211832</v>
+      </c>
+      <c r="I154" s="18" t="n">
+        <v>55.6164916</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="B155" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="C155" s="23" t="s">
-        <v>459</v>
+      <c r="A155" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B155" s="18" t="n">
+        <v>6</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>486</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="E155" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="F155" s="6" t="n">
-        <v>-463.45277</v>
-      </c>
-      <c r="G155" s="6" t="n">
-        <v>-463.41424</v>
-      </c>
-      <c r="H155" s="6" t="n">
-        <v>0.0385303</v>
-      </c>
-      <c r="I155" s="6" t="n">
-        <v>101.161303</v>
+        <v>476</v>
+      </c>
+      <c r="E155" s="19" t="s">
+        <v>487</v>
+      </c>
+      <c r="F155" s="18" t="n">
+        <v>-641.6267163</v>
+      </c>
+      <c r="G155" s="18" t="n">
+        <v>-641.6026965</v>
+      </c>
+      <c r="H155" s="18" t="n">
+        <v>0.0240198</v>
+      </c>
+      <c r="I155" s="18" t="n">
+        <v>63.0639849</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="B156" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="C156" s="23" t="s">
-        <v>463</v>
+      <c r="A156" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B156" s="18" t="n">
+        <v>7</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>488</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="E156" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="F156" s="6" t="n">
-        <v>-502.76948</v>
-      </c>
-      <c r="G156" s="6" t="n">
-        <v>-502.72853</v>
-      </c>
-      <c r="H156" s="6" t="n">
-        <v>0.0409509</v>
-      </c>
-      <c r="I156" s="6" t="n">
-        <v>107.516588</v>
+        <v>489</v>
+      </c>
+      <c r="E156" s="19" t="s">
+        <v>490</v>
+      </c>
+      <c r="F156" s="18" t="n">
+        <v>-788.9882082</v>
+      </c>
+      <c r="G156" s="18" t="n">
+        <v>-788.9532404</v>
+      </c>
+      <c r="H156" s="18" t="n">
+        <v>0.0349678</v>
+      </c>
+      <c r="I156" s="18" t="n">
+        <v>91.8079589</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="B157" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="C157" s="23" t="s">
-        <v>467</v>
+      <c r="A157" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B157" s="18" t="n">
+        <v>8</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="E157" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="F157" s="6" t="n">
-        <v>-464.66165</v>
-      </c>
-      <c r="G157" s="6" t="n">
-        <v>-464.62054</v>
-      </c>
-      <c r="H157" s="6" t="n">
-        <v>0.0411107</v>
-      </c>
-      <c r="I157" s="6" t="n">
-        <v>107.936143</v>
+        <v>492</v>
+      </c>
+      <c r="E157" s="19" t="s">
+        <v>493</v>
+      </c>
+      <c r="F157" s="18" t="n">
+        <v>-1065.683081</v>
+      </c>
+      <c r="G157" s="18" t="n">
+        <v>-1065.652115</v>
+      </c>
+      <c r="H157" s="18" t="n">
+        <v>0.0309652</v>
+      </c>
+      <c r="I157" s="18" t="n">
+        <v>81.2991326</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="B158" s="25" t="n">
+        <v>494</v>
+      </c>
+      <c r="B158" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="C158" s="4" t="s">
-        <v>471</v>
+      <c r="C158" s="20" t="s">
+        <v>495</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="E158" s="26" t="s">
-        <v>473</v>
-      </c>
-      <c r="F158" s="25" t="n">
-        <v>-596.4089501</v>
-      </c>
-      <c r="G158" s="25" t="n">
-        <v>-596.3894152</v>
-      </c>
-      <c r="H158" s="25" t="n">
-        <v>0.0195349</v>
-      </c>
-      <c r="I158" s="25" t="n">
-        <v>51.28887995</v>
+        <v>496</v>
+      </c>
+      <c r="E158" s="19" t="s">
+        <v>497</v>
+      </c>
+      <c r="F158" s="18" t="n">
+        <v>-673.7816607</v>
+      </c>
+      <c r="G158" s="18" t="n">
+        <v>-673.7430194</v>
+      </c>
+      <c r="H158" s="18" t="n">
+        <v>0.038641</v>
+      </c>
+      <c r="I158" s="18" t="n">
+        <v>101.4527331</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="B159" s="25" t="n">
+        <v>494</v>
+      </c>
+      <c r="B159" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="C159" s="4" t="s">
-        <v>474</v>
+      <c r="C159" s="20" t="s">
+        <v>498</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="E159" s="26" t="s">
-        <v>476</v>
-      </c>
-      <c r="F159" s="25" t="n">
-        <v>-712.1371869</v>
-      </c>
-      <c r="G159" s="25" t="n">
-        <v>-712.1253972</v>
-      </c>
-      <c r="H159" s="25" t="n">
-        <v>0.0117897</v>
-      </c>
-      <c r="I159" s="25" t="n">
-        <v>30.95385735</v>
+        <v>499</v>
+      </c>
+      <c r="E159" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="F159" s="18" t="n">
+        <v>-673.7800059</v>
+      </c>
+      <c r="G159" s="18" t="n">
+        <v>-673.7405978</v>
+      </c>
+      <c r="H159" s="18" t="n">
+        <v>0.039408</v>
+      </c>
+      <c r="I159" s="18" t="n">
+        <v>103.4659665</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="B160" s="25" t="n">
+        <v>494</v>
+      </c>
+      <c r="B160" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="C160" s="4" t="s">
-        <v>477</v>
+      <c r="C160" s="20" t="s">
+        <v>501</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="E160" s="26" t="s">
-        <v>479</v>
-      </c>
-      <c r="F160" s="25" t="n">
-        <v>-827.870838</v>
-      </c>
-      <c r="G160" s="25" t="n">
-        <v>-827.8635619</v>
-      </c>
-      <c r="H160" s="25" t="n">
-        <v>0.0072761</v>
-      </c>
-      <c r="I160" s="25" t="n">
-        <v>19.10340055</v>
+        <v>502</v>
+      </c>
+      <c r="E160" s="19" t="s">
+        <v>503</v>
+      </c>
+      <c r="F160" s="18" t="n">
+        <v>-673.7857393</v>
+      </c>
+      <c r="G160" s="18" t="n">
+        <v>-673.7419379</v>
+      </c>
+      <c r="H160" s="18" t="n">
+        <v>0.043801</v>
+      </c>
+      <c r="I160" s="18" t="n">
+        <v>115.0005757</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="B161" s="25" t="n">
+        <v>494</v>
+      </c>
+      <c r="B161" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="C161" s="4" t="s">
-        <v>480</v>
+      <c r="C161" s="20" t="s">
+        <v>504</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="E161" s="26" t="s">
-        <v>482</v>
-      </c>
-      <c r="F161" s="25" t="n">
-        <v>-827.8651625</v>
-      </c>
-      <c r="G161" s="25" t="n">
-        <v>-827.8608862</v>
-      </c>
-      <c r="H161" s="25" t="n">
-        <v>0.0042763</v>
-      </c>
-      <c r="I161" s="25" t="n">
-        <v>11.22742565</v>
+        <v>505</v>
+      </c>
+      <c r="E161" s="19" t="s">
+        <v>506</v>
+      </c>
+      <c r="F161" s="18" t="n">
+        <v>-673.781565</v>
+      </c>
+      <c r="G161" s="18" t="n">
+        <v>-673.7445007</v>
+      </c>
+      <c r="H161" s="18" t="n">
+        <v>0.037064</v>
+      </c>
+      <c r="I161" s="18" t="n">
+        <v>97.31231965</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="B162" s="25" t="n">
-        <v>5</v>
-      </c>
-      <c r="C162" s="4" t="s">
-        <v>483</v>
+        <v>494</v>
+      </c>
+      <c r="B162" s="18" t="n">
+        <v>8</v>
+      </c>
+      <c r="C162" s="20" t="s">
+        <v>507</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="E162" s="26" t="s">
-        <v>485</v>
-      </c>
-      <c r="F162" s="25" t="n">
-        <v>-905.2963585</v>
-      </c>
-      <c r="G162" s="25" t="n">
-        <v>-905.2879209</v>
-      </c>
-      <c r="H162" s="25" t="n">
-        <v>0.0084376</v>
-      </c>
-      <c r="I162" s="25" t="n">
-        <v>22.1529188</v>
+        <v>508</v>
+      </c>
+      <c r="E162" s="19" t="s">
+        <v>509</v>
+      </c>
+      <c r="F162" s="18" t="n">
+        <v>-634.4632492</v>
+      </c>
+      <c r="G162" s="18" t="n">
+        <v>-634.4256912</v>
+      </c>
+      <c r="H162" s="18" t="n">
+        <v>0.037558</v>
+      </c>
+      <c r="I162" s="18" t="n">
+        <v>98.608529</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="B163" s="25" t="n">
-        <v>6</v>
-      </c>
-      <c r="C163" s="4" t="s">
-        <v>486</v>
+        <v>494</v>
+      </c>
+      <c r="B163" s="18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C163" s="20" t="s">
+        <v>510</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="E163" s="26" t="s">
-        <v>488</v>
-      </c>
-      <c r="F163" s="25" t="n">
-        <v>-1001.491457</v>
-      </c>
-      <c r="G163" s="25" t="n">
-        <v>-1001.460442</v>
-      </c>
-      <c r="H163" s="25" t="n">
-        <v>0.0310157</v>
-      </c>
-      <c r="I163" s="25" t="n">
-        <v>81.43172035</v>
+        <v>511</v>
+      </c>
+      <c r="E163" s="19" t="s">
+        <v>512</v>
+      </c>
+      <c r="F163" s="18" t="n">
+        <v>-634.4648474</v>
+      </c>
+      <c r="G163" s="18" t="n">
+        <v>-634.4269137</v>
+      </c>
+      <c r="H163" s="18" t="n">
+        <v>0.037934</v>
+      </c>
+      <c r="I163" s="18" t="n">
+        <v>99.59492935</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="B164" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="C164" s="4" t="s">
-        <v>489</v>
+        <v>494</v>
+      </c>
+      <c r="B164" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="C164" s="20" t="s">
+        <v>513</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="E164" s="26" t="s">
-        <v>491</v>
-      </c>
-      <c r="F164" s="25" t="n">
-        <v>-1232.949869</v>
-      </c>
-      <c r="G164" s="25" t="n">
-        <v>-1232.941922</v>
-      </c>
-      <c r="H164" s="25" t="n">
-        <v>0.007947</v>
-      </c>
-      <c r="I164" s="25" t="n">
-        <v>20.8648485</v>
+        <v>511</v>
+      </c>
+      <c r="E164" s="19" t="s">
+        <v>514</v>
+      </c>
+      <c r="F164" s="18" t="n">
+        <v>-634.4648714</v>
+      </c>
+      <c r="G164" s="18" t="n">
+        <v>-634.4269138</v>
+      </c>
+      <c r="H164" s="18" t="n">
+        <v>0.037958</v>
+      </c>
+      <c r="I164" s="18" t="n">
+        <v>99.6576788</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="B165" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="C165" s="4" t="s">
-        <v>492</v>
+        <v>494</v>
+      </c>
+      <c r="B165" s="18" t="n">
+        <v>11</v>
+      </c>
+      <c r="C165" s="20" t="s">
+        <v>515</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="E165" s="26" t="s">
-        <v>494</v>
-      </c>
-      <c r="F165" s="25" t="n">
-        <v>-1310.381329</v>
-      </c>
-      <c r="G165" s="25" t="n">
-        <v>-1310.362778</v>
-      </c>
-      <c r="H165" s="25" t="n">
-        <v>0.0185513</v>
-      </c>
-      <c r="I165" s="25" t="n">
-        <v>48.70643815</v>
+        <v>511</v>
+      </c>
+      <c r="E165" s="19" t="s">
+        <v>516</v>
+      </c>
+      <c r="F165" s="18" t="n">
+        <v>-634.4641492</v>
+      </c>
+      <c r="G165" s="18" t="n">
+        <v>-634.426527</v>
+      </c>
+      <c r="H165" s="18" t="n">
+        <v>0.037622</v>
+      </c>
+      <c r="I165" s="18" t="n">
+        <v>98.7770861</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="B166" s="25" t="n">
-        <v>9</v>
-      </c>
-      <c r="C166" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
+      </c>
+      <c r="B166" s="18" t="n">
+        <v>18</v>
+      </c>
+      <c r="C166" s="20" t="s">
+        <v>517</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="E166" s="26" t="s">
-        <v>497</v>
-      </c>
-      <c r="F166" s="25" t="n">
-        <v>-1117.219744</v>
-      </c>
-      <c r="G166" s="25" t="n">
-        <v>-1117.20139</v>
-      </c>
-      <c r="H166" s="25" t="n">
-        <v>0.0183538</v>
-      </c>
-      <c r="I166" s="25" t="n">
-        <v>48.1879019</v>
+        <v>518</v>
+      </c>
+      <c r="E166" s="19" t="s">
+        <v>519</v>
+      </c>
+      <c r="F166" s="18" t="n">
+        <v>-1126.547879</v>
+      </c>
+      <c r="G166" s="18" t="n">
+        <v>-1126.512375</v>
+      </c>
+      <c r="H166" s="18" t="n">
+        <v>0.035503</v>
+      </c>
+      <c r="I166" s="18" t="n">
+        <v>93.2141767</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="B167" s="25" t="n">
-        <v>10</v>
-      </c>
-      <c r="C167" s="4" t="s">
-        <v>498</v>
+        <v>494</v>
+      </c>
+      <c r="B167" s="18" t="n">
+        <v>19</v>
+      </c>
+      <c r="C167" s="20" t="s">
+        <v>520</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="E167" s="26" t="s">
-        <v>500</v>
-      </c>
-      <c r="F167" s="25" t="n">
-        <v>-1232.952094</v>
-      </c>
-      <c r="G167" s="25" t="n">
-        <v>-1232.937861</v>
-      </c>
-      <c r="H167" s="25" t="n">
-        <v>0.0142336</v>
-      </c>
-      <c r="I167" s="25" t="n">
-        <v>37.3703168</v>
+        <v>511</v>
+      </c>
+      <c r="E167" s="19" t="s">
+        <v>521</v>
+      </c>
+      <c r="F167" s="18" t="n">
+        <v>-1126.551396</v>
+      </c>
+      <c r="G167" s="18" t="n">
+        <v>-1126.52214</v>
+      </c>
+      <c r="H167" s="18" t="n">
+        <v>0.029256</v>
+      </c>
+      <c r="I167" s="18" t="n">
+        <v>76.81241565</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="B168" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="C168" s="4" t="s">
-        <v>502</v>
+        <v>494</v>
+      </c>
+      <c r="B168" s="18" t="n">
+        <v>20</v>
+      </c>
+      <c r="C168" s="20" t="s">
+        <v>522</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="E168" s="26" t="s">
-        <v>504</v>
-      </c>
-      <c r="F168" s="25" t="n">
-        <v>-364.9355985</v>
-      </c>
-      <c r="G168" s="25" t="n">
-        <v>-364.9064263</v>
-      </c>
-      <c r="H168" s="25" t="n">
-        <v>0.0291722</v>
-      </c>
-      <c r="I168" s="25" t="n">
-        <v>76.5916111</v>
+        <v>523</v>
+      </c>
+      <c r="E168" s="19" t="s">
+        <v>524</v>
+      </c>
+      <c r="F168" s="18" t="n">
+        <v>-1126.55383</v>
+      </c>
+      <c r="G168" s="18" t="n">
+        <v>-1126.517088</v>
+      </c>
+      <c r="H168" s="18" t="n">
+        <v>0.036742</v>
+      </c>
+      <c r="I168" s="18" t="n">
+        <v>96.46638355</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="B169" s="25" t="n">
-        <v>2</v>
-      </c>
-      <c r="C169" s="4" t="s">
-        <v>505</v>
+        <v>494</v>
+      </c>
+      <c r="B169" s="18" t="n">
+        <v>22</v>
+      </c>
+      <c r="C169" s="20" t="s">
+        <v>525</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="E169" s="26" t="s">
-        <v>506</v>
-      </c>
-      <c r="F169" s="25" t="n">
-        <v>-457.1715</v>
-      </c>
-      <c r="G169" s="25" t="n">
-        <v>-457.144764</v>
-      </c>
-      <c r="H169" s="25" t="n">
-        <v>0.026736</v>
-      </c>
-      <c r="I169" s="25" t="n">
-        <v>70.195368</v>
+        <v>511</v>
+      </c>
+      <c r="E169" s="19" t="s">
+        <v>526</v>
+      </c>
+      <c r="F169" s="18" t="n">
+        <v>-1126.564284</v>
+      </c>
+      <c r="G169" s="18" t="n">
+        <v>-1126.529413</v>
+      </c>
+      <c r="H169" s="18" t="n">
+        <v>0.034871</v>
+      </c>
+      <c r="I169" s="18" t="n">
+        <v>91.5527603</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="B170" s="25" t="n">
-        <v>3</v>
-      </c>
-      <c r="C170" s="4" t="s">
-        <v>507</v>
+        <v>527</v>
+      </c>
+      <c r="B170" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C170" s="20" t="s">
+        <v>528</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="E170" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="F170" s="25" t="n">
-        <v>-457.1753715</v>
-      </c>
-      <c r="G170" s="25" t="n">
-        <v>-457.1475759</v>
-      </c>
-      <c r="H170" s="25" t="n">
-        <v>0.0277956</v>
-      </c>
-      <c r="I170" s="25" t="n">
-        <v>72.9773478</v>
+        <v>529</v>
+      </c>
+      <c r="E170" s="19" t="s">
+        <v>530</v>
+      </c>
+      <c r="F170" s="18" t="n">
+        <v>-1593.306107</v>
+      </c>
+      <c r="G170" s="18" t="n">
+        <v>-1593.29851</v>
+      </c>
+      <c r="H170" s="18" t="n">
+        <v>0.0076</v>
+      </c>
+      <c r="I170" s="18" t="n">
+        <v>19.9454</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="B171" s="25" t="n">
-        <v>4</v>
-      </c>
-      <c r="C171" s="4" t="s">
-        <v>509</v>
+        <v>527</v>
+      </c>
+      <c r="B171" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C171" s="20" t="s">
+        <v>531</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="E171" s="26" t="s">
-        <v>510</v>
-      </c>
-      <c r="F171" s="25" t="n">
-        <v>-457.1670223</v>
-      </c>
-      <c r="G171" s="25" t="n">
-        <v>-457.1489577</v>
-      </c>
-      <c r="H171" s="25" t="n">
-        <v>0.0180646</v>
-      </c>
-      <c r="I171" s="25" t="n">
-        <v>47.4286073</v>
+        <v>529</v>
+      </c>
+      <c r="E171" s="19" t="s">
+        <v>532</v>
+      </c>
+      <c r="F171" s="18" t="n">
+        <v>-1593.307901</v>
+      </c>
+      <c r="G171" s="18" t="n">
+        <v>-1593.303202</v>
+      </c>
+      <c r="H171" s="18" t="n">
+        <v>0.0047</v>
+      </c>
+      <c r="I171" s="18" t="n">
+        <v>12.3375</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="B172" s="25" t="n">
-        <v>5</v>
-      </c>
-      <c r="C172" s="4" t="s">
-        <v>511</v>
+        <v>527</v>
+      </c>
+      <c r="B172" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C172" s="20" t="s">
+        <v>533</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="E172" s="26" t="s">
-        <v>512</v>
-      </c>
-      <c r="F172" s="25" t="n">
-        <v>-549.4013727</v>
-      </c>
-      <c r="G172" s="25" t="n">
-        <v>-549.3801895</v>
-      </c>
-      <c r="H172" s="25" t="n">
-        <v>0.0211832</v>
-      </c>
-      <c r="I172" s="25" t="n">
-        <v>55.6164916</v>
+        <v>529</v>
+      </c>
+      <c r="E172" s="19" t="s">
+        <v>534</v>
+      </c>
+      <c r="F172" s="18" t="n">
+        <v>-1553.98921</v>
+      </c>
+      <c r="G172" s="18" t="n">
+        <v>-1553.985871</v>
+      </c>
+      <c r="H172" s="18" t="n">
+        <v>0.00334</v>
+      </c>
+      <c r="I172" s="18" t="n">
+        <v>8.76707</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="B173" s="25" t="n">
-        <v>6</v>
-      </c>
-      <c r="C173" s="4" t="s">
-        <v>513</v>
+        <v>527</v>
+      </c>
+      <c r="B173" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="C173" s="20" t="s">
+        <v>535</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="E173" s="26" t="s">
-        <v>514</v>
-      </c>
-      <c r="F173" s="25" t="n">
-        <v>-641.6267163</v>
-      </c>
-      <c r="G173" s="25" t="n">
-        <v>-641.6026965</v>
-      </c>
-      <c r="H173" s="25" t="n">
-        <v>0.0240198</v>
-      </c>
-      <c r="I173" s="25" t="n">
-        <v>63.0639849</v>
+        <v>529</v>
+      </c>
+      <c r="E173" s="19" t="s">
+        <v>536</v>
+      </c>
+      <c r="F173" s="18" t="n">
+        <v>-1553.989631</v>
+      </c>
+      <c r="G173" s="18" t="n">
+        <v>-1553.985906</v>
+      </c>
+      <c r="H173" s="18" t="n">
+        <v>0.00372</v>
+      </c>
+      <c r="I173" s="18" t="n">
+        <v>9.77972</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="B174" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="C174" s="4" t="s">
-        <v>515</v>
+        <v>527</v>
+      </c>
+      <c r="B174" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C174" s="20" t="s">
+        <v>537</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="E174" s="26" t="s">
-        <v>517</v>
-      </c>
-      <c r="F174" s="25" t="n">
-        <v>-788.9882082</v>
-      </c>
-      <c r="G174" s="25" t="n">
-        <v>-788.9532404</v>
-      </c>
-      <c r="H174" s="25" t="n">
-        <v>0.0349678</v>
-      </c>
-      <c r="I174" s="25" t="n">
-        <v>91.8079589</v>
+        <v>529</v>
+      </c>
+      <c r="E174" s="19" t="s">
+        <v>538</v>
+      </c>
+      <c r="F174" s="18" t="n">
+        <v>-1223.892741</v>
+      </c>
+      <c r="G174" s="18" t="n">
+        <v>-1223.883579</v>
+      </c>
+      <c r="H174" s="18" t="n">
+        <v>0.00916</v>
+      </c>
+      <c r="I174" s="18" t="n">
+        <v>24.0556</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="B175" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="C175" s="4" t="s">
-        <v>518</v>
+        <v>527</v>
+      </c>
+      <c r="B175" s="18" t="n">
+        <v>6</v>
+      </c>
+      <c r="C175" s="20" t="s">
+        <v>539</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="E175" s="26" t="s">
-        <v>520</v>
-      </c>
-      <c r="F175" s="25" t="n">
-        <v>-1065.683081</v>
-      </c>
-      <c r="G175" s="25" t="n">
-        <v>-1065.652115</v>
-      </c>
-      <c r="H175" s="25" t="n">
-        <v>0.0309652</v>
-      </c>
-      <c r="I175" s="25" t="n">
-        <v>81.2991326</v>
+        <v>529</v>
+      </c>
+      <c r="E175" s="19" t="s">
+        <v>540</v>
+      </c>
+      <c r="F175" s="18" t="n">
+        <v>-1223.892765</v>
+      </c>
+      <c r="G175" s="18" t="n">
+        <v>-1223.886819</v>
+      </c>
+      <c r="H175" s="18" t="n">
+        <v>0.00595</v>
+      </c>
+      <c r="I175" s="18" t="n">
+        <v>15.6123</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="B176" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="C176" s="27" t="s">
-        <v>522</v>
+        <v>527</v>
+      </c>
+      <c r="B176" s="18" t="n">
+        <v>7</v>
+      </c>
+      <c r="C176" s="20" t="s">
+        <v>541</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="E176" s="26" t="s">
-        <v>524</v>
-      </c>
-      <c r="F176" s="25" t="n">
-        <v>-673.7816607</v>
-      </c>
-      <c r="G176" s="25" t="n">
-        <v>-673.7430194</v>
-      </c>
-      <c r="H176" s="25" t="n">
-        <v>0.038641</v>
-      </c>
-      <c r="I176" s="25" t="n">
-        <v>101.4527331</v>
+        <v>529</v>
+      </c>
+      <c r="E176" s="19" t="s">
+        <v>542</v>
+      </c>
+      <c r="F176" s="18" t="n">
+        <v>-1271.163178</v>
+      </c>
+      <c r="G176" s="18" t="n">
+        <v>-1271.129182</v>
+      </c>
+      <c r="H176" s="18" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="I176" s="18" t="n">
+        <v>89.2573</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="B177" s="25" t="n">
-        <v>2</v>
-      </c>
-      <c r="C177" s="27" t="s">
-        <v>525</v>
+        <v>527</v>
+      </c>
+      <c r="B177" s="18" t="n">
+        <v>8</v>
+      </c>
+      <c r="C177" s="20" t="s">
+        <v>543</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="E177" s="26" t="s">
-        <v>527</v>
-      </c>
-      <c r="F177" s="25" t="n">
-        <v>-673.7800059</v>
-      </c>
-      <c r="G177" s="25" t="n">
-        <v>-673.7405978</v>
-      </c>
-      <c r="H177" s="25" t="n">
-        <v>0.039408</v>
-      </c>
-      <c r="I177" s="25" t="n">
-        <v>103.4659665</v>
+        <v>175</v>
+      </c>
+      <c r="E177" s="19" t="s">
+        <v>544</v>
+      </c>
+      <c r="F177" s="18" t="n">
+        <v>-1271.162901</v>
+      </c>
+      <c r="G177" s="18" t="n">
+        <v>-1271.130382</v>
+      </c>
+      <c r="H177" s="18" t="n">
+        <v>0.03252</v>
+      </c>
+      <c r="I177" s="18" t="n">
+        <v>85.3805</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="B178" s="25" t="n">
-        <v>3</v>
-      </c>
-      <c r="C178" s="27" t="s">
-        <v>528</v>
+        <v>527</v>
+      </c>
+      <c r="B178" s="18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C178" s="20" t="s">
+        <v>545</v>
       </c>
       <c r="D178" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="E178" s="26" t="s">
-        <v>530</v>
-      </c>
-      <c r="F178" s="25" t="n">
-        <v>-673.7857393</v>
-      </c>
-      <c r="G178" s="25" t="n">
-        <v>-673.7419379</v>
-      </c>
-      <c r="H178" s="25" t="n">
-        <v>0.043801</v>
-      </c>
-      <c r="I178" s="25" t="n">
-        <v>115.0005757</v>
+      <c r="E178" s="19" t="s">
+        <v>546</v>
+      </c>
+      <c r="F178" s="18" t="n">
+        <v>-1070.047129</v>
+      </c>
+      <c r="G178" s="18" t="n">
+        <v>-1070.035813</v>
+      </c>
+      <c r="H178" s="18" t="n">
+        <v>0.01132</v>
+      </c>
+      <c r="I178" s="18" t="n">
+        <v>29.7112</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="B179" s="25" t="n">
-        <v>4</v>
-      </c>
-      <c r="C179" s="27" t="s">
-        <v>531</v>
+        <v>527</v>
+      </c>
+      <c r="B179" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="C179" s="21" t="s">
+        <v>547</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="E179" s="26" t="s">
-        <v>533</v>
-      </c>
-      <c r="F179" s="25" t="n">
-        <v>-673.781565</v>
-      </c>
-      <c r="G179" s="25" t="n">
-        <v>-673.7445007</v>
-      </c>
-      <c r="H179" s="25" t="n">
-        <v>0.037064</v>
-      </c>
-      <c r="I179" s="25" t="n">
-        <v>97.31231965</v>
+        <v>529</v>
+      </c>
+      <c r="E179" s="19" t="s">
+        <v>548</v>
+      </c>
+      <c r="F179" s="18" t="n">
+        <v>-1070.047333</v>
+      </c>
+      <c r="G179" s="18" t="n">
+        <v>-1070.035156</v>
+      </c>
+      <c r="H179" s="18" t="n">
+        <v>0.01218</v>
+      </c>
+      <c r="I179" s="18" t="n">
+        <v>31.9723</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="B180" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="C180" s="27" t="s">
-        <v>534</v>
+        <v>527</v>
+      </c>
+      <c r="B180" s="18" t="n">
+        <v>11</v>
+      </c>
+      <c r="C180" s="21" t="s">
+        <v>549</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="E180" s="26" t="s">
-        <v>536</v>
-      </c>
-      <c r="F180" s="25" t="n">
-        <v>-634.4632492</v>
-      </c>
-      <c r="G180" s="25" t="n">
-        <v>-634.4256912</v>
-      </c>
-      <c r="H180" s="25" t="n">
-        <v>0.037558</v>
-      </c>
-      <c r="I180" s="25" t="n">
-        <v>98.608529</v>
+        <v>529</v>
+      </c>
+      <c r="E180" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="F180" s="18" t="n">
+        <v>-1109.367674</v>
+      </c>
+      <c r="G180" s="18" t="n">
+        <v>-1109.349598</v>
+      </c>
+      <c r="H180" s="18" t="n">
+        <v>0.01808</v>
+      </c>
+      <c r="I180" s="18" t="n">
+        <v>47.4588</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="B181" s="25" t="n">
-        <v>9</v>
-      </c>
-      <c r="C181" s="27" t="s">
-        <v>537</v>
+        <v>527</v>
+      </c>
+      <c r="B181" s="18" t="n">
+        <v>12</v>
+      </c>
+      <c r="C181" s="21" t="s">
+        <v>551</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="E181" s="26" t="s">
-        <v>539</v>
-      </c>
-      <c r="F181" s="25" t="n">
-        <v>-634.4648474</v>
-      </c>
-      <c r="G181" s="25" t="n">
-        <v>-634.4269137</v>
-      </c>
-      <c r="H181" s="25" t="n">
-        <v>0.037934</v>
-      </c>
-      <c r="I181" s="25" t="n">
-        <v>99.59492935</v>
+        <v>529</v>
+      </c>
+      <c r="E181" s="19" t="s">
+        <v>552</v>
+      </c>
+      <c r="F181" s="18" t="n">
+        <v>-1109.367825</v>
+      </c>
+      <c r="G181" s="18" t="n">
+        <v>-1109.352128</v>
+      </c>
+      <c r="H181" s="18" t="n">
+        <v>0.0157</v>
+      </c>
+      <c r="I181" s="18" t="n">
+        <v>41.213</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="B182" s="25" t="n">
-        <v>10</v>
-      </c>
-      <c r="C182" s="27" t="s">
-        <v>540</v>
+        <v>527</v>
+      </c>
+      <c r="B182" s="18" t="n">
+        <v>13</v>
+      </c>
+      <c r="C182" s="21" t="s">
+        <v>553</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="E182" s="26" t="s">
-        <v>541</v>
-      </c>
-      <c r="F182" s="25" t="n">
-        <v>-634.4648714</v>
-      </c>
-      <c r="G182" s="25" t="n">
-        <v>-634.4269138</v>
-      </c>
-      <c r="H182" s="25" t="n">
-        <v>0.037958</v>
-      </c>
-      <c r="I182" s="25" t="n">
-        <v>99.6576788</v>
+        <v>529</v>
+      </c>
+      <c r="E182" s="19" t="s">
+        <v>554</v>
+      </c>
+      <c r="F182" s="18" t="n">
+        <v>-1557.356661</v>
+      </c>
+      <c r="G182" s="18" t="n">
+        <v>-1557.349525</v>
+      </c>
+      <c r="H182" s="18" t="n">
+        <v>0.00714</v>
+      </c>
+      <c r="I182" s="18" t="n">
+        <v>18.7348</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="B183" s="25" t="n">
-        <v>11</v>
-      </c>
-      <c r="C183" s="27" t="s">
-        <v>542</v>
+        <v>527</v>
+      </c>
+      <c r="B183" s="18" t="n">
+        <v>14</v>
+      </c>
+      <c r="C183" s="21" t="s">
+        <v>555</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="E183" s="26" t="s">
-        <v>543</v>
-      </c>
-      <c r="F183" s="25" t="n">
-        <v>-634.4641492</v>
-      </c>
-      <c r="G183" s="25" t="n">
-        <v>-634.426527</v>
-      </c>
-      <c r="H183" s="25" t="n">
-        <v>0.037622</v>
-      </c>
-      <c r="I183" s="25" t="n">
-        <v>98.7770861</v>
+        <v>529</v>
+      </c>
+      <c r="E183" s="19" t="s">
+        <v>556</v>
+      </c>
+      <c r="F183" s="18" t="n">
+        <v>-1557.358401</v>
+      </c>
+      <c r="G183" s="18" t="n">
+        <v>-1557.352826</v>
+      </c>
+      <c r="H183" s="18" t="n">
+        <v>0.00557</v>
+      </c>
+      <c r="I183" s="18" t="n">
+        <v>14.6366</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="B184" s="25" t="n">
-        <v>18</v>
-      </c>
-      <c r="C184" s="27" t="s">
-        <v>544</v>
+        <v>527</v>
+      </c>
+      <c r="B184" s="18" t="n">
+        <v>15</v>
+      </c>
+      <c r="C184" s="21" t="s">
+        <v>557</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="E184" s="26" t="s">
-        <v>546</v>
-      </c>
-      <c r="F184" s="25" t="n">
-        <v>-1126.547879</v>
-      </c>
-      <c r="G184" s="25" t="n">
-        <v>-1126.512375</v>
-      </c>
-      <c r="H184" s="25" t="n">
-        <v>0.035503</v>
-      </c>
-      <c r="I184" s="25" t="n">
-        <v>93.2141767</v>
+        <v>529</v>
+      </c>
+      <c r="E184" s="19" t="s">
+        <v>558</v>
+      </c>
+      <c r="F184" s="18" t="n">
+        <v>-1518.040325</v>
+      </c>
+      <c r="G184" s="18" t="n">
+        <v>-1518.03821</v>
+      </c>
+      <c r="H184" s="18" t="n">
+        <v>0.00212</v>
+      </c>
+      <c r="I184" s="18" t="n">
+        <v>5.55451</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="B185" s="25" t="n">
-        <v>19</v>
-      </c>
-      <c r="C185" s="27" t="s">
-        <v>547</v>
+        <v>527</v>
+      </c>
+      <c r="B185" s="18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C185" s="21" t="s">
+        <v>559</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="E185" s="26" t="s">
-        <v>548</v>
-      </c>
-      <c r="F185" s="25" t="n">
-        <v>-1126.551396</v>
-      </c>
-      <c r="G185" s="25" t="n">
-        <v>-1126.52214</v>
-      </c>
-      <c r="H185" s="25" t="n">
-        <v>0.029256</v>
-      </c>
-      <c r="I185" s="25" t="n">
-        <v>76.81241565</v>
+        <v>529</v>
+      </c>
+      <c r="E185" s="19" t="s">
+        <v>560</v>
+      </c>
+      <c r="F185" s="18" t="n">
+        <v>-1518.041441</v>
+      </c>
+      <c r="G185" s="18" t="n">
+        <v>-1518.03819</v>
+      </c>
+      <c r="H185" s="18" t="n">
+        <v>0.00325</v>
+      </c>
+      <c r="I185" s="18" t="n">
+        <v>8.53603</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="B186" s="25" t="n">
-        <v>20</v>
-      </c>
-      <c r="C186" s="27" t="s">
-        <v>549</v>
+        <v>527</v>
+      </c>
+      <c r="B186" s="18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C186" s="21" t="s">
+        <v>561</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="E186" s="26" t="s">
-        <v>551</v>
-      </c>
-      <c r="F186" s="25" t="n">
-        <v>-1126.55383</v>
-      </c>
-      <c r="G186" s="25" t="n">
-        <v>-1126.517088</v>
-      </c>
-      <c r="H186" s="25" t="n">
-        <v>0.036742</v>
-      </c>
-      <c r="I186" s="25" t="n">
-        <v>96.46638355</v>
+        <v>529</v>
+      </c>
+      <c r="E186" s="19" t="s">
+        <v>562</v>
+      </c>
+      <c r="F186" s="18" t="n">
+        <v>-1148.682554</v>
+      </c>
+      <c r="G186" s="18" t="n">
+        <v>-1148.670569</v>
+      </c>
+      <c r="H186" s="18" t="n">
+        <v>0.01199</v>
+      </c>
+      <c r="I186" s="18" t="n">
+        <v>31.4682</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="B187" s="25" t="n">
-        <v>22</v>
-      </c>
-      <c r="C187" s="27" t="s">
-        <v>552</v>
+        <v>527</v>
+      </c>
+      <c r="B187" s="18" t="n">
+        <v>18</v>
+      </c>
+      <c r="C187" s="21" t="s">
+        <v>563</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="E187" s="26" t="s">
-        <v>553</v>
-      </c>
-      <c r="F187" s="25" t="n">
-        <v>-1126.564284</v>
-      </c>
-      <c r="G187" s="25" t="n">
-        <v>-1126.529413</v>
-      </c>
-      <c r="H187" s="25" t="n">
-        <v>0.034871</v>
-      </c>
-      <c r="I187" s="25" t="n">
-        <v>91.5527603</v>
+        <v>529</v>
+      </c>
+      <c r="E187" s="19" t="s">
+        <v>564</v>
+      </c>
+      <c r="F187" s="18" t="n">
+        <v>-1148.683825</v>
+      </c>
+      <c r="G187" s="18" t="n">
+        <v>-1148.672643</v>
+      </c>
+      <c r="H187" s="18" t="n">
+        <v>0.01118</v>
+      </c>
+      <c r="I187" s="18" t="n">
+        <v>29.3581</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B188" s="25" t="n">
+        <v>565</v>
+      </c>
+      <c r="B188" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="C188" s="27" t="s">
-        <v>555</v>
-      </c>
-      <c r="D188" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="E188" s="26" t="s">
-        <v>557</v>
-      </c>
-      <c r="F188" s="25" t="n">
-        <v>-1593.306107</v>
-      </c>
-      <c r="G188" s="25" t="n">
-        <v>-1593.29851</v>
-      </c>
-      <c r="H188" s="25" t="n">
-        <v>0.0076</v>
-      </c>
-      <c r="I188" s="25" t="n">
-        <v>19.9454</v>
+      <c r="C188" s="22" t="s">
+        <v>566</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="E188" s="19" t="s">
+        <v>568</v>
+      </c>
+      <c r="F188" s="18" t="n">
+        <v>-272.6067861</v>
+      </c>
+      <c r="G188" s="18" t="n">
+        <v>-272.586547</v>
+      </c>
+      <c r="H188" s="18" t="n">
+        <v>0.02024</v>
+      </c>
+      <c r="I188" s="18" t="n">
+        <v>53.1378</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B189" s="25" t="n">
+        <v>565</v>
+      </c>
+      <c r="B189" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="C189" s="27" t="s">
-        <v>558</v>
-      </c>
-      <c r="D189" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="E189" s="26" t="s">
-        <v>559</v>
-      </c>
-      <c r="F189" s="25" t="n">
-        <v>-1593.307901</v>
-      </c>
-      <c r="G189" s="25" t="n">
-        <v>-1593.303202</v>
-      </c>
-      <c r="H189" s="25" t="n">
-        <v>0.0047</v>
-      </c>
-      <c r="I189" s="25" t="n">
-        <v>12.3375</v>
+      <c r="C189" s="22" t="s">
+        <v>569</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="E189" s="19" t="s">
+        <v>571</v>
+      </c>
+      <c r="F189" s="18" t="n">
+        <v>-563.2985335</v>
+      </c>
+      <c r="G189" s="18" t="n">
+        <v>-563.2840639</v>
+      </c>
+      <c r="H189" s="18" t="n">
+        <v>0.01447</v>
+      </c>
+      <c r="I189" s="18" t="n">
+        <v>37.9899</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B190" s="25" t="n">
+        <v>565</v>
+      </c>
+      <c r="B190" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="C190" s="27" t="s">
-        <v>560</v>
-      </c>
-      <c r="D190" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="E190" s="26" t="s">
-        <v>561</v>
-      </c>
-      <c r="F190" s="25" t="n">
-        <v>-1553.98921</v>
-      </c>
-      <c r="G190" s="25" t="n">
-        <v>-1553.985871</v>
-      </c>
-      <c r="H190" s="25" t="n">
-        <v>0.00334</v>
-      </c>
-      <c r="I190" s="25" t="n">
-        <v>8.76707</v>
+      <c r="C190" s="22" t="s">
+        <v>572</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="E190" s="19" t="s">
+        <v>573</v>
+      </c>
+      <c r="F190" s="18" t="n">
+        <v>-563.2986892</v>
+      </c>
+      <c r="G190" s="18" t="n">
+        <v>-563.2729162</v>
+      </c>
+      <c r="H190" s="18" t="n">
+        <v>0.02577</v>
+      </c>
+      <c r="I190" s="18" t="n">
+        <v>67.667</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B191" s="25" t="n">
+        <v>565</v>
+      </c>
+      <c r="B191" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="C191" s="27" t="s">
-        <v>562</v>
-      </c>
-      <c r="D191" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="E191" s="26" t="s">
-        <v>563</v>
-      </c>
-      <c r="F191" s="25" t="n">
-        <v>-1553.989631</v>
-      </c>
-      <c r="G191" s="25" t="n">
-        <v>-1553.985906</v>
-      </c>
-      <c r="H191" s="25" t="n">
-        <v>0.00372</v>
-      </c>
-      <c r="I191" s="25" t="n">
-        <v>9.77972</v>
+      <c r="C191" s="22" t="s">
+        <v>574</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="E191" s="19" t="s">
+        <v>575</v>
+      </c>
+      <c r="F191" s="18" t="n">
+        <v>-563.2986762</v>
+      </c>
+      <c r="G191" s="18" t="n">
+        <v>-563.2796886</v>
+      </c>
+      <c r="H191" s="18" t="n">
+        <v>0.01899</v>
+      </c>
+      <c r="I191" s="18" t="n">
+        <v>49.8519</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B192" s="25" t="n">
+        <v>565</v>
+      </c>
+      <c r="B192" s="18" t="n">
         <v>5</v>
       </c>
-      <c r="C192" s="27" t="s">
-        <v>564</v>
-      </c>
-      <c r="D192" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="E192" s="26" t="s">
-        <v>565</v>
-      </c>
-      <c r="F192" s="25" t="n">
-        <v>-1223.892741</v>
-      </c>
-      <c r="G192" s="25" t="n">
-        <v>-1223.883579</v>
-      </c>
-      <c r="H192" s="25" t="n">
-        <v>0.00916</v>
-      </c>
-      <c r="I192" s="25" t="n">
-        <v>24.0556</v>
+      <c r="C192" s="22" t="s">
+        <v>576</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="E192" s="19" t="s">
+        <v>577</v>
+      </c>
+      <c r="F192" s="18" t="n">
+        <v>-563.2987059</v>
+      </c>
+      <c r="G192" s="18" t="n">
+        <v>-563.2796886</v>
+      </c>
+      <c r="H192" s="18" t="n">
+        <v>0.01902</v>
+      </c>
+      <c r="I192" s="18" t="n">
+        <v>49.9299</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B193" s="25" t="n">
+        <v>565</v>
+      </c>
+      <c r="B193" s="18" t="n">
         <v>6</v>
       </c>
-      <c r="C193" s="27" t="s">
-        <v>566</v>
-      </c>
-      <c r="D193" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="E193" s="26" t="s">
+      <c r="C193" s="22" t="s">
+        <v>578</v>
+      </c>
+      <c r="D193" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="F193" s="25" t="n">
-        <v>-1223.892765</v>
-      </c>
-      <c r="G193" s="25" t="n">
-        <v>-1223.886819</v>
-      </c>
-      <c r="H193" s="25" t="n">
-        <v>0.00595</v>
-      </c>
-      <c r="I193" s="25" t="n">
-        <v>15.6123</v>
+      <c r="E193" s="19" t="s">
+        <v>579</v>
+      </c>
+      <c r="F193" s="18" t="n">
+        <v>-563.2988083</v>
+      </c>
+      <c r="G193" s="18" t="n">
+        <v>-563.2739834</v>
+      </c>
+      <c r="H193" s="18" t="n">
+        <v>0.02482</v>
+      </c>
+      <c r="I193" s="18" t="n">
+        <v>65.1778</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B194" s="25" t="n">
+        <v>565</v>
+      </c>
+      <c r="B194" s="18" t="n">
         <v>7</v>
       </c>
-      <c r="C194" s="27" t="s">
-        <v>568</v>
-      </c>
-      <c r="D194" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="E194" s="26" t="s">
-        <v>569</v>
-      </c>
-      <c r="F194" s="25" t="n">
-        <v>-1271.163178</v>
-      </c>
-      <c r="G194" s="25" t="n">
-        <v>-1271.129182</v>
-      </c>
-      <c r="H194" s="25" t="n">
-        <v>0.034</v>
-      </c>
-      <c r="I194" s="25" t="n">
-        <v>89.2573</v>
+      <c r="C194" s="22" t="s">
+        <v>580</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="E194" s="19" t="s">
+        <v>581</v>
+      </c>
+      <c r="F194" s="18" t="n">
+        <v>-364.851425</v>
+      </c>
+      <c r="G194" s="18" t="n">
+        <v>-364.83444</v>
+      </c>
+      <c r="H194" s="18" t="n">
+        <v>0.01699</v>
+      </c>
+      <c r="I194" s="18" t="n">
+        <v>44.5941</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B195" s="25" t="n">
+        <v>565</v>
+      </c>
+      <c r="B195" s="18" t="n">
         <v>8</v>
       </c>
-      <c r="C195" s="27" t="s">
+      <c r="C195" s="22" t="s">
+        <v>582</v>
+      </c>
+      <c r="D195" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="D195" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="E195" s="26" t="s">
-        <v>571</v>
-      </c>
-      <c r="F195" s="25" t="n">
-        <v>-1271.162901</v>
-      </c>
-      <c r="G195" s="25" t="n">
-        <v>-1271.130382</v>
-      </c>
-      <c r="H195" s="25" t="n">
-        <v>0.03252</v>
-      </c>
-      <c r="I195" s="25" t="n">
-        <v>85.3805</v>
+      <c r="E195" s="19" t="s">
+        <v>583</v>
+      </c>
+      <c r="F195" s="18" t="n">
+        <v>-364.8523582</v>
+      </c>
+      <c r="G195" s="18" t="n">
+        <v>-364.8282963</v>
+      </c>
+      <c r="H195" s="18" t="n">
+        <v>0.02406</v>
+      </c>
+      <c r="I195" s="18" t="n">
+        <v>63.1745</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B196" s="25" t="n">
+        <v>565</v>
+      </c>
+      <c r="B196" s="18" t="n">
         <v>9</v>
       </c>
-      <c r="C196" s="27" t="s">
-        <v>572</v>
-      </c>
-      <c r="D196" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="E196" s="26" t="s">
-        <v>573</v>
-      </c>
-      <c r="F196" s="25" t="n">
-        <v>-1070.047129</v>
-      </c>
-      <c r="G196" s="25" t="n">
-        <v>-1070.035813</v>
-      </c>
-      <c r="H196" s="25" t="n">
-        <v>0.01132</v>
-      </c>
-      <c r="I196" s="25" t="n">
-        <v>29.7112</v>
+      <c r="C196" s="22" t="s">
+        <v>584</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="E196" s="19" t="s">
+        <v>585</v>
+      </c>
+      <c r="F196" s="18" t="n">
+        <v>-364.8514272</v>
+      </c>
+      <c r="G196" s="18" t="n">
+        <v>-364.8307605</v>
+      </c>
+      <c r="H196" s="18" t="n">
+        <v>0.02067</v>
+      </c>
+      <c r="I196" s="18" t="n">
+        <v>54.2604</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B197" s="25" t="n">
+        <v>565</v>
+      </c>
+      <c r="B197" s="18" t="n">
         <v>10</v>
       </c>
-      <c r="C197" s="28" t="s">
-        <v>574</v>
-      </c>
-      <c r="D197" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="E197" s="26" t="s">
-        <v>575</v>
-      </c>
-      <c r="F197" s="25" t="n">
-        <v>-1070.047333</v>
-      </c>
-      <c r="G197" s="25" t="n">
-        <v>-1070.035156</v>
-      </c>
-      <c r="H197" s="25" t="n">
-        <v>0.01218</v>
-      </c>
-      <c r="I197" s="25" t="n">
-        <v>31.9723</v>
+      <c r="C197" s="22" t="s">
+        <v>586</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="E197" s="19" t="s">
+        <v>587</v>
+      </c>
+      <c r="F197" s="18" t="n">
+        <v>-364.8520545</v>
+      </c>
+      <c r="G197" s="18" t="n">
+        <v>-364.8303998</v>
+      </c>
+      <c r="H197" s="18" t="n">
+        <v>0.02165</v>
+      </c>
+      <c r="I197" s="18" t="n">
+        <v>56.8544</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B198" s="25" t="n">
+        <v>565</v>
+      </c>
+      <c r="B198" s="18" t="n">
         <v>11</v>
       </c>
-      <c r="C198" s="28" t="s">
-        <v>576</v>
-      </c>
-      <c r="D198" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="E198" s="26" t="s">
-        <v>577</v>
-      </c>
-      <c r="F198" s="25" t="n">
-        <v>-1109.367674</v>
-      </c>
-      <c r="G198" s="25" t="n">
-        <v>-1109.349598</v>
-      </c>
-      <c r="H198" s="25" t="n">
-        <v>0.01808</v>
-      </c>
-      <c r="I198" s="25" t="n">
-        <v>47.4588</v>
+      <c r="C198" s="22" t="s">
+        <v>588</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="E198" s="19" t="s">
+        <v>589</v>
+      </c>
+      <c r="F198" s="18" t="n">
+        <v>-311.9245293</v>
+      </c>
+      <c r="G198" s="18" t="n">
+        <v>-311.9068921</v>
+      </c>
+      <c r="H198" s="18" t="n">
+        <v>0.01764</v>
+      </c>
+      <c r="I198" s="18" t="n">
+        <v>46.3065</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B199" s="25" t="n">
+        <v>565</v>
+      </c>
+      <c r="B199" s="18" t="n">
         <v>12</v>
       </c>
-      <c r="C199" s="28" t="s">
-        <v>578</v>
-      </c>
-      <c r="D199" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="E199" s="26" t="s">
-        <v>579</v>
-      </c>
-      <c r="F199" s="25" t="n">
-        <v>-1109.367825</v>
-      </c>
-      <c r="G199" s="25" t="n">
-        <v>-1109.352128</v>
-      </c>
-      <c r="H199" s="25" t="n">
-        <v>0.0157</v>
-      </c>
-      <c r="I199" s="25" t="n">
-        <v>41.213</v>
+      <c r="C199" s="22" t="s">
+        <v>588</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="E199" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="F199" s="18" t="n">
+        <v>-311.924589</v>
+      </c>
+      <c r="G199" s="18" t="n">
+        <v>-311.8950131</v>
+      </c>
+      <c r="H199" s="18" t="n">
+        <v>0.02958</v>
+      </c>
+      <c r="I199" s="18" t="n">
+        <v>77.6515</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B200" s="25" t="n">
+        <v>565</v>
+      </c>
+      <c r="B200" s="18" t="n">
         <v>13</v>
       </c>
-      <c r="C200" s="28" t="s">
-        <v>580</v>
-      </c>
-      <c r="D200" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="E200" s="26" t="s">
-        <v>581</v>
-      </c>
-      <c r="F200" s="25" t="n">
-        <v>-1557.356661</v>
-      </c>
-      <c r="G200" s="25" t="n">
-        <v>-1557.349525</v>
-      </c>
-      <c r="H200" s="25" t="n">
-        <v>0.00714</v>
-      </c>
-      <c r="I200" s="25" t="n">
-        <v>18.7348</v>
+      <c r="C200" s="22" t="s">
+        <v>591</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="E200" s="19" t="s">
+        <v>592</v>
+      </c>
+      <c r="F200" s="18" t="n">
+        <v>-311.9243872</v>
+      </c>
+      <c r="G200" s="18" t="n">
+        <v>-311.9041089</v>
+      </c>
+      <c r="H200" s="18" t="n">
+        <v>0.02028</v>
+      </c>
+      <c r="I200" s="18" t="n">
+        <v>53.2407</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B201" s="25" t="n">
+        <v>565</v>
+      </c>
+      <c r="B201" s="18" t="n">
         <v>14</v>
       </c>
-      <c r="C201" s="28" t="s">
-        <v>582</v>
-      </c>
-      <c r="D201" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="E201" s="26" t="s">
-        <v>583</v>
-      </c>
-      <c r="F201" s="25" t="n">
-        <v>-1557.358401</v>
-      </c>
-      <c r="G201" s="25" t="n">
-        <v>-1557.352826</v>
-      </c>
-      <c r="H201" s="25" t="n">
-        <v>0.00557</v>
-      </c>
-      <c r="I201" s="25" t="n">
-        <v>14.6366</v>
+      <c r="C201" s="22" t="s">
+        <v>593</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="E201" s="19" t="s">
+        <v>594</v>
+      </c>
+      <c r="F201" s="18" t="n">
+        <v>-311.9245521</v>
+      </c>
+      <c r="G201" s="18" t="n">
+        <v>-311.8977202</v>
+      </c>
+      <c r="H201" s="18" t="n">
+        <v>0.02683</v>
+      </c>
+      <c r="I201" s="18" t="n">
+        <v>70.4472</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B202" s="25" t="n">
+        <v>565</v>
+      </c>
+      <c r="B202" s="18" t="n">
         <v>15</v>
       </c>
-      <c r="C202" s="28" t="s">
-        <v>584</v>
-      </c>
-      <c r="D202" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="E202" s="26" t="s">
-        <v>585</v>
-      </c>
-      <c r="F202" s="25" t="n">
-        <v>-1518.040325</v>
-      </c>
-      <c r="G202" s="25" t="n">
-        <v>-1518.03821</v>
-      </c>
-      <c r="H202" s="25" t="n">
-        <v>0.00212</v>
-      </c>
-      <c r="I202" s="25" t="n">
-        <v>5.55451</v>
+      <c r="C202" s="22" t="s">
+        <v>595</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="E202" s="19" t="s">
+        <v>596</v>
+      </c>
+      <c r="F202" s="18" t="n">
+        <v>-732.2132415</v>
+      </c>
+      <c r="G202" s="18" t="n">
+        <v>-732.1929392</v>
+      </c>
+      <c r="H202" s="18" t="n">
+        <v>0.0203</v>
+      </c>
+      <c r="I202" s="18" t="n">
+        <v>53.3037</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B203" s="25" t="n">
+        <v>565</v>
+      </c>
+      <c r="B203" s="18" t="n">
         <v>16</v>
       </c>
-      <c r="C203" s="28" t="s">
-        <v>586</v>
-      </c>
-      <c r="D203" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="E203" s="26" t="s">
-        <v>587</v>
-      </c>
-      <c r="F203" s="25" t="n">
-        <v>-1518.041441</v>
-      </c>
-      <c r="G203" s="25" t="n">
-        <v>-1518.03819</v>
-      </c>
-      <c r="H203" s="25" t="n">
-        <v>0.00325</v>
-      </c>
-      <c r="I203" s="25" t="n">
-        <v>8.53603</v>
+      <c r="C203" s="22" t="s">
+        <v>597</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="E203" s="19" t="s">
+        <v>598</v>
+      </c>
+      <c r="F203" s="18" t="n">
+        <v>-732.2136908</v>
+      </c>
+      <c r="G203" s="18" t="n">
+        <v>-732.1840098</v>
+      </c>
+      <c r="H203" s="18" t="n">
+        <v>0.02968</v>
+      </c>
+      <c r="I203" s="18" t="n">
+        <v>77.9275</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B204" s="25" t="n">
+        <v>565</v>
+      </c>
+      <c r="B204" s="18" t="n">
         <v>17</v>
       </c>
-      <c r="C204" s="28" t="s">
-        <v>588</v>
-      </c>
-      <c r="D204" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="E204" s="26" t="s">
-        <v>589</v>
-      </c>
-      <c r="F204" s="25" t="n">
-        <v>-1148.682554</v>
-      </c>
-      <c r="G204" s="25" t="n">
-        <v>-1148.670569</v>
-      </c>
-      <c r="H204" s="25" t="n">
-        <v>0.01199</v>
-      </c>
-      <c r="I204" s="25" t="n">
-        <v>31.4682</v>
+      <c r="C204" s="22" t="s">
+        <v>599</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="E204" s="19" t="s">
+        <v>600</v>
+      </c>
+      <c r="F204" s="18" t="n">
+        <v>-732.2136272</v>
+      </c>
+      <c r="G204" s="18" t="n">
+        <v>-732.1919124</v>
+      </c>
+      <c r="H204" s="18" t="n">
+        <v>0.02171</v>
+      </c>
+      <c r="I204" s="18" t="n">
+        <v>57.0122</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B205" s="25" t="n">
+        <v>565</v>
+      </c>
+      <c r="B205" s="18" t="n">
         <v>18</v>
       </c>
-      <c r="C205" s="28" t="s">
-        <v>590</v>
-      </c>
-      <c r="D205" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="E205" s="26" t="s">
-        <v>591</v>
-      </c>
-      <c r="F205" s="25" t="n">
-        <v>-1148.683825</v>
-      </c>
-      <c r="G205" s="25" t="n">
-        <v>-1148.672643</v>
-      </c>
-      <c r="H205" s="25" t="n">
-        <v>0.01118</v>
-      </c>
-      <c r="I205" s="25" t="n">
-        <v>29.3581</v>
+      <c r="C205" s="22" t="s">
+        <v>599</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="E205" s="19" t="s">
+        <v>601</v>
+      </c>
+      <c r="F205" s="18" t="n">
+        <v>-732.2136272</v>
+      </c>
+      <c r="G205" s="18" t="n">
+        <v>-732.1893553</v>
+      </c>
+      <c r="H205" s="18" t="n">
+        <v>0.02427</v>
+      </c>
+      <c r="I205" s="18" t="n">
+        <v>63.7259</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="B206" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="C206" s="29" t="s">
-        <v>593</v>
+        <v>565</v>
+      </c>
+      <c r="B206" s="18" t="n">
+        <v>19</v>
+      </c>
+      <c r="C206" s="22" t="s">
+        <v>602</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="E206" s="26" t="s">
-        <v>595</v>
-      </c>
-      <c r="F206" s="25" t="n">
-        <v>-272.6067861</v>
-      </c>
-      <c r="G206" s="25" t="n">
-        <v>-272.586547</v>
-      </c>
-      <c r="H206" s="25" t="n">
-        <v>0.02024</v>
-      </c>
-      <c r="I206" s="25" t="n">
-        <v>53.1378</v>
+        <v>570</v>
+      </c>
+      <c r="E206" s="19" t="s">
+        <v>603</v>
+      </c>
+      <c r="F206" s="18" t="n">
+        <v>-327.9546643</v>
+      </c>
+      <c r="G206" s="18" t="n">
+        <v>-327.9360501</v>
+      </c>
+      <c r="H206" s="18" t="n">
+        <v>0.01861</v>
+      </c>
+      <c r="I206" s="18" t="n">
+        <v>48.8716</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="B207" s="25" t="n">
-        <v>2</v>
-      </c>
-      <c r="C207" s="29" t="s">
-        <v>596</v>
+        <v>565</v>
+      </c>
+      <c r="B207" s="18" t="n">
+        <v>20</v>
+      </c>
+      <c r="C207" s="22" t="s">
+        <v>604</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="E207" s="26" t="s">
-        <v>598</v>
-      </c>
-      <c r="F207" s="25" t="n">
-        <v>-563.2985335</v>
-      </c>
-      <c r="G207" s="25" t="n">
-        <v>-563.2840639</v>
-      </c>
-      <c r="H207" s="25" t="n">
-        <v>0.01447</v>
-      </c>
-      <c r="I207" s="25" t="n">
-        <v>37.9899</v>
+        <v>570</v>
+      </c>
+      <c r="E207" s="19" t="s">
+        <v>605</v>
+      </c>
+      <c r="F207" s="18" t="n">
+        <v>-327.9562143</v>
+      </c>
+      <c r="G207" s="18" t="n">
+        <v>-327.9261283</v>
+      </c>
+      <c r="H207" s="18" t="n">
+        <v>0.03009</v>
+      </c>
+      <c r="I207" s="18" t="n">
+        <v>78.9908</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="B208" s="25" t="n">
-        <v>3</v>
-      </c>
-      <c r="C208" s="29" t="s">
-        <v>599</v>
+        <v>565</v>
+      </c>
+      <c r="B208" s="18" t="n">
+        <v>21</v>
+      </c>
+      <c r="C208" s="22" t="s">
+        <v>606</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="E208" s="26" t="s">
-        <v>600</v>
-      </c>
-      <c r="F208" s="25" t="n">
-        <v>-563.2986892</v>
-      </c>
-      <c r="G208" s="25" t="n">
-        <v>-563.2729162</v>
-      </c>
-      <c r="H208" s="25" t="n">
-        <v>0.02577</v>
-      </c>
-      <c r="I208" s="25" t="n">
-        <v>67.667</v>
+        <v>567</v>
+      </c>
+      <c r="E208" s="19" t="s">
+        <v>607</v>
+      </c>
+      <c r="F208" s="18" t="n">
+        <v>-327.957406</v>
+      </c>
+      <c r="G208" s="18" t="n">
+        <v>-327.9347197</v>
+      </c>
+      <c r="H208" s="18" t="n">
+        <v>0.02269</v>
+      </c>
+      <c r="I208" s="18" t="n">
+        <v>59.5629</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="B209" s="25" t="n">
-        <v>4</v>
-      </c>
-      <c r="C209" s="29" t="s">
-        <v>601</v>
+        <v>565</v>
+      </c>
+      <c r="B209" s="18" t="n">
+        <v>22</v>
+      </c>
+      <c r="C209" s="22" t="s">
+        <v>608</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="E209" s="26" t="s">
-        <v>602</v>
-      </c>
-      <c r="F209" s="25" t="n">
-        <v>-563.2986762</v>
-      </c>
-      <c r="G209" s="25" t="n">
-        <v>-563.2796886</v>
-      </c>
-      <c r="H209" s="25" t="n">
-        <v>0.01899</v>
-      </c>
-      <c r="I209" s="25" t="n">
-        <v>49.8519</v>
+        <v>567</v>
+      </c>
+      <c r="E209" s="19" t="s">
+        <v>609</v>
+      </c>
+      <c r="F209" s="18" t="n">
+        <v>-327.9564854</v>
+      </c>
+      <c r="G209" s="18" t="n">
+        <v>-327.9340665</v>
+      </c>
+      <c r="H209" s="18" t="n">
+        <v>0.02242</v>
+      </c>
+      <c r="I209" s="18" t="n">
+        <v>58.8608</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="B210" s="25" t="n">
-        <v>5</v>
-      </c>
-      <c r="C210" s="29" t="s">
-        <v>603</v>
-      </c>
-      <c r="D210" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="E210" s="26" t="s">
-        <v>604</v>
-      </c>
-      <c r="F210" s="25" t="n">
-        <v>-563.2987059</v>
-      </c>
-      <c r="G210" s="25" t="n">
-        <v>-563.2796886</v>
-      </c>
-      <c r="H210" s="25" t="n">
-        <v>0.01902</v>
-      </c>
-      <c r="I210" s="25" t="n">
-        <v>49.9299</v>
+        <v>565</v>
+      </c>
+      <c r="B210" s="18" t="n">
+        <v>23</v>
+      </c>
+      <c r="C210" s="22" t="s">
+        <v>610</v>
+      </c>
+      <c r="D210" s="23" t="s">
+        <v>570</v>
+      </c>
+      <c r="E210" s="19" t="s">
+        <v>611</v>
+      </c>
+      <c r="F210" s="18" t="n">
+        <v>-347.8227407</v>
+      </c>
+      <c r="G210" s="18" t="n">
+        <v>-347.8016165</v>
+      </c>
+      <c r="H210" s="18" t="n">
+        <v>0.02112</v>
+      </c>
+      <c r="I210" s="18" t="n">
+        <v>55.4616</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="B211" s="25" t="n">
-        <v>6</v>
-      </c>
-      <c r="C211" s="29" t="s">
-        <v>605</v>
+        <v>565</v>
+      </c>
+      <c r="B211" s="18" t="n">
+        <v>24</v>
+      </c>
+      <c r="C211" s="22" t="s">
+        <v>612</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="E211" s="26" t="s">
-        <v>606</v>
-      </c>
-      <c r="F211" s="25" t="n">
-        <v>-563.2988083</v>
-      </c>
-      <c r="G211" s="25" t="n">
-        <v>-563.2739834</v>
-      </c>
-      <c r="H211" s="25" t="n">
-        <v>0.02482</v>
-      </c>
-      <c r="I211" s="25" t="n">
-        <v>65.1778</v>
+        <v>570</v>
+      </c>
+      <c r="E211" s="19" t="s">
+        <v>613</v>
+      </c>
+      <c r="F211" s="18" t="n">
+        <v>-347.8256763</v>
+      </c>
+      <c r="G211" s="18" t="n">
+        <v>-347.7946826</v>
+      </c>
+      <c r="H211" s="18" t="n">
+        <v>0.03099</v>
+      </c>
+      <c r="I211" s="18" t="n">
+        <v>81.374</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="B212" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="C212" s="29" t="s">
-        <v>607</v>
+        <v>565</v>
+      </c>
+      <c r="B212" s="18" t="n">
+        <v>25</v>
+      </c>
+      <c r="C212" s="22" t="s">
+        <v>614</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="E212" s="26" t="s">
-        <v>608</v>
-      </c>
-      <c r="F212" s="25" t="n">
-        <v>-364.851425</v>
-      </c>
-      <c r="G212" s="25" t="n">
-        <v>-364.83444</v>
-      </c>
-      <c r="H212" s="25" t="n">
-        <v>0.01699</v>
-      </c>
-      <c r="I212" s="25" t="n">
-        <v>44.5941</v>
+        <v>567</v>
+      </c>
+      <c r="E212" s="19" t="s">
+        <v>615</v>
+      </c>
+      <c r="F212" s="18" t="n">
+        <v>-347.8269093</v>
+      </c>
+      <c r="G212" s="18" t="n">
+        <v>-347.8011297</v>
+      </c>
+      <c r="H212" s="18" t="n">
+        <v>0.02578</v>
+      </c>
+      <c r="I212" s="18" t="n">
+        <v>67.6843</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="B213" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="C213" s="29" t="s">
-        <v>609</v>
+        <v>565</v>
+      </c>
+      <c r="B213" s="18" t="n">
+        <v>26</v>
+      </c>
+      <c r="C213" s="22" t="s">
+        <v>616</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="E213" s="26" t="s">
-        <v>610</v>
-      </c>
-      <c r="F213" s="25" t="n">
-        <v>-364.8523582</v>
-      </c>
-      <c r="G213" s="25" t="n">
-        <v>-364.8282963</v>
-      </c>
-      <c r="H213" s="25" t="n">
-        <v>0.02406</v>
-      </c>
-      <c r="I213" s="25" t="n">
-        <v>63.1745</v>
+        <v>567</v>
+      </c>
+      <c r="E213" s="19" t="s">
+        <v>617</v>
+      </c>
+      <c r="F213" s="18" t="n">
+        <v>-347.8246048</v>
+      </c>
+      <c r="G213" s="18" t="n">
+        <v>-347.8005087</v>
+      </c>
+      <c r="H213" s="18" t="n">
+        <v>0.0241</v>
+      </c>
+      <c r="I213" s="18" t="n">
+        <v>63.2643</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="B214" s="25" t="n">
-        <v>9</v>
-      </c>
-      <c r="C214" s="29" t="s">
-        <v>611</v>
+        <v>565</v>
+      </c>
+      <c r="B214" s="18" t="n">
+        <v>27</v>
+      </c>
+      <c r="C214" s="22" t="s">
+        <v>618</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="E214" s="26" t="s">
-        <v>612</v>
-      </c>
-      <c r="F214" s="25" t="n">
-        <v>-364.8514272</v>
-      </c>
-      <c r="G214" s="25" t="n">
-        <v>-364.8307605</v>
-      </c>
-      <c r="H214" s="25" t="n">
-        <v>0.02067</v>
-      </c>
-      <c r="I214" s="25" t="n">
-        <v>54.2604</v>
+        <v>570</v>
+      </c>
+      <c r="E214" s="19" t="s">
+        <v>619</v>
+      </c>
+      <c r="F214" s="18" t="n">
+        <v>-371.8468272</v>
+      </c>
+      <c r="G214" s="18" t="n">
+        <v>-371.8244</v>
+      </c>
+      <c r="H214" s="18" t="n">
+        <v>0.02243</v>
+      </c>
+      <c r="I214" s="18" t="n">
+        <v>58.8826</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="B215" s="25" t="n">
-        <v>10</v>
-      </c>
-      <c r="C215" s="29" t="s">
-        <v>613</v>
+        <v>565</v>
+      </c>
+      <c r="B215" s="18" t="n">
+        <v>28</v>
+      </c>
+      <c r="C215" s="22" t="s">
+        <v>620</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="E215" s="26" t="s">
-        <v>614</v>
-      </c>
-      <c r="F215" s="25" t="n">
-        <v>-364.8520545</v>
-      </c>
-      <c r="G215" s="25" t="n">
-        <v>-364.8303998</v>
-      </c>
-      <c r="H215" s="25" t="n">
-        <v>0.02165</v>
-      </c>
-      <c r="I215" s="25" t="n">
-        <v>56.8544</v>
+        <v>570</v>
+      </c>
+      <c r="E215" s="19" t="s">
+        <v>621</v>
+      </c>
+      <c r="F215" s="18" t="n">
+        <v>-371.8500246</v>
+      </c>
+      <c r="G215" s="18" t="n">
+        <v>-371.8197268</v>
+      </c>
+      <c r="H215" s="18" t="n">
+        <v>0.0303</v>
+      </c>
+      <c r="I215" s="18" t="n">
+        <v>79.5469</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="B216" s="25" t="n">
-        <v>11</v>
-      </c>
-      <c r="C216" s="29" t="s">
-        <v>615</v>
+        <v>565</v>
+      </c>
+      <c r="B216" s="18" t="n">
+        <v>29</v>
+      </c>
+      <c r="C216" s="22" t="s">
+        <v>622</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="E216" s="26" t="s">
-        <v>616</v>
-      </c>
-      <c r="F216" s="25" t="n">
-        <v>-311.9245293</v>
-      </c>
-      <c r="G216" s="25" t="n">
-        <v>-311.9068921</v>
-      </c>
-      <c r="H216" s="25" t="n">
-        <v>0.01764</v>
-      </c>
-      <c r="I216" s="25" t="n">
-        <v>46.3065</v>
+        <v>567</v>
+      </c>
+      <c r="E216" s="19" t="s">
+        <v>623</v>
+      </c>
+      <c r="F216" s="18" t="n">
+        <v>-371.8467308</v>
+      </c>
+      <c r="G216" s="18" t="n">
+        <v>-371.8239732</v>
+      </c>
+      <c r="H216" s="18" t="n">
+        <v>0.02276</v>
+      </c>
+      <c r="I216" s="18" t="n">
+        <v>59.7501</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="B217" s="25" t="n">
-        <v>12</v>
-      </c>
-      <c r="C217" s="29" t="s">
-        <v>615</v>
+        <v>565</v>
+      </c>
+      <c r="B217" s="18" t="n">
+        <v>30</v>
+      </c>
+      <c r="C217" s="22" t="s">
+        <v>624</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="E217" s="26" t="s">
-        <v>617</v>
-      </c>
-      <c r="F217" s="25" t="n">
-        <v>-311.924589</v>
-      </c>
-      <c r="G217" s="25" t="n">
-        <v>-311.8950131</v>
-      </c>
-      <c r="H217" s="25" t="n">
-        <v>0.02958</v>
-      </c>
-      <c r="I217" s="25" t="n">
-        <v>77.6515</v>
+        <v>567</v>
+      </c>
+      <c r="E217" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="F217" s="18" t="n">
+        <v>-371.851172</v>
+      </c>
+      <c r="G217" s="18" t="n">
+        <v>-371.8269538</v>
+      </c>
+      <c r="H217" s="18" t="n">
+        <v>0.02422</v>
+      </c>
+      <c r="I217" s="18" t="n">
+        <v>63.5849</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="B218" s="25" t="n">
-        <v>13</v>
-      </c>
-      <c r="C218" s="29" t="s">
-        <v>618</v>
+        <v>565</v>
+      </c>
+      <c r="B218" s="18" t="n">
+        <v>31</v>
+      </c>
+      <c r="C218" s="22" t="s">
+        <v>626</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="E218" s="26" t="s">
-        <v>619</v>
-      </c>
-      <c r="F218" s="25" t="n">
-        <v>-311.9243872</v>
-      </c>
-      <c r="G218" s="25" t="n">
-        <v>-311.9041089</v>
-      </c>
-      <c r="H218" s="25" t="n">
-        <v>0.02028</v>
-      </c>
-      <c r="I218" s="25" t="n">
-        <v>53.2407</v>
+        <v>570</v>
+      </c>
+      <c r="E218" s="19" t="s">
+        <v>627</v>
+      </c>
+      <c r="F218" s="18" t="n">
+        <v>-853.9896523</v>
+      </c>
+      <c r="G218" s="18" t="n">
+        <v>-853.9648477</v>
+      </c>
+      <c r="H218" s="18" t="n">
+        <v>0.0248</v>
+      </c>
+      <c r="I218" s="18" t="n">
+        <v>65.1245</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="B219" s="25" t="n">
-        <v>14</v>
-      </c>
-      <c r="C219" s="29" t="s">
-        <v>620</v>
+        <v>565</v>
+      </c>
+      <c r="B219" s="18" t="n">
+        <v>32</v>
+      </c>
+      <c r="C219" s="24" t="s">
+        <v>628</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="E219" s="26" t="s">
-        <v>621</v>
-      </c>
-      <c r="F219" s="25" t="n">
-        <v>-311.9245521</v>
-      </c>
-      <c r="G219" s="25" t="n">
-        <v>-311.8977202</v>
-      </c>
-      <c r="H219" s="25" t="n">
-        <v>0.02683</v>
-      </c>
-      <c r="I219" s="25" t="n">
-        <v>70.4472</v>
+        <v>567</v>
+      </c>
+      <c r="E219" s="19" t="s">
+        <v>629</v>
+      </c>
+      <c r="F219" s="18" t="n">
+        <v>-853.9897018</v>
+      </c>
+      <c r="G219" s="18" t="n">
+        <v>-853.9658123</v>
+      </c>
+      <c r="H219" s="18" t="n">
+        <v>0.02389</v>
+      </c>
+      <c r="I219" s="18" t="n">
+        <v>62.7219</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="B220" s="25" t="n">
-        <v>15</v>
-      </c>
-      <c r="C220" s="29" t="s">
-        <v>622</v>
+        <v>565</v>
+      </c>
+      <c r="B220" s="18" t="n">
+        <v>33</v>
+      </c>
+      <c r="C220" s="22" t="s">
+        <v>630</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="E220" s="26" t="s">
-        <v>623</v>
-      </c>
-      <c r="F220" s="25" t="n">
-        <v>-732.2132415</v>
-      </c>
-      <c r="G220" s="25" t="n">
-        <v>-732.1929392</v>
-      </c>
-      <c r="H220" s="25" t="n">
-        <v>0.0203</v>
-      </c>
-      <c r="I220" s="25" t="n">
-        <v>53.3037</v>
+        <v>570</v>
+      </c>
+      <c r="E220" s="19" t="s">
+        <v>631</v>
+      </c>
+      <c r="F220" s="18" t="n">
+        <v>-351.2411884</v>
+      </c>
+      <c r="G220" s="18" t="n">
+        <v>-351.2120707</v>
+      </c>
+      <c r="H220" s="18" t="n">
+        <v>0.02912</v>
+      </c>
+      <c r="I220" s="18" t="n">
+        <v>76.4485</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="B221" s="25" t="n">
-        <v>16</v>
-      </c>
-      <c r="C221" s="29" t="s">
-        <v>624</v>
+        <v>565</v>
+      </c>
+      <c r="B221" s="18" t="n">
+        <v>35</v>
+      </c>
+      <c r="C221" s="22" t="s">
+        <v>632</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="E221" s="26" t="s">
-        <v>625</v>
-      </c>
-      <c r="F221" s="25" t="n">
-        <v>-732.2136908</v>
-      </c>
-      <c r="G221" s="25" t="n">
-        <v>-732.1840098</v>
-      </c>
-      <c r="H221" s="25" t="n">
-        <v>0.02968</v>
-      </c>
-      <c r="I221" s="25" t="n">
-        <v>77.9275</v>
+        <v>570</v>
+      </c>
+      <c r="E221" s="19" t="s">
+        <v>633</v>
+      </c>
+      <c r="F221" s="18" t="n">
+        <v>-1191.805877</v>
+      </c>
+      <c r="G221" s="18" t="n">
+        <v>-1191.779087</v>
+      </c>
+      <c r="H221" s="18" t="n">
+        <v>0.02679</v>
+      </c>
+      <c r="I221" s="18" t="n">
+        <v>70.3377</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="B222" s="25" t="n">
-        <v>17</v>
-      </c>
-      <c r="C222" s="29" t="s">
-        <v>626</v>
+        <v>565</v>
+      </c>
+      <c r="B222" s="18" t="n">
+        <v>36</v>
+      </c>
+      <c r="C222" s="24" t="s">
+        <v>634</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="E222" s="26" t="s">
-        <v>627</v>
-      </c>
-      <c r="F222" s="25" t="n">
-        <v>-732.2136272</v>
-      </c>
-      <c r="G222" s="25" t="n">
-        <v>-732.1919124</v>
-      </c>
-      <c r="H222" s="25" t="n">
-        <v>0.02171</v>
-      </c>
-      <c r="I222" s="25" t="n">
-        <v>57.0122</v>
+        <v>567</v>
+      </c>
+      <c r="E222" s="19" t="s">
+        <v>635</v>
+      </c>
+      <c r="F222" s="18" t="n">
+        <v>-1191.806024</v>
+      </c>
+      <c r="G222" s="18" t="n">
+        <v>-1191.784018</v>
+      </c>
+      <c r="H222" s="18" t="n">
+        <v>0.02201</v>
+      </c>
+      <c r="I222" s="18" t="n">
+        <v>57.7763</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="B223" s="25" t="n">
-        <v>18</v>
-      </c>
-      <c r="C223" s="29" t="s">
-        <v>626</v>
+        <v>565</v>
+      </c>
+      <c r="B223" s="18" t="n">
+        <v>37</v>
+      </c>
+      <c r="C223" s="24" t="s">
+        <v>636</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="E223" s="26" t="s">
-        <v>628</v>
-      </c>
-      <c r="F223" s="25" t="n">
-        <v>-732.2136272</v>
-      </c>
-      <c r="G223" s="25" t="n">
-        <v>-732.1893553</v>
-      </c>
-      <c r="H223" s="25" t="n">
-        <v>0.02427</v>
-      </c>
-      <c r="I223" s="25" t="n">
-        <v>63.7259</v>
+        <v>637</v>
+      </c>
+      <c r="E223" s="19" t="s">
+        <v>638</v>
+      </c>
+      <c r="F223" s="18" t="n">
+        <v>-539.7745731</v>
+      </c>
+      <c r="G223" s="18" t="n">
+        <v>-539.7461483</v>
+      </c>
+      <c r="H223" s="18" t="n">
+        <v>0.02842</v>
+      </c>
+      <c r="I223" s="18" t="n">
+        <v>74.6293</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="B224" s="25" t="n">
-        <v>19</v>
-      </c>
-      <c r="C224" s="29" t="s">
-        <v>629</v>
+        <v>565</v>
+      </c>
+      <c r="B224" s="18" t="n">
+        <v>38</v>
+      </c>
+      <c r="C224" s="24" t="s">
+        <v>639</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="E224" s="26" t="s">
-        <v>630</v>
-      </c>
-      <c r="F224" s="25" t="n">
-        <v>-327.9546643</v>
-      </c>
-      <c r="G224" s="25" t="n">
-        <v>-327.9360501</v>
-      </c>
-      <c r="H224" s="25" t="n">
-        <v>0.01861</v>
-      </c>
-      <c r="I224" s="25" t="n">
-        <v>48.8716</v>
+        <v>640</v>
+      </c>
+      <c r="E224" s="19" t="s">
+        <v>641</v>
+      </c>
+      <c r="F224" s="18" t="n">
+        <v>-539.7750815</v>
+      </c>
+      <c r="G224" s="18" t="n">
+        <v>-539.7522845</v>
+      </c>
+      <c r="H224" s="18" t="n">
+        <v>0.0228</v>
+      </c>
+      <c r="I224" s="18" t="n">
+        <v>59.8535</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="B225" s="25" t="n">
-        <v>20</v>
-      </c>
-      <c r="C225" s="29" t="s">
-        <v>631</v>
+        <v>565</v>
+      </c>
+      <c r="B225" s="18" t="n">
+        <v>39</v>
+      </c>
+      <c r="C225" s="22" t="s">
+        <v>642</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="E225" s="26" t="s">
-        <v>632</v>
-      </c>
-      <c r="F225" s="25" t="n">
-        <v>-327.9562143</v>
-      </c>
-      <c r="G225" s="25" t="n">
-        <v>-327.9261283</v>
-      </c>
-      <c r="H225" s="25" t="n">
-        <v>0.03009</v>
-      </c>
-      <c r="I225" s="25" t="n">
-        <v>78.9908</v>
+        <v>570</v>
+      </c>
+      <c r="E225" s="19" t="s">
+        <v>643</v>
+      </c>
+      <c r="F225" s="18" t="n">
+        <v>-471.0894099</v>
+      </c>
+      <c r="G225" s="18" t="n">
+        <v>-471.062889</v>
+      </c>
+      <c r="H225" s="18" t="n">
+        <v>0.02652</v>
+      </c>
+      <c r="I225" s="18" t="n">
+        <v>69.6306</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="B226" s="25" t="n">
-        <v>21</v>
-      </c>
-      <c r="C226" s="29" t="s">
-        <v>633</v>
+        <v>565</v>
+      </c>
+      <c r="B226" s="18" t="n">
+        <v>40</v>
+      </c>
+      <c r="C226" s="24" t="s">
+        <v>644</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="E226" s="26" t="s">
-        <v>634</v>
-      </c>
-      <c r="F226" s="25" t="n">
-        <v>-327.957406</v>
-      </c>
-      <c r="G226" s="25" t="n">
-        <v>-327.9347197</v>
-      </c>
-      <c r="H226" s="25" t="n">
-        <v>0.02269</v>
-      </c>
-      <c r="I226" s="25" t="n">
-        <v>59.5629</v>
+        <v>567</v>
+      </c>
+      <c r="E226" s="19" t="s">
+        <v>645</v>
+      </c>
+      <c r="F226" s="18" t="n">
+        <v>-471.0898994</v>
+      </c>
+      <c r="G226" s="18" t="n">
+        <v>-471.0685658</v>
+      </c>
+      <c r="H226" s="18" t="n">
+        <v>0.02133</v>
+      </c>
+      <c r="I226" s="18" t="n">
+        <v>56.0114</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="B227" s="25" t="n">
-        <v>22</v>
-      </c>
-      <c r="C227" s="29" t="s">
-        <v>635</v>
+        <v>565</v>
+      </c>
+      <c r="B227" s="18" t="n">
+        <v>41</v>
+      </c>
+      <c r="C227" s="24" t="s">
+        <v>646</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="E227" s="26" t="s">
-        <v>636</v>
-      </c>
-      <c r="F227" s="25" t="n">
-        <v>-327.9564854</v>
-      </c>
-      <c r="G227" s="25" t="n">
-        <v>-327.9340665</v>
-      </c>
-      <c r="H227" s="25" t="n">
-        <v>0.02242</v>
-      </c>
-      <c r="I227" s="25" t="n">
-        <v>58.8608</v>
+        <v>567</v>
+      </c>
+      <c r="E227" s="19" t="s">
+        <v>647</v>
+      </c>
+      <c r="F227" s="18" t="n">
+        <v>-1191.797073</v>
+      </c>
+      <c r="G227" s="18" t="n">
+        <v>-1191.77392</v>
+      </c>
+      <c r="H227" s="18" t="n">
+        <v>0.02315</v>
+      </c>
+      <c r="I227" s="18" t="n">
+        <v>60.7887</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="B228" s="25" t="n">
-        <v>23</v>
-      </c>
-      <c r="C228" s="29" t="s">
-        <v>637</v>
+        <v>565</v>
+      </c>
+      <c r="B228" s="18" t="n">
+        <v>42</v>
+      </c>
+      <c r="C228" s="24" t="s">
+        <v>648</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="E228" s="26" t="s">
-        <v>638</v>
-      </c>
-      <c r="F228" s="25" t="n">
-        <v>-347.8227407</v>
-      </c>
-      <c r="G228" s="25" t="n">
-        <v>-347.8016165</v>
-      </c>
-      <c r="H228" s="25" t="n">
-        <v>0.02112</v>
-      </c>
-      <c r="I228" s="25" t="n">
-        <v>55.4616</v>
+        <v>567</v>
+      </c>
+      <c r="E228" s="19" t="s">
+        <v>649</v>
+      </c>
+      <c r="F228" s="18" t="n">
+        <v>-1191.797017</v>
+      </c>
+      <c r="G228" s="18" t="n">
+        <v>-1191.770623</v>
+      </c>
+      <c r="H228" s="18" t="n">
+        <v>0.02639</v>
+      </c>
+      <c r="I228" s="18" t="n">
+        <v>69.2988</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="B229" s="25" t="n">
-        <v>24</v>
-      </c>
-      <c r="C229" s="29" t="s">
-        <v>639</v>
+        <v>565</v>
+      </c>
+      <c r="B229" s="18" t="n">
+        <v>43</v>
+      </c>
+      <c r="C229" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="E229" s="26" t="s">
-        <v>640</v>
-      </c>
-      <c r="F229" s="25" t="n">
-        <v>-347.8256763</v>
-      </c>
-      <c r="G229" s="25" t="n">
-        <v>-347.7946826</v>
-      </c>
-      <c r="H229" s="25" t="n">
-        <v>0.03099</v>
-      </c>
-      <c r="I229" s="25" t="n">
-        <v>81.374</v>
+        <v>567</v>
+      </c>
+      <c r="E229" s="19" t="s">
+        <v>651</v>
+      </c>
+      <c r="F229" s="18" t="n">
+        <v>-1390.274843</v>
+      </c>
+      <c r="G229" s="18" t="n">
+        <v>-1390.243917</v>
+      </c>
+      <c r="H229" s="18" t="n">
+        <v>0.03093</v>
+      </c>
+      <c r="I229" s="18" t="n">
+        <v>81.1962</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="B230" s="25" t="n">
-        <v>25</v>
-      </c>
-      <c r="C230" s="29" t="s">
-        <v>641</v>
+        <v>565</v>
+      </c>
+      <c r="B230" s="18" t="n">
+        <v>44</v>
+      </c>
+      <c r="C230" s="24" t="s">
+        <v>652</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="E230" s="26" t="s">
-        <v>642</v>
-      </c>
-      <c r="F230" s="25" t="n">
-        <v>-347.8269093</v>
-      </c>
-      <c r="G230" s="25" t="n">
-        <v>-347.8011297</v>
-      </c>
-      <c r="H230" s="25" t="n">
-        <v>0.02578</v>
-      </c>
-      <c r="I230" s="25" t="n">
-        <v>67.6843</v>
+        <v>567</v>
+      </c>
+      <c r="E230" s="19" t="s">
+        <v>653</v>
+      </c>
+      <c r="F230" s="18" t="n">
+        <v>-1390.275578</v>
+      </c>
+      <c r="G230" s="18" t="n">
+        <v>-1390.247681</v>
+      </c>
+      <c r="H230" s="18" t="n">
+        <v>0.0279</v>
+      </c>
+      <c r="I230" s="18" t="n">
+        <v>73.2428</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="B231" s="25" t="n">
-        <v>26</v>
-      </c>
-      <c r="C231" s="29" t="s">
-        <v>643</v>
+        <v>565</v>
+      </c>
+      <c r="B231" s="18" t="n">
+        <v>45</v>
+      </c>
+      <c r="C231" s="24" t="s">
+        <v>654</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="E231" s="26" t="s">
-        <v>644</v>
-      </c>
-      <c r="F231" s="25" t="n">
-        <v>-347.8246048</v>
-      </c>
-      <c r="G231" s="25" t="n">
-        <v>-347.8005087</v>
-      </c>
-      <c r="H231" s="25" t="n">
-        <v>0.0241</v>
-      </c>
-      <c r="I231" s="25" t="n">
-        <v>63.2643</v>
+        <v>567</v>
+      </c>
+      <c r="E231" s="19" t="s">
+        <v>655</v>
+      </c>
+      <c r="F231" s="18" t="n">
+        <v>-2110.988718</v>
+      </c>
+      <c r="G231" s="18" t="n">
+        <v>-2110.95676</v>
+      </c>
+      <c r="H231" s="18" t="n">
+        <v>0.03196</v>
+      </c>
+      <c r="I231" s="18" t="n">
+        <v>83.9047</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="B232" s="25" t="n">
-        <v>27</v>
-      </c>
-      <c r="C232" s="29" t="s">
-        <v>645</v>
+        <v>565</v>
+      </c>
+      <c r="B232" s="18" t="n">
+        <v>46</v>
+      </c>
+      <c r="C232" s="24" t="s">
+        <v>656</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="E232" s="26" t="s">
-        <v>646</v>
-      </c>
-      <c r="F232" s="25" t="n">
-        <v>-371.8468272</v>
-      </c>
-      <c r="G232" s="25" t="n">
-        <v>-371.8244</v>
-      </c>
-      <c r="H232" s="25" t="n">
-        <v>0.02243</v>
-      </c>
-      <c r="I232" s="25" t="n">
-        <v>58.8826</v>
+        <v>567</v>
+      </c>
+      <c r="E232" s="19" t="s">
+        <v>657</v>
+      </c>
+      <c r="F232" s="18" t="n">
+        <v>-2110.98861</v>
+      </c>
+      <c r="G232" s="18" t="n">
+        <v>-2110.960209</v>
+      </c>
+      <c r="H232" s="18" t="n">
+        <v>0.0284</v>
+      </c>
+      <c r="I232" s="18" t="n">
+        <v>74.5676</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="B233" s="25" t="n">
-        <v>28</v>
-      </c>
-      <c r="C233" s="29" t="s">
-        <v>647</v>
-      </c>
-      <c r="D233" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="E233" s="26" t="s">
-        <v>648</v>
-      </c>
-      <c r="F233" s="25" t="n">
-        <v>-371.8500246</v>
-      </c>
-      <c r="G233" s="25" t="n">
-        <v>-371.8197268</v>
-      </c>
-      <c r="H233" s="25" t="n">
-        <v>0.0303</v>
-      </c>
-      <c r="I233" s="25" t="n">
-        <v>79.5469</v>
-      </c>
+      <c r="C233" s="25"/>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="B234" s="25" t="n">
-        <v>29</v>
-      </c>
-      <c r="C234" s="29" t="s">
-        <v>649</v>
-      </c>
-      <c r="D234" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="E234" s="26" t="s">
-        <v>650</v>
-      </c>
-      <c r="F234" s="25" t="n">
-        <v>-371.8467308</v>
-      </c>
-      <c r="G234" s="25" t="n">
-        <v>-371.8239732</v>
-      </c>
-      <c r="H234" s="25" t="n">
-        <v>0.02276</v>
-      </c>
-      <c r="I234" s="25" t="n">
-        <v>59.7501</v>
-      </c>
+      <c r="C234" s="25"/>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="B235" s="25" t="n">
-        <v>30</v>
-      </c>
-      <c r="C235" s="29" t="s">
-        <v>651</v>
-      </c>
-      <c r="D235" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="E235" s="26" t="s">
-        <v>652</v>
-      </c>
-      <c r="F235" s="25" t="n">
-        <v>-371.851172</v>
-      </c>
-      <c r="G235" s="25" t="n">
-        <v>-371.8269538</v>
-      </c>
-      <c r="H235" s="25" t="n">
-        <v>0.02422</v>
-      </c>
-      <c r="I235" s="25" t="n">
-        <v>63.5849</v>
-      </c>
-    </row>
-    <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="B236" s="25" t="n">
-        <v>31</v>
-      </c>
-      <c r="C236" s="29" t="s">
-        <v>653</v>
-      </c>
-      <c r="D236" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="E236" s="26" t="s">
-        <v>654</v>
-      </c>
-      <c r="F236" s="25" t="n">
-        <v>-853.9896523</v>
-      </c>
-      <c r="G236" s="25" t="n">
-        <v>-853.9648477</v>
-      </c>
-      <c r="H236" s="25" t="n">
-        <v>0.0248</v>
-      </c>
-      <c r="I236" s="25" t="n">
-        <v>65.1245</v>
-      </c>
-    </row>
-    <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="B237" s="25" t="n">
-        <v>32</v>
-      </c>
-      <c r="C237" s="30" t="s">
-        <v>655</v>
-      </c>
-      <c r="D237" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="E237" s="26" t="s">
-        <v>656</v>
-      </c>
-      <c r="F237" s="25" t="n">
-        <v>-853.9897018</v>
-      </c>
-      <c r="G237" s="25" t="n">
-        <v>-853.9658123</v>
-      </c>
-      <c r="H237" s="25" t="n">
-        <v>0.02389</v>
-      </c>
-      <c r="I237" s="25" t="n">
-        <v>62.7219</v>
-      </c>
-    </row>
-    <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="B238" s="25" t="n">
-        <v>33</v>
-      </c>
-      <c r="C238" s="29" t="s">
-        <v>657</v>
-      </c>
-      <c r="D238" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="E238" s="26" t="s">
-        <v>658</v>
-      </c>
-      <c r="F238" s="25" t="n">
-        <v>-351.2411884</v>
-      </c>
-      <c r="G238" s="25" t="n">
-        <v>-351.2120707</v>
-      </c>
-      <c r="H238" s="25" t="n">
-        <v>0.02912</v>
-      </c>
-      <c r="I238" s="25" t="n">
-        <v>76.4485</v>
-      </c>
-    </row>
-    <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="B239" s="25" t="n">
-        <v>35</v>
-      </c>
-      <c r="C239" s="29" t="s">
-        <v>659</v>
-      </c>
-      <c r="D239" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="E239" s="26" t="s">
-        <v>660</v>
-      </c>
-      <c r="F239" s="25" t="n">
-        <v>-1191.805877</v>
-      </c>
-      <c r="G239" s="25" t="n">
-        <v>-1191.779087</v>
-      </c>
-      <c r="H239" s="25" t="n">
-        <v>0.02679</v>
-      </c>
-      <c r="I239" s="25" t="n">
-        <v>70.3377</v>
-      </c>
-    </row>
-    <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="B240" s="25" t="n">
-        <v>36</v>
-      </c>
-      <c r="C240" s="30" t="s">
-        <v>661</v>
-      </c>
-      <c r="D240" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="E240" s="26" t="s">
-        <v>662</v>
-      </c>
-      <c r="F240" s="25" t="n">
-        <v>-1191.806024</v>
-      </c>
-      <c r="G240" s="25" t="n">
-        <v>-1191.784018</v>
-      </c>
-      <c r="H240" s="25" t="n">
-        <v>0.02201</v>
-      </c>
-      <c r="I240" s="25" t="n">
-        <v>57.7763</v>
-      </c>
-    </row>
-    <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="B241" s="25" t="n">
-        <v>37</v>
-      </c>
-      <c r="C241" s="30" t="s">
-        <v>663</v>
-      </c>
-      <c r="D241" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="E241" s="26" t="s">
-        <v>665</v>
-      </c>
-      <c r="F241" s="25" t="n">
-        <v>-539.7745731</v>
-      </c>
-      <c r="G241" s="25" t="n">
-        <v>-539.7461483</v>
-      </c>
-      <c r="H241" s="25" t="n">
-        <v>0.02842</v>
-      </c>
-      <c r="I241" s="25" t="n">
-        <v>74.6293</v>
-      </c>
-    </row>
-    <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="B242" s="25" t="n">
-        <v>38</v>
-      </c>
-      <c r="C242" s="30" t="s">
-        <v>666</v>
-      </c>
-      <c r="D242" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="E242" s="26" t="s">
-        <v>668</v>
-      </c>
-      <c r="F242" s="25" t="n">
-        <v>-539.7750815</v>
-      </c>
-      <c r="G242" s="25" t="n">
-        <v>-539.7522845</v>
-      </c>
-      <c r="H242" s="25" t="n">
-        <v>0.0228</v>
-      </c>
-      <c r="I242" s="25" t="n">
-        <v>59.8535</v>
-      </c>
-    </row>
-    <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="B243" s="25" t="n">
-        <v>39</v>
-      </c>
-      <c r="C243" s="29" t="s">
-        <v>669</v>
-      </c>
-      <c r="D243" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="E243" s="26" t="s">
-        <v>670</v>
-      </c>
-      <c r="F243" s="25" t="n">
-        <v>-471.0894099</v>
-      </c>
-      <c r="G243" s="25" t="n">
-        <v>-471.062889</v>
-      </c>
-      <c r="H243" s="25" t="n">
-        <v>0.02652</v>
-      </c>
-      <c r="I243" s="25" t="n">
-        <v>69.6306</v>
-      </c>
-    </row>
-    <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="B244" s="25" t="n">
-        <v>40</v>
-      </c>
-      <c r="C244" s="30" t="s">
-        <v>671</v>
-      </c>
-      <c r="D244" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="E244" s="26" t="s">
-        <v>672</v>
-      </c>
-      <c r="F244" s="25" t="n">
-        <v>-471.0898994</v>
-      </c>
-      <c r="G244" s="25" t="n">
-        <v>-471.0685658</v>
-      </c>
-      <c r="H244" s="25" t="n">
-        <v>0.02133</v>
-      </c>
-      <c r="I244" s="25" t="n">
-        <v>56.0114</v>
-      </c>
-    </row>
-    <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="B245" s="25" t="n">
-        <v>41</v>
-      </c>
-      <c r="C245" s="30" t="s">
-        <v>673</v>
-      </c>
-      <c r="D245" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="E245" s="26" t="s">
-        <v>674</v>
-      </c>
-      <c r="F245" s="25" t="n">
-        <v>-1191.797073</v>
-      </c>
-      <c r="G245" s="25" t="n">
-        <v>-1191.77392</v>
-      </c>
-      <c r="H245" s="25" t="n">
-        <v>0.02315</v>
-      </c>
-      <c r="I245" s="25" t="n">
-        <v>60.7887</v>
-      </c>
-    </row>
-    <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="B246" s="25" t="n">
-        <v>42</v>
-      </c>
-      <c r="C246" s="30" t="s">
-        <v>675</v>
-      </c>
-      <c r="D246" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="E246" s="26" t="s">
-        <v>676</v>
-      </c>
-      <c r="F246" s="25" t="n">
-        <v>-1191.797017</v>
-      </c>
-      <c r="G246" s="25" t="n">
-        <v>-1191.770623</v>
-      </c>
-      <c r="H246" s="25" t="n">
-        <v>0.02639</v>
-      </c>
-      <c r="I246" s="25" t="n">
-        <v>69.2988</v>
-      </c>
-    </row>
-    <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="B247" s="25" t="n">
-        <v>43</v>
-      </c>
-      <c r="C247" s="30" t="s">
-        <v>677</v>
-      </c>
-      <c r="D247" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="E247" s="26" t="s">
-        <v>678</v>
-      </c>
-      <c r="F247" s="25" t="n">
-        <v>-1390.274843</v>
-      </c>
-      <c r="G247" s="25" t="n">
-        <v>-1390.243917</v>
-      </c>
-      <c r="H247" s="25" t="n">
-        <v>0.03093</v>
-      </c>
-      <c r="I247" s="25" t="n">
-        <v>81.1962</v>
-      </c>
-    </row>
-    <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="B248" s="25" t="n">
-        <v>44</v>
-      </c>
-      <c r="C248" s="30" t="s">
-        <v>679</v>
-      </c>
-      <c r="D248" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="E248" s="26" t="s">
-        <v>680</v>
-      </c>
-      <c r="F248" s="25" t="n">
-        <v>-1390.275578</v>
-      </c>
-      <c r="G248" s="25" t="n">
-        <v>-1390.247681</v>
-      </c>
-      <c r="H248" s="25" t="n">
-        <v>0.0279</v>
-      </c>
-      <c r="I248" s="25" t="n">
-        <v>73.2428</v>
-      </c>
-    </row>
-    <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="B249" s="25" t="n">
-        <v>45</v>
-      </c>
-      <c r="C249" s="30" t="s">
-        <v>681</v>
-      </c>
-      <c r="D249" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="E249" s="26" t="s">
-        <v>682</v>
-      </c>
-      <c r="F249" s="25" t="n">
-        <v>-2110.988718</v>
-      </c>
-      <c r="G249" s="25" t="n">
-        <v>-2110.95676</v>
-      </c>
-      <c r="H249" s="25" t="n">
-        <v>0.03196</v>
-      </c>
-      <c r="I249" s="25" t="n">
-        <v>83.9047</v>
-      </c>
-    </row>
-    <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="B250" s="25" t="n">
-        <v>46</v>
-      </c>
-      <c r="C250" s="30" t="s">
-        <v>683</v>
-      </c>
-      <c r="D250" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="E250" s="26" t="s">
-        <v>684</v>
-      </c>
-      <c r="F250" s="25" t="n">
-        <v>-2110.98861</v>
-      </c>
-      <c r="G250" s="25" t="n">
-        <v>-2110.960209</v>
-      </c>
-      <c r="H250" s="25" t="n">
-        <v>0.0284</v>
-      </c>
-      <c r="I250" s="25" t="n">
-        <v>74.5676</v>
-      </c>
-    </row>
-    <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C251" s="31"/>
-    </row>
-    <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C252" s="31"/>
-    </row>
-    <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C253" s="31"/>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="C235" s="25"/>
+    </row>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>

--- a/data/barriers.xlsx
+++ b/data/barriers.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="696">
   <si>
     <t xml:space="preserve">group</t>
   </si>
@@ -1994,6 +1994,120 @@
   </si>
   <si>
     <t xml:space="preserve">16+1,2,3,4-tetrachlorocyclopropene Exo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L_r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10,13,6,8,4,2, 21, 24, 25, 32, 20, 28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["c2","c4","c8","c6","c13","c10"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c5-Br-syn-ethylene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10,13,6,8,4,2, 21, 24, 25, 33, 20, 28 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">c5-Cl-syn-ethylene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10,13,6,8,4,2, 22, 25, 26, 36, 21, 29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c5-F-syn-ethylene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10,13,6,8,4,2, 24, 27, 28, 36, 23, 31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c5-Me-syn-ethylene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10,13,6,8,4,2, 23, 26, 27, 36, 22, 34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c5-NH2-syn-ethylene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10,13,6,8,4,2, 23, 26, 28, 35, 22, 27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c5-OH-syn-ethylene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10,13,6,8,4,2, 22, 25, 26, 34, 21, 29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c5-SH-syn-ethylene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10,13,6,8,4,2, 24, 27, 28, 38, 33, 41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c5-SiH3-syn-ethylene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11,14,7,9,5,3, 22, 25, 27, 36, 21, 34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["c3","c5","c9","c7","c14","c11"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c5-Br-anti-ethylene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11,14,7,9,5,3, 22, 25, 26, 36, 21, 34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c5-Cl-anti-ethylene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11,14,7,9,5,3, 22, 25, 26, 36, 19, 34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c5-F-anti-ethylene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11,14,7,9,5,3, 25, 28, 29, 39, 22, 32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c5-Me-anti-ethylene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11,14,7,9,5,3, 24, 27, 28, 38, 21, 36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c5-NH2-anti-ethylene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11,14,7,9,5,3, 23, 26, 27, 37, 20, 35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c5-OH-anti-ethylene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11,13,7,9,5,3, 23, 26, 27, 36, 22, 31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["c3","c5","c9","c7","c13","c11"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c5-SH-anti-ethylene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11,14,7,9,5,3, 25, 28, 29, 39, 24, 32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c5-SiH3-anti-ethylene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11,14,7,9,5,3, 23, 26, 28, 36, 22, 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c5-H ethylene</t>
   </si>
 </sst>
 </file>
@@ -2166,7 +2280,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2267,10 +2381,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2350,8 +2460,8 @@
   </sheetPr>
   <dimension ref="A1:M1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A66" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A84" activeCellId="0" sqref="A84"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A207" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A226" activeCellId="0" sqref="A226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9162,14 +9272,498 @@
         <v>74.5676</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C233" s="25"/>
-    </row>
-    <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C234" s="25"/>
-    </row>
-    <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C235" s="25"/>
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B233" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="E233" s="19" t="s">
+        <v>661</v>
+      </c>
+      <c r="F233" s="18" t="n">
+        <v>-2843.794424</v>
+      </c>
+      <c r="G233" s="18" t="n">
+        <v>-2843.760853</v>
+      </c>
+      <c r="H233" s="18" t="n">
+        <v>0.033571</v>
+      </c>
+      <c r="I233" s="18" t="n">
+        <v>88.1407</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B234" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="E234" s="19" t="s">
+        <v>663</v>
+      </c>
+      <c r="F234" s="18" t="n">
+        <v>-732.2803886</v>
+      </c>
+      <c r="G234" s="18" t="n">
+        <v>-732.2500126</v>
+      </c>
+      <c r="H234" s="18" t="n">
+        <v>0.030376</v>
+      </c>
+      <c r="I234" s="18" t="n">
+        <v>79.7522</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B235" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="E235" s="19" t="s">
+        <v>665</v>
+      </c>
+      <c r="F235" s="18" t="n">
+        <v>-371.9123527</v>
+      </c>
+      <c r="G235" s="18" t="n">
+        <v>-371.888354</v>
+      </c>
+      <c r="H235" s="18" t="n">
+        <v>0.0239987</v>
+      </c>
+      <c r="I235" s="18" t="n">
+        <v>63.0086</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B236" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="E236" s="19" t="s">
+        <v>667</v>
+      </c>
+      <c r="F236" s="18" t="n">
+        <v>-312.0045016</v>
+      </c>
+      <c r="G236" s="18" t="n">
+        <v>-311.9682761</v>
+      </c>
+      <c r="H236" s="18" t="n">
+        <v>0.0362255</v>
+      </c>
+      <c r="I236" s="18" t="n">
+        <v>95.1101</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B237" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="E237" s="19" t="s">
+        <v>669</v>
+      </c>
+      <c r="F237" s="18" t="n">
+        <v>-328.0301972</v>
+      </c>
+      <c r="G237" s="18" t="n">
+        <v>-327.9978246</v>
+      </c>
+      <c r="H237" s="18" t="n">
+        <v>0.0323726</v>
+      </c>
+      <c r="I237" s="18" t="n">
+        <v>84.9943</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B238" s="18" t="n">
+        <v>6</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="E238" s="19" t="s">
+        <v>671</v>
+      </c>
+      <c r="F238" s="18" t="n">
+        <v>-347.8957185</v>
+      </c>
+      <c r="G238" s="18" t="n">
+        <v>-347.8643236</v>
+      </c>
+      <c r="H238" s="18" t="n">
+        <v>0.0313949</v>
+      </c>
+      <c r="I238" s="18" t="n">
+        <v>82.4273</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B239" s="18" t="n">
+        <v>7</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="E239" s="19" t="s">
+        <v>673</v>
+      </c>
+      <c r="F239" s="18" t="n">
+        <v>-670.8706523</v>
+      </c>
+      <c r="G239" s="18" t="n">
+        <v>-670.8371049</v>
+      </c>
+      <c r="H239" s="18" t="n">
+        <v>0.0335474</v>
+      </c>
+      <c r="I239" s="18" t="n">
+        <v>88.0787</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B240" s="18" t="n">
+        <v>8</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="E240" s="19" t="s">
+        <v>675</v>
+      </c>
+      <c r="F240" s="18" t="n">
+        <v>-563.3882448</v>
+      </c>
+      <c r="G240" s="18" t="n">
+        <v>-563.3431414</v>
+      </c>
+      <c r="H240" s="18" t="n">
+        <v>0.0451034</v>
+      </c>
+      <c r="I240" s="18" t="n">
+        <v>118.419</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B241" s="18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="E241" s="19" t="s">
+        <v>678</v>
+      </c>
+      <c r="F241" s="18" t="n">
+        <v>-2843.793175</v>
+      </c>
+      <c r="G241" s="18" t="n">
+        <v>-2843.762039</v>
+      </c>
+      <c r="H241" s="18" t="n">
+        <v>0.0311361</v>
+      </c>
+      <c r="I241" s="18" t="n">
+        <v>81.7478</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B242" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="E242" s="19" t="s">
+        <v>680</v>
+      </c>
+      <c r="F242" s="18" t="n">
+        <v>-732.281414</v>
+      </c>
+      <c r="G242" s="18" t="n">
+        <v>-732.2499837</v>
+      </c>
+      <c r="H242" s="18" t="n">
+        <v>0.0314303</v>
+      </c>
+      <c r="I242" s="18" t="n">
+        <v>82.5203</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B243" s="18" t="n">
+        <v>11</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="E243" s="19" t="s">
+        <v>682</v>
+      </c>
+      <c r="F243" s="18" t="n">
+        <v>-371.9103278</v>
+      </c>
+      <c r="G243" s="18" t="n">
+        <v>-371.8795681</v>
+      </c>
+      <c r="H243" s="18" t="n">
+        <v>0.0307597</v>
+      </c>
+      <c r="I243" s="18" t="n">
+        <v>80.7596</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B244" s="18" t="n">
+        <v>12</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="E244" s="19" t="s">
+        <v>684</v>
+      </c>
+      <c r="F244" s="18" t="n">
+        <v>-312.0042981</v>
+      </c>
+      <c r="G244" s="18" t="n">
+        <v>-311.9692874</v>
+      </c>
+      <c r="H244" s="18" t="n">
+        <v>0.0350107</v>
+      </c>
+      <c r="I244" s="18" t="n">
+        <v>91.9206</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B245" s="18" t="n">
+        <v>13</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="E245" s="19" t="s">
+        <v>686</v>
+      </c>
+      <c r="F245" s="18" t="n">
+        <v>-328.0286427</v>
+      </c>
+      <c r="G245" s="18" t="n">
+        <v>-327.9952322</v>
+      </c>
+      <c r="H245" s="18" t="n">
+        <v>0.0334105</v>
+      </c>
+      <c r="I245" s="18" t="n">
+        <v>87.7193</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B246" s="18" t="n">
+        <v>14</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="E246" s="19" t="s">
+        <v>688</v>
+      </c>
+      <c r="F246" s="18" t="n">
+        <v>-347.8917703</v>
+      </c>
+      <c r="G246" s="18" t="n">
+        <v>-347.8604927</v>
+      </c>
+      <c r="H246" s="18" t="n">
+        <v>0.0312776</v>
+      </c>
+      <c r="I246" s="18" t="n">
+        <v>82.1193</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B247" s="18" t="n">
+        <v>15</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="E247" s="19" t="s">
+        <v>691</v>
+      </c>
+      <c r="F247" s="18" t="n">
+        <v>-670.8733357</v>
+      </c>
+      <c r="G247" s="18" t="n">
+        <v>-670.8394733</v>
+      </c>
+      <c r="H247" s="18" t="n">
+        <v>0.0338624</v>
+      </c>
+      <c r="I247" s="18" t="n">
+        <v>88.9057</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B248" s="18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="E248" s="19" t="s">
+        <v>693</v>
+      </c>
+      <c r="F248" s="18" t="n">
+        <v>-563.3890265</v>
+      </c>
+      <c r="G248" s="18" t="n">
+        <v>-563.3526417</v>
+      </c>
+      <c r="H248" s="18" t="n">
+        <v>0.0363848</v>
+      </c>
+      <c r="I248" s="18" t="n">
+        <v>95.5283</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B249" s="18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="E249" s="19" t="s">
+        <v>695</v>
+      </c>
+      <c r="F249" s="18" t="n">
+        <v>-272.6903599</v>
+      </c>
+      <c r="G249" s="18" t="n">
+        <v>-272.6567733</v>
+      </c>
+      <c r="H249" s="18" t="n">
+        <v>0.0335866</v>
+      </c>
+      <c r="I249" s="18" t="n">
+        <v>88.1816</v>
+      </c>
     </row>
     <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/data/barriers.xlsx
+++ b/data/barriers.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="800">
   <si>
     <t xml:space="preserve">group</t>
   </si>
@@ -2108,6 +2108,318 @@
   </si>
   <si>
     <t xml:space="preserve">c5-H ethylene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_1a-1u</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5,18,20,30,23,16,60,59,56,48,53,53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["c16","c23","c30","c20","c18","c5"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TS1/1a uncatalyzed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_1b-1u</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,1,10,9,5,6,24,29,32,31,30,20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["c6","c5","c9","c10","c1","c2"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TS1/1b uncatalyzed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_5a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,1,5,7,8,6,27, 24, 23,18,17,17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["c6","c8","c7","c5","c1","c2"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cyclohexene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_5b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,2,5,7,8,6,20,24,23,18,30,30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["c6","c8","c7","c5","c2","c1"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-bromo-cyclohexene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_5c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,1,5,7,8,6,25, 24,23, 18,19,19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-chloro-cyclohexene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_5d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,1,5,7,8,6,24,25,23,18,21,21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-fluoro-cyclohexene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_6a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5,4,3,7,14,6,35,36,29,24,26,20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["c6","c14","c8","c3","c4","c5"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">norbornene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_6b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5,4,3,8,13,6,33,34,26,23,24,21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["c6","c13","c8","c3","c4","c5"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-bromo-bicyclo[2.2.1]hept-2-ene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_6c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5,4,3,8,13,6,32,33,27,24,20,22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-chloro-bicyclo[2.2.1]hept-2-ene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_6d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4,2,3,5,1,6,24,22,23,19,18,20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["c6","c1","c5","c3","c2","c4"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-fluoro-bicyclo[2.2.1]hept-2-ene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_1a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5,3,7,2,6,4,22,21,25,20,17,17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["c4","c6","c2","c7","c3","c5"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-oxa-bixyclo[2.2.1]hept-2-ene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_1b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5,3,7,2,6,4,24,25,26,23,17,18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-bromo-7-oxa-bicyclo[2.2.1]hept-2-ene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_1c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,8,6,5,4,3,22,23,19,26,20,20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["c3","c4","c5","c6","c8","c2"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-chloro-7-oxa-bicyclo[2.2.1]hept-2-ene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_1d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,5,4,6,2,7,18,23,24,21,17,17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["c7","c2","c6","c4","c5","c3"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-fluoro-7-oxa-bicyclo[2.2.1]hept-2-ene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_7b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,1,5,7,8,6,24,25,23,17,18,18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-bromo-cyclohexene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_7c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,1,5,7,8,6,24,25,23,18,17,17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-chloro-cyclohexene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_7d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,1,5,7,8,6,26,24,23,18,17,17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-fluoro-cyclohexene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_8b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5,4,3,8,13,6,33,32,35,23,18,22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-bromo-bicyclo[2.2.1]hept-2-ene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_8c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5,4,3,8,13,6,34,35,28,25,18,24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-chloro-bicyclo[2.2.1]hept-2-ene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_8d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,4,3,5,1,6,24,22,23,19,18,20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["c6","c1","c5","c3","c4","c2"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-fluoro-bicyclo[2.2.1]hept-2-ene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_2b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,5,4,6,2,7,25,16,23,21,17,28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-bromo-7-oxa-bicyclo[2.2.1]hept-2-ene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_2c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8,2,6,5,4,3, 20,16,19,25,17,28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["c3","c4","c5","c6","c2","c8"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-chloro-7-oxa-bicyclo[2.2.1]hept-2-ene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_2d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,5,4,6,2,7,25,20,24,23,17,18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-fluoro-7-oxa-bicyclo[2.2.1]hept-2-ene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_3b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8,10,6,5,4,3,24,21,19,31,20,28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["c3","c4","c5","c6","c10","c8"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-methyl-7-oxa-bicyclo[2.2.1]hept-2-ene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_3c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,5,4,6,2,7,29,25,26,24,19,19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-trifluoromethyl-7-oxa-bicyclo[2.2.1]hept-2-ene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_3d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7,9,3,4,5,6,21,22,24,31,20,28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["c6","c5","c4","c3","c9","c7"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-methoxy-7-oxz-bicyclo[2.2.1]hept-2-ene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_4b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10,8,3,4,5,6,19,20,23,33,21,27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["c6","c5","c4","c3","c8","c10"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-methyl-7-oxa-bicyclo[2.2.1]hept-2-ene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_4c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5,3,7,2,6,4,26,25,27,24,19,21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-trifluoromethyl-7-oxa-bicyclo[2.2.1]hept-2-ene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_4d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7,9,3,4,5,6,21,22,25,31,20,27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-methoxy-7-oxz-bicyclo[2.2.1]hept-2-ene</t>
   </si>
 </sst>
 </file>
@@ -2280,7 +2592,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2381,6 +2693,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2460,11 +2776,11 @@
   </sheetPr>
   <dimension ref="A1:M1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A207" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A226" activeCellId="0" sqref="A226"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A231" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C265" activeCellId="0" sqref="C265"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="51.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="50"/>
@@ -9763,6 +10079,847 @@
       </c>
       <c r="I249" s="18" t="n">
         <v>88.1816</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="25" t="s">
+        <v>696</v>
+      </c>
+      <c r="B250" s="25" t="s">
+        <v>697</v>
+      </c>
+      <c r="C250" s="25" t="s">
+        <v>698</v>
+      </c>
+      <c r="D250" s="25" t="s">
+        <v>699</v>
+      </c>
+      <c r="E250" s="25" t="s">
+        <v>700</v>
+      </c>
+      <c r="F250" s="25" t="n">
+        <v>-1071.637269</v>
+      </c>
+      <c r="G250" s="25" t="n">
+        <v>-1071.610335</v>
+      </c>
+      <c r="H250" s="25" t="n">
+        <v>0.0269344</v>
+      </c>
+      <c r="I250" s="25" t="n">
+        <v>70.7163</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="25" t="s">
+        <v>696</v>
+      </c>
+      <c r="B251" s="25" t="s">
+        <v>701</v>
+      </c>
+      <c r="C251" s="25" t="s">
+        <v>702</v>
+      </c>
+      <c r="D251" s="25" t="s">
+        <v>703</v>
+      </c>
+      <c r="E251" s="25" t="s">
+        <v>704</v>
+      </c>
+      <c r="F251" s="25" t="n">
+        <v>-477.1910868</v>
+      </c>
+      <c r="G251" s="25" t="n">
+        <v>-477.1697146</v>
+      </c>
+      <c r="H251" s="25" t="n">
+        <v>0.0213722</v>
+      </c>
+      <c r="I251" s="25" t="n">
+        <v>56.1127</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="25" t="s">
+        <v>705</v>
+      </c>
+      <c r="B252" s="25" t="s">
+        <v>706</v>
+      </c>
+      <c r="C252" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="D252" s="25" t="s">
+        <v>708</v>
+      </c>
+      <c r="E252" s="25" t="s">
+        <v>709</v>
+      </c>
+      <c r="F252" s="25" t="n">
+        <v>-234.5748885</v>
+      </c>
+      <c r="G252" s="25" t="n">
+        <v>-234.5438975</v>
+      </c>
+      <c r="H252" s="25" t="n">
+        <v>0.030991</v>
+      </c>
+      <c r="I252" s="25" t="n">
+        <v>81.3669</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="25" t="s">
+        <v>705</v>
+      </c>
+      <c r="B253" s="25" t="s">
+        <v>710</v>
+      </c>
+      <c r="C253" s="25" t="s">
+        <v>711</v>
+      </c>
+      <c r="D253" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="E253" s="25" t="s">
+        <v>713</v>
+      </c>
+      <c r="F253" s="25" t="n">
+        <v>-2805.683017</v>
+      </c>
+      <c r="G253" s="25" t="n">
+        <v>-2805.650074</v>
+      </c>
+      <c r="H253" s="25" t="n">
+        <v>0.0329431</v>
+      </c>
+      <c r="I253" s="25" t="n">
+        <v>86.4921</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="25" t="s">
+        <v>705</v>
+      </c>
+      <c r="B254" s="25" t="s">
+        <v>714</v>
+      </c>
+      <c r="C254" s="25" t="s">
+        <v>715</v>
+      </c>
+      <c r="D254" s="25" t="s">
+        <v>708</v>
+      </c>
+      <c r="E254" s="25" t="s">
+        <v>716</v>
+      </c>
+      <c r="F254" s="25" t="n">
+        <v>-694.1734437</v>
+      </c>
+      <c r="G254" s="25" t="n">
+        <v>-694.1412771</v>
+      </c>
+      <c r="H254" s="25" t="n">
+        <v>0.0321666</v>
+      </c>
+      <c r="I254" s="25" t="n">
+        <v>84.4534</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="25" t="s">
+        <v>705</v>
+      </c>
+      <c r="B255" s="25" t="s">
+        <v>717</v>
+      </c>
+      <c r="C255" s="25" t="s">
+        <v>718</v>
+      </c>
+      <c r="D255" s="25" t="s">
+        <v>708</v>
+      </c>
+      <c r="E255" s="25" t="s">
+        <v>719</v>
+      </c>
+      <c r="F255" s="25" t="n">
+        <v>-333.8083965</v>
+      </c>
+      <c r="G255" s="25" t="n">
+        <v>-333.7755486</v>
+      </c>
+      <c r="H255" s="25" t="n">
+        <v>0.0328479</v>
+      </c>
+      <c r="I255" s="25" t="n">
+        <v>86.2422</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="25" t="s">
+        <v>705</v>
+      </c>
+      <c r="B256" s="25" t="s">
+        <v>720</v>
+      </c>
+      <c r="C256" s="25" t="s">
+        <v>721</v>
+      </c>
+      <c r="D256" s="25" t="s">
+        <v>722</v>
+      </c>
+      <c r="E256" s="25" t="s">
+        <v>723</v>
+      </c>
+      <c r="F256" s="25" t="n">
+        <v>-272.6903595</v>
+      </c>
+      <c r="G256" s="25" t="n">
+        <v>-272.6567738</v>
+      </c>
+      <c r="H256" s="25" t="n">
+        <v>0.0335857</v>
+      </c>
+      <c r="I256" s="25" t="n">
+        <v>88.1793</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="25" t="s">
+        <v>705</v>
+      </c>
+      <c r="B257" s="25" t="s">
+        <v>724</v>
+      </c>
+      <c r="C257" s="25" t="s">
+        <v>725</v>
+      </c>
+      <c r="D257" s="25" t="s">
+        <v>726</v>
+      </c>
+      <c r="E257" s="25" t="s">
+        <v>727</v>
+      </c>
+      <c r="F257" s="25" t="n">
+        <v>-2843.797701</v>
+      </c>
+      <c r="G257" s="25" t="n">
+        <v>-2843.763229</v>
+      </c>
+      <c r="H257" s="25" t="n">
+        <v>0.034472</v>
+      </c>
+      <c r="I257" s="25" t="n">
+        <v>90.5062</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="25" t="s">
+        <v>705</v>
+      </c>
+      <c r="B258" s="25" t="s">
+        <v>728</v>
+      </c>
+      <c r="C258" s="25" t="s">
+        <v>729</v>
+      </c>
+      <c r="D258" s="25" t="s">
+        <v>726</v>
+      </c>
+      <c r="E258" s="25" t="s">
+        <v>730</v>
+      </c>
+      <c r="F258" s="25" t="n">
+        <v>-732.287377</v>
+      </c>
+      <c r="G258" s="25" t="n">
+        <v>-732.2536879</v>
+      </c>
+      <c r="H258" s="25" t="n">
+        <v>0.0336891</v>
+      </c>
+      <c r="I258" s="25" t="n">
+        <v>88.4507</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="25" t="s">
+        <v>705</v>
+      </c>
+      <c r="B259" s="25" t="s">
+        <v>731</v>
+      </c>
+      <c r="C259" s="25" t="s">
+        <v>732</v>
+      </c>
+      <c r="D259" s="25" t="s">
+        <v>733</v>
+      </c>
+      <c r="E259" s="25" t="s">
+        <v>734</v>
+      </c>
+      <c r="F259" s="25" t="n">
+        <v>-371.922374</v>
+      </c>
+      <c r="G259" s="25" t="n">
+        <v>-371.8889983</v>
+      </c>
+      <c r="H259" s="25" t="n">
+        <v>0.0333757</v>
+      </c>
+      <c r="I259" s="25" t="n">
+        <v>87.6279</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="25" t="s">
+        <v>705</v>
+      </c>
+      <c r="B260" s="25" t="s">
+        <v>735</v>
+      </c>
+      <c r="C260" s="25" t="s">
+        <v>736</v>
+      </c>
+      <c r="D260" s="25" t="s">
+        <v>737</v>
+      </c>
+      <c r="E260" s="25" t="s">
+        <v>738</v>
+      </c>
+      <c r="F260" s="25" t="n">
+        <v>-308.6091716</v>
+      </c>
+      <c r="G260" s="25" t="n">
+        <v>-308.5681333</v>
+      </c>
+      <c r="H260" s="25" t="n">
+        <v>0.0410383</v>
+      </c>
+      <c r="I260" s="25" t="n">
+        <v>107.746</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="25" t="s">
+        <v>705</v>
+      </c>
+      <c r="B261" s="25" t="s">
+        <v>739</v>
+      </c>
+      <c r="C261" s="25" t="s">
+        <v>740</v>
+      </c>
+      <c r="D261" s="25" t="s">
+        <v>737</v>
+      </c>
+      <c r="E261" s="25" t="s">
+        <v>741</v>
+      </c>
+      <c r="F261" s="25" t="n">
+        <v>-2879.710318</v>
+      </c>
+      <c r="G261" s="25" t="n">
+        <v>-2879.669474</v>
+      </c>
+      <c r="H261" s="25" t="n">
+        <v>0.0408445</v>
+      </c>
+      <c r="I261" s="25" t="n">
+        <v>107.237</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="25" t="s">
+        <v>705</v>
+      </c>
+      <c r="B262" s="25" t="s">
+        <v>742</v>
+      </c>
+      <c r="C262" s="25" t="s">
+        <v>743</v>
+      </c>
+      <c r="D262" s="25" t="s">
+        <v>744</v>
+      </c>
+      <c r="E262" s="25" t="s">
+        <v>745</v>
+      </c>
+      <c r="F262" s="25" t="n">
+        <v>-768.2018113</v>
+      </c>
+      <c r="G262" s="25" t="n">
+        <v>-768.1610038</v>
+      </c>
+      <c r="H262" s="25" t="n">
+        <v>0.0408075</v>
+      </c>
+      <c r="I262" s="25" t="n">
+        <v>107.14</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="25" t="s">
+        <v>705</v>
+      </c>
+      <c r="B263" s="25" t="s">
+        <v>746</v>
+      </c>
+      <c r="C263" s="25" t="s">
+        <v>747</v>
+      </c>
+      <c r="D263" s="25" t="s">
+        <v>748</v>
+      </c>
+      <c r="E263" s="25" t="s">
+        <v>749</v>
+      </c>
+      <c r="F263" s="25" t="n">
+        <v>-407.8390173</v>
+      </c>
+      <c r="G263" s="25" t="n">
+        <v>-407.8012972</v>
+      </c>
+      <c r="H263" s="25" t="n">
+        <v>0.0377201</v>
+      </c>
+      <c r="I263" s="25" t="n">
+        <v>99.0341</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="25" t="s">
+        <v>705</v>
+      </c>
+      <c r="B264" s="25" t="s">
+        <v>750</v>
+      </c>
+      <c r="C264" s="25" t="s">
+        <v>751</v>
+      </c>
+      <c r="D264" s="25" t="s">
+        <v>708</v>
+      </c>
+      <c r="E264" s="25" t="s">
+        <v>752</v>
+      </c>
+      <c r="F264" s="25" t="n">
+        <v>-2805.681529</v>
+      </c>
+      <c r="G264" s="25" t="n">
+        <v>-2805.65087</v>
+      </c>
+      <c r="H264" s="25" t="n">
+        <v>0.030659</v>
+      </c>
+      <c r="I264" s="25" t="n">
+        <v>80.4952</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="25" t="s">
+        <v>705</v>
+      </c>
+      <c r="B265" s="25" t="s">
+        <v>753</v>
+      </c>
+      <c r="C265" s="25" t="s">
+        <v>754</v>
+      </c>
+      <c r="D265" s="25" t="s">
+        <v>708</v>
+      </c>
+      <c r="E265" s="25" t="s">
+        <v>755</v>
+      </c>
+      <c r="F265" s="25" t="n">
+        <v>-694.172949</v>
+      </c>
+      <c r="G265" s="25" t="n">
+        <v>-694.1420027</v>
+      </c>
+      <c r="H265" s="25" t="n">
+        <v>0.0309463</v>
+      </c>
+      <c r="I265" s="25" t="n">
+        <v>81.2495</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="25" t="s">
+        <v>705</v>
+      </c>
+      <c r="B266" s="25" t="s">
+        <v>756</v>
+      </c>
+      <c r="C266" s="25" t="s">
+        <v>757</v>
+      </c>
+      <c r="D266" s="25" t="s">
+        <v>708</v>
+      </c>
+      <c r="E266" s="25" t="s">
+        <v>758</v>
+      </c>
+      <c r="F266" s="25" t="n">
+        <v>-333.8113057</v>
+      </c>
+      <c r="G266" s="25" t="n">
+        <v>-333.778483</v>
+      </c>
+      <c r="H266" s="25" t="n">
+        <v>0.0328227</v>
+      </c>
+      <c r="I266" s="25" t="n">
+        <v>86.176</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="25" t="s">
+        <v>705</v>
+      </c>
+      <c r="B267" s="25" t="s">
+        <v>759</v>
+      </c>
+      <c r="C267" s="25" t="s">
+        <v>760</v>
+      </c>
+      <c r="D267" s="25" t="s">
+        <v>726</v>
+      </c>
+      <c r="E267" s="25" t="s">
+        <v>761</v>
+      </c>
+      <c r="F267" s="25" t="n">
+        <v>-2843.797443</v>
+      </c>
+      <c r="G267" s="25" t="n">
+        <v>-2843.76391</v>
+      </c>
+      <c r="H267" s="25" t="n">
+        <v>0.033533</v>
+      </c>
+      <c r="I267" s="25" t="n">
+        <v>88.0409</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="25" t="s">
+        <v>705</v>
+      </c>
+      <c r="B268" s="25" t="s">
+        <v>762</v>
+      </c>
+      <c r="C268" s="25" t="s">
+        <v>763</v>
+      </c>
+      <c r="D268" s="25" t="s">
+        <v>726</v>
+      </c>
+      <c r="E268" s="25" t="s">
+        <v>764</v>
+      </c>
+      <c r="F268" s="25" t="n">
+        <v>-732.2875306</v>
+      </c>
+      <c r="G268" s="25" t="n">
+        <v>-732.2549614</v>
+      </c>
+      <c r="H268" s="25" t="n">
+        <v>0.0325692</v>
+      </c>
+      <c r="I268" s="25" t="n">
+        <v>85.5104</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="25" t="s">
+        <v>705</v>
+      </c>
+      <c r="B269" s="25" t="s">
+        <v>765</v>
+      </c>
+      <c r="C269" s="25" t="s">
+        <v>766</v>
+      </c>
+      <c r="D269" s="25" t="s">
+        <v>767</v>
+      </c>
+      <c r="E269" s="25" t="s">
+        <v>768</v>
+      </c>
+      <c r="F269" s="25" t="n">
+        <v>-371.9225382</v>
+      </c>
+      <c r="G269" s="25" t="n">
+        <v>-371.8891379</v>
+      </c>
+      <c r="H269" s="25" t="n">
+        <v>0.0334003</v>
+      </c>
+      <c r="I269" s="25" t="n">
+        <v>87.6925</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="25" t="s">
+        <v>705</v>
+      </c>
+      <c r="B270" s="25" t="s">
+        <v>769</v>
+      </c>
+      <c r="C270" s="25" t="s">
+        <v>770</v>
+      </c>
+      <c r="D270" s="25" t="s">
+        <v>748</v>
+      </c>
+      <c r="E270" s="25" t="s">
+        <v>771</v>
+      </c>
+      <c r="F270" s="25" t="n">
+        <v>-2879.712198</v>
+      </c>
+      <c r="G270" s="25" t="n">
+        <v>-2879.671526</v>
+      </c>
+      <c r="H270" s="25" t="n">
+        <v>0.0406725</v>
+      </c>
+      <c r="I270" s="25" t="n">
+        <v>106.786</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="25" t="s">
+        <v>705</v>
+      </c>
+      <c r="B271" s="25" t="s">
+        <v>772</v>
+      </c>
+      <c r="C271" s="25" t="s">
+        <v>773</v>
+      </c>
+      <c r="D271" s="25" t="s">
+        <v>774</v>
+      </c>
+      <c r="E271" s="25" t="s">
+        <v>775</v>
+      </c>
+      <c r="F271" s="25" t="n">
+        <v>-768.2015348</v>
+      </c>
+      <c r="G271" s="25" t="n">
+        <v>-768.1622008</v>
+      </c>
+      <c r="H271" s="25" t="n">
+        <v>0.039334</v>
+      </c>
+      <c r="I271" s="25" t="n">
+        <v>103.271</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="25" t="s">
+        <v>705</v>
+      </c>
+      <c r="B272" s="25" t="s">
+        <v>776</v>
+      </c>
+      <c r="C272" s="25" t="s">
+        <v>777</v>
+      </c>
+      <c r="D272" s="25" t="s">
+        <v>748</v>
+      </c>
+      <c r="E272" s="25" t="s">
+        <v>778</v>
+      </c>
+      <c r="F272" s="25" t="n">
+        <v>-407.8339566</v>
+      </c>
+      <c r="G272" s="25" t="n">
+        <v>-407.7943974</v>
+      </c>
+      <c r="H272" s="25" t="n">
+        <v>0.0395592</v>
+      </c>
+      <c r="I272" s="25" t="n">
+        <v>103.863</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="25" t="s">
+        <v>705</v>
+      </c>
+      <c r="B273" s="25" t="s">
+        <v>779</v>
+      </c>
+      <c r="C273" s="25" t="s">
+        <v>780</v>
+      </c>
+      <c r="D273" s="25" t="s">
+        <v>781</v>
+      </c>
+      <c r="E273" s="25" t="s">
+        <v>782</v>
+      </c>
+      <c r="F273" s="25" t="n">
+        <v>-347.9334203</v>
+      </c>
+      <c r="G273" s="25" t="n">
+        <v>-347.889914</v>
+      </c>
+      <c r="H273" s="25" t="n">
+        <v>0.0435063</v>
+      </c>
+      <c r="I273" s="25" t="n">
+        <v>114.226</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="25" t="s">
+        <v>705</v>
+      </c>
+      <c r="B274" s="25" t="s">
+        <v>783</v>
+      </c>
+      <c r="C274" s="25" t="s">
+        <v>784</v>
+      </c>
+      <c r="D274" s="25" t="s">
+        <v>748</v>
+      </c>
+      <c r="E274" s="25" t="s">
+        <v>785</v>
+      </c>
+      <c r="F274" s="25" t="n">
+        <v>-645.6460895</v>
+      </c>
+      <c r="G274" s="25" t="n">
+        <v>-645.6052173</v>
+      </c>
+      <c r="H274" s="25" t="n">
+        <v>0.0408722</v>
+      </c>
+      <c r="I274" s="25" t="n">
+        <v>107.31</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="25" t="s">
+        <v>705</v>
+      </c>
+      <c r="B275" s="25" t="s">
+        <v>786</v>
+      </c>
+      <c r="C275" s="25" t="s">
+        <v>787</v>
+      </c>
+      <c r="D275" s="25" t="s">
+        <v>788</v>
+      </c>
+      <c r="E275" s="25" t="s">
+        <v>789</v>
+      </c>
+      <c r="F275" s="25" t="n">
+        <v>-423.1317012</v>
+      </c>
+      <c r="G275" s="25" t="n">
+        <v>-423.0920282</v>
+      </c>
+      <c r="H275" s="25" t="n">
+        <v>0.039673</v>
+      </c>
+      <c r="I275" s="25" t="n">
+        <v>104.161</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="25" t="s">
+        <v>705</v>
+      </c>
+      <c r="B276" s="25" t="s">
+        <v>790</v>
+      </c>
+      <c r="C276" s="25" t="s">
+        <v>791</v>
+      </c>
+      <c r="D276" s="25" t="s">
+        <v>792</v>
+      </c>
+      <c r="E276" s="25" t="s">
+        <v>793</v>
+      </c>
+      <c r="F276" s="25" t="n">
+        <v>-347.9286926</v>
+      </c>
+      <c r="G276" s="25" t="n">
+        <v>-347.8879189</v>
+      </c>
+      <c r="H276" s="25" t="n">
+        <v>0.0407737</v>
+      </c>
+      <c r="I276" s="25" t="n">
+        <v>107.051</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="25" t="s">
+        <v>705</v>
+      </c>
+      <c r="B277" s="25" t="s">
+        <v>794</v>
+      </c>
+      <c r="C277" s="25" t="s">
+        <v>795</v>
+      </c>
+      <c r="D277" s="25" t="s">
+        <v>737</v>
+      </c>
+      <c r="E277" s="25" t="s">
+        <v>796</v>
+      </c>
+      <c r="F277" s="25" t="n">
+        <v>-645.6479835</v>
+      </c>
+      <c r="G277" s="25" t="n">
+        <v>-645.6073358</v>
+      </c>
+      <c r="H277" s="25" t="n">
+        <v>0.0406477</v>
+      </c>
+      <c r="I277" s="25" t="n">
+        <v>106.721</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="25" t="s">
+        <v>705</v>
+      </c>
+      <c r="B278" s="25" t="s">
+        <v>797</v>
+      </c>
+      <c r="C278" s="25" t="s">
+        <v>798</v>
+      </c>
+      <c r="D278" s="25" t="s">
+        <v>788</v>
+      </c>
+      <c r="E278" s="25" t="s">
+        <v>799</v>
+      </c>
+      <c r="F278" s="25" t="n">
+        <v>-423.1247062</v>
+      </c>
+      <c r="G278" s="25" t="n">
+        <v>-423.0880107</v>
+      </c>
+      <c r="H278" s="25" t="n">
+        <v>0.0366955</v>
+      </c>
+      <c r="I278" s="25" t="n">
+        <v>96.344</v>
       </c>
     </row>
     <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
